--- a/resources/Repository Setup.xlsx
+++ b/resources/Repository Setup.xlsx
@@ -268,7 +268,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4549" uniqueCount="2793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4649" uniqueCount="2868">
   <si>
     <t>identifier</t>
   </si>
@@ -8647,6 +8647,231 @@
   </si>
   <si>
     <t>Universe</t>
+  </si>
+  <si>
+    <t>date_reference</t>
+  </si>
+  <si>
+    <t>DT_REF_MONDAY</t>
+  </si>
+  <si>
+    <t>DT_REF_TUESDAY</t>
+  </si>
+  <si>
+    <t>DT_REF_WEDNESDAY</t>
+  </si>
+  <si>
+    <t>DT_REF_THURSDAY</t>
+  </si>
+  <si>
+    <t>DT_REF_FRIDAY</t>
+  </si>
+  <si>
+    <t>DT_REF_SATURDAY</t>
+  </si>
+  <si>
+    <t>DT_REF_SUNDAY</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>DT_REF_JANUARY</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>Tue</t>
+  </si>
+  <si>
+    <t>Wed</t>
+  </si>
+  <si>
+    <t>Thu</t>
+  </si>
+  <si>
+    <t>Fri</t>
+  </si>
+  <si>
+    <t>Sat</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
+    <t>DT_REF_FEBRUARY</t>
+  </si>
+  <si>
+    <t>DT_REF_MARCH</t>
+  </si>
+  <si>
+    <t>DT_REF_APRIL</t>
+  </si>
+  <si>
+    <t>DT_REF_MAY</t>
+  </si>
+  <si>
+    <t>DT_REF_JUNE</t>
+  </si>
+  <si>
+    <t>DT_REF_JULY</t>
+  </si>
+  <si>
+    <t>DT_REF_AUGUST</t>
+  </si>
+  <si>
+    <t>DT_REF_SEPTEMBER</t>
+  </si>
+  <si>
+    <t>DT_REF_OCTOBER</t>
+  </si>
+  <si>
+    <t>DT_REF_NOVEMBER</t>
+  </si>
+  <si>
+    <t>DT_REF_DECEMBER</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>DT_REF_Q1</t>
+  </si>
+  <si>
+    <t>DT_REF_Q2</t>
+  </si>
+  <si>
+    <t>DT_REF_Q3</t>
+  </si>
+  <si>
+    <t>DT_REF_Q4</t>
+  </si>
+  <si>
+    <t>DT_REF_S1</t>
+  </si>
+  <si>
+    <t>DT_REF_S2</t>
+  </si>
+  <si>
+    <t>First Quarter</t>
+  </si>
+  <si>
+    <t>Second Quarter</t>
+  </si>
+  <si>
+    <t>Third Quarter</t>
+  </si>
+  <si>
+    <t>Fourth Quarter</t>
+  </si>
+  <si>
+    <t>First Semester</t>
+  </si>
+  <si>
+    <t>Second Semester</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
   </si>
 </sst>
 </file>
@@ -8990,10 +9215,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1096"/>
+  <dimension ref="A1:E1121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42:E42"/>
+    <sheetView tabSelected="1" topLeftCell="A1058" workbookViewId="0">
+      <selection activeCell="D1115" sqref="D1115:E1121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27637,6 +27862,431 @@
         <v>1</v>
       </c>
     </row>
+    <row r="1097" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1097" t="s">
+        <v>2794</v>
+      </c>
+      <c r="B1097" t="s">
+        <v>2801</v>
+      </c>
+      <c r="C1097" t="s">
+        <v>2809</v>
+      </c>
+      <c r="D1097" t="s">
+        <v>2793</v>
+      </c>
+      <c r="E1097" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1098" t="s">
+        <v>2795</v>
+      </c>
+      <c r="B1098" t="s">
+        <v>2802</v>
+      </c>
+      <c r="C1098" t="s">
+        <v>2810</v>
+      </c>
+      <c r="D1098" t="s">
+        <v>2793</v>
+      </c>
+      <c r="E1098" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1099" t="s">
+        <v>2796</v>
+      </c>
+      <c r="B1099" t="s">
+        <v>2803</v>
+      </c>
+      <c r="C1099" t="s">
+        <v>2811</v>
+      </c>
+      <c r="D1099" t="s">
+        <v>2793</v>
+      </c>
+      <c r="E1099" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1100" t="s">
+        <v>2797</v>
+      </c>
+      <c r="B1100" t="s">
+        <v>2804</v>
+      </c>
+      <c r="C1100" t="s">
+        <v>2812</v>
+      </c>
+      <c r="D1100" t="s">
+        <v>2793</v>
+      </c>
+      <c r="E1100" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1101" t="s">
+        <v>2798</v>
+      </c>
+      <c r="B1101" t="s">
+        <v>2805</v>
+      </c>
+      <c r="C1101" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D1101" t="s">
+        <v>2793</v>
+      </c>
+      <c r="E1101" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1102" t="s">
+        <v>2799</v>
+      </c>
+      <c r="B1102" t="s">
+        <v>2806</v>
+      </c>
+      <c r="C1102" t="s">
+        <v>2814</v>
+      </c>
+      <c r="D1102" t="s">
+        <v>2793</v>
+      </c>
+      <c r="E1102" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1103" t="s">
+        <v>2800</v>
+      </c>
+      <c r="B1103" t="s">
+        <v>2807</v>
+      </c>
+      <c r="C1103" t="s">
+        <v>2815</v>
+      </c>
+      <c r="D1103" t="s">
+        <v>2793</v>
+      </c>
+      <c r="E1103" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1104" t="s">
+        <v>2808</v>
+      </c>
+      <c r="B1104" t="s">
+        <v>2827</v>
+      </c>
+      <c r="C1104" t="s">
+        <v>2839</v>
+      </c>
+      <c r="D1104" t="s">
+        <v>2793</v>
+      </c>
+      <c r="E1104" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1105" t="s">
+        <v>2816</v>
+      </c>
+      <c r="B1105" t="s">
+        <v>2828</v>
+      </c>
+      <c r="C1105" t="s">
+        <v>2840</v>
+      </c>
+      <c r="D1105" t="s">
+        <v>2793</v>
+      </c>
+      <c r="E1105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1106" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B1106" t="s">
+        <v>2829</v>
+      </c>
+      <c r="C1106" t="s">
+        <v>2841</v>
+      </c>
+      <c r="D1106" t="s">
+        <v>2793</v>
+      </c>
+      <c r="E1106" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1107" t="s">
+        <v>2818</v>
+      </c>
+      <c r="B1107" t="s">
+        <v>2830</v>
+      </c>
+      <c r="C1107" t="s">
+        <v>2842</v>
+      </c>
+      <c r="D1107" t="s">
+        <v>2793</v>
+      </c>
+      <c r="E1107" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1108" t="s">
+        <v>2819</v>
+      </c>
+      <c r="B1108" t="s">
+        <v>2831</v>
+      </c>
+      <c r="C1108" t="s">
+        <v>2831</v>
+      </c>
+      <c r="D1108" t="s">
+        <v>2793</v>
+      </c>
+      <c r="E1108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1109" t="s">
+        <v>2820</v>
+      </c>
+      <c r="B1109" t="s">
+        <v>2832</v>
+      </c>
+      <c r="C1109" t="s">
+        <v>2843</v>
+      </c>
+      <c r="D1109" t="s">
+        <v>2793</v>
+      </c>
+      <c r="E1109" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1110" t="s">
+        <v>2821</v>
+      </c>
+      <c r="B1110" t="s">
+        <v>2833</v>
+      </c>
+      <c r="C1110" t="s">
+        <v>2844</v>
+      </c>
+      <c r="D1110" t="s">
+        <v>2793</v>
+      </c>
+      <c r="E1110" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1111" t="s">
+        <v>2822</v>
+      </c>
+      <c r="B1111" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C1111" t="s">
+        <v>2845</v>
+      </c>
+      <c r="D1111" t="s">
+        <v>2793</v>
+      </c>
+      <c r="E1111" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1112" t="s">
+        <v>2823</v>
+      </c>
+      <c r="B1112" t="s">
+        <v>2835</v>
+      </c>
+      <c r="C1112" t="s">
+        <v>2846</v>
+      </c>
+      <c r="D1112" t="s">
+        <v>2793</v>
+      </c>
+      <c r="E1112" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1113" t="s">
+        <v>2824</v>
+      </c>
+      <c r="B1113" t="s">
+        <v>2836</v>
+      </c>
+      <c r="C1113" t="s">
+        <v>2847</v>
+      </c>
+      <c r="D1113" t="s">
+        <v>2793</v>
+      </c>
+      <c r="E1113" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1114" t="s">
+        <v>2825</v>
+      </c>
+      <c r="B1114" t="s">
+        <v>2837</v>
+      </c>
+      <c r="C1114" t="s">
+        <v>2848</v>
+      </c>
+      <c r="D1114" t="s">
+        <v>2793</v>
+      </c>
+      <c r="E1114" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1115" t="s">
+        <v>2826</v>
+      </c>
+      <c r="B1115" t="s">
+        <v>2838</v>
+      </c>
+      <c r="C1115" t="s">
+        <v>2849</v>
+      </c>
+      <c r="D1115" t="s">
+        <v>2793</v>
+      </c>
+      <c r="E1115" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1116" t="s">
+        <v>2850</v>
+      </c>
+      <c r="B1116" t="s">
+        <v>2856</v>
+      </c>
+      <c r="C1116" t="s">
+        <v>2862</v>
+      </c>
+      <c r="D1116" t="s">
+        <v>2793</v>
+      </c>
+      <c r="E1116" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1117" t="s">
+        <v>2851</v>
+      </c>
+      <c r="B1117" t="s">
+        <v>2857</v>
+      </c>
+      <c r="C1117" t="s">
+        <v>2863</v>
+      </c>
+      <c r="D1117" t="s">
+        <v>2793</v>
+      </c>
+      <c r="E1117" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1118" t="s">
+        <v>2852</v>
+      </c>
+      <c r="B1118" t="s">
+        <v>2858</v>
+      </c>
+      <c r="C1118" t="s">
+        <v>2864</v>
+      </c>
+      <c r="D1118" t="s">
+        <v>2793</v>
+      </c>
+      <c r="E1118" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1119" t="s">
+        <v>2853</v>
+      </c>
+      <c r="B1119" t="s">
+        <v>2859</v>
+      </c>
+      <c r="C1119" t="s">
+        <v>2865</v>
+      </c>
+      <c r="D1119" t="s">
+        <v>2793</v>
+      </c>
+      <c r="E1119" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1120" t="s">
+        <v>2854</v>
+      </c>
+      <c r="B1120" t="s">
+        <v>2860</v>
+      </c>
+      <c r="C1120" t="s">
+        <v>2866</v>
+      </c>
+      <c r="D1120" t="s">
+        <v>2793</v>
+      </c>
+      <c r="E1120" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1121" t="s">
+        <v>2855</v>
+      </c>
+      <c r="B1121" t="s">
+        <v>2861</v>
+      </c>
+      <c r="C1121" t="s">
+        <v>2867</v>
+      </c>
+      <c r="D1121" t="s">
+        <v>2793</v>
+      </c>
+      <c r="E1121" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -27647,7 +28297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
@@ -27987,7 +28637,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/resources/Repository Setup.xlsx
+++ b/resources/Repository Setup.xlsx
@@ -268,7 +268,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4653" uniqueCount="2871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6049" uniqueCount="3679">
   <si>
     <t>identifier</t>
   </si>
@@ -8881,13 +8881,2437 @@
   </si>
   <si>
     <t>DP</t>
+  </si>
+  <si>
+    <t>bloomberg_exchange_lookup</t>
+  </si>
+  <si>
+    <t>ASE</t>
+  </si>
+  <si>
+    <t>ASXPureMatch</t>
+  </si>
+  <si>
+    <t>Abidjan</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>DH</t>
+  </si>
+  <si>
+    <t>Accra</t>
+  </si>
+  <si>
+    <t>AktieTorget</t>
+  </si>
+  <si>
+    <t>KA</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Alexandria</t>
+  </si>
+  <si>
+    <t>EA</t>
+  </si>
+  <si>
+    <t>AlgeriaStExc</t>
+  </si>
+  <si>
+    <t>AlphaToronto</t>
+  </si>
+  <si>
+    <t>TA</t>
+  </si>
+  <si>
+    <t>AlphaVenture</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>AngolanStExc</t>
+  </si>
+  <si>
+    <t>Anguilla</t>
+  </si>
+  <si>
+    <t>Aquis Exchg</t>
+  </si>
+  <si>
+    <t>QX</t>
+  </si>
+  <si>
+    <t>AsstMtch MTF</t>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
+    <t>Asuncion</t>
+  </si>
+  <si>
+    <t>Athens</t>
+  </si>
+  <si>
+    <t>Athens Alt</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>Athens OTC</t>
+  </si>
+  <si>
+    <t>XT</t>
+  </si>
+  <si>
+    <t>Athens Repo</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>BATS</t>
+  </si>
+  <si>
+    <t>UF</t>
+  </si>
+  <si>
+    <t>BATS Europe</t>
+  </si>
+  <si>
+    <t>EB</t>
+  </si>
+  <si>
+    <t>BATS Y</t>
+  </si>
+  <si>
+    <t>VY</t>
+  </si>
+  <si>
+    <t>BATSChiX OTC</t>
+  </si>
+  <si>
+    <t>XV</t>
+  </si>
+  <si>
+    <t>BM&amp;FBOVESPA</t>
+  </si>
+  <si>
+    <t>BM&amp;FBOVESPA (Night Session)</t>
+  </si>
+  <si>
+    <t>BRVM Region</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>BSE India</t>
+  </si>
+  <si>
+    <t>IB</t>
+  </si>
+  <si>
+    <t>Bahrain Brse</t>
+  </si>
+  <si>
+    <t>Baikal</t>
+  </si>
+  <si>
+    <t>Baku SE</t>
+  </si>
+  <si>
+    <t>Banja Luka</t>
+  </si>
+  <si>
+    <t>BK</t>
+  </si>
+  <si>
+    <t>Barcelona</t>
+  </si>
+  <si>
+    <t>Beirut</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>RB</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>ZB</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Berne</t>
+  </si>
+  <si>
+    <t>Bilbao</t>
+  </si>
+  <si>
+    <t>Boat</t>
+  </si>
+  <si>
+    <t>XB</t>
+  </si>
+  <si>
+    <t>Bolsa Colomb</t>
+  </si>
+  <si>
+    <t>BorsaItalOTC</t>
+  </si>
+  <si>
+    <t>XI</t>
+  </si>
+  <si>
+    <t>Bosnia</t>
+  </si>
+  <si>
+    <t>BP</t>
+  </si>
+  <si>
+    <t>Bovespa Out</t>
+  </si>
+  <si>
+    <t>Br Virgin Is</t>
+  </si>
+  <si>
+    <t>Bratislava</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>GC</t>
+  </si>
+  <si>
+    <t>Bridgetown</t>
+  </si>
+  <si>
+    <t>BrsaItaliana</t>
+  </si>
+  <si>
+    <t>Brunei</t>
+  </si>
+  <si>
+    <t>BX</t>
+  </si>
+  <si>
+    <t>Budapest</t>
+  </si>
+  <si>
+    <t>Budapest OTC</t>
+  </si>
+  <si>
+    <t>XH</t>
+  </si>
+  <si>
+    <t>Buenos Floor</t>
+  </si>
+  <si>
+    <t>Buenos Sinac</t>
+  </si>
+  <si>
+    <t>Bulgaria OTC</t>
+  </si>
+  <si>
+    <t>XU</t>
+  </si>
+  <si>
+    <t>Burgundy</t>
+  </si>
+  <si>
+    <t>Bursa Malays</t>
+  </si>
+  <si>
+    <t>CBOE2</t>
+  </si>
+  <si>
+    <t>UE</t>
+  </si>
+  <si>
+    <t>CBSX</t>
+  </si>
+  <si>
+    <t>UO</t>
+  </si>
+  <si>
+    <t>CEESEG OTC</t>
+  </si>
+  <si>
+    <t>XA</t>
+  </si>
+  <si>
+    <t>CHI-X Japan</t>
+  </si>
+  <si>
+    <t>JI</t>
+  </si>
+  <si>
+    <t>CSX</t>
+  </si>
+  <si>
+    <t>CX2 Cad Vntr</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>CX2 Cd Trnto</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Canada Ntnl</t>
+  </si>
+  <si>
+    <t>Cape VerdeEx</t>
+  </si>
+  <si>
+    <t>VR</t>
+  </si>
+  <si>
+    <t>Caracas</t>
+  </si>
+  <si>
+    <t>VS</t>
+  </si>
+  <si>
+    <t>Casablanca</t>
+  </si>
+  <si>
+    <t>Chi-East</t>
+  </si>
+  <si>
+    <t>HE</t>
+  </si>
+  <si>
+    <t>Chi-X Europe</t>
+  </si>
+  <si>
+    <t>IX</t>
+  </si>
+  <si>
+    <t>Chi-X OTC</t>
+  </si>
+  <si>
+    <t>XC</t>
+  </si>
+  <si>
+    <t>ChiX Austral</t>
+  </si>
+  <si>
+    <t>AH</t>
+  </si>
+  <si>
+    <t>ChiX Cd Vntr</t>
+  </si>
+  <si>
+    <t>DV</t>
+  </si>
+  <si>
+    <t>ChiX Toronto</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>Composite</t>
+  </si>
+  <si>
+    <t>Continuous</t>
+  </si>
+  <si>
+    <t>SQ</t>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+  </si>
+  <si>
+    <t>Copenhagen</t>
+  </si>
+  <si>
+    <t>Cyprus ECM</t>
+  </si>
+  <si>
+    <t>YC</t>
+  </si>
+  <si>
+    <t>Czech  OTC</t>
+  </si>
+  <si>
+    <t>DFM</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>Damascus SE</t>
+  </si>
+  <si>
+    <t>Dansk OTC</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
+    <t>Dar E Slm SE</t>
+  </si>
+  <si>
+    <t>Dblin SE OTC</t>
+  </si>
+  <si>
+    <t>XF</t>
+  </si>
+  <si>
+    <t>Dealing Net</t>
+  </si>
+  <si>
+    <t>CQ</t>
+  </si>
+  <si>
+    <t>Delhi Stk Ex</t>
+  </si>
+  <si>
+    <t>IH</t>
+  </si>
+  <si>
+    <t>Deutsche OTC</t>
+  </si>
+  <si>
+    <t>XD</t>
+  </si>
+  <si>
+    <t>DoulaStkExch</t>
+  </si>
+  <si>
+    <t>Dublin</t>
+  </si>
+  <si>
+    <t>Dusseldorf</t>
+  </si>
+  <si>
+    <t>EDGA Exchange</t>
+  </si>
+  <si>
+    <t>VJ</t>
+  </si>
+  <si>
+    <t>EDGX Exchange</t>
+  </si>
+  <si>
+    <t>VK</t>
+  </si>
+  <si>
+    <t>EGX</t>
+  </si>
+  <si>
+    <t>EN AmstDer</t>
+  </si>
+  <si>
+    <t>EN Amsterdam</t>
+  </si>
+  <si>
+    <t>EN Brussels</t>
+  </si>
+  <si>
+    <t>EN Lisbon</t>
+  </si>
+  <si>
+    <t>EN Paris</t>
+  </si>
+  <si>
+    <t>EURO OTC</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>EL</t>
+  </si>
+  <si>
+    <t>Equiduct</t>
+  </si>
+  <si>
+    <t>Estn Crbn SE</t>
+  </si>
+  <si>
+    <t>Euro Comp</t>
+  </si>
+  <si>
+    <t>EU</t>
+  </si>
+  <si>
+    <t>EuroTLX</t>
+  </si>
+  <si>
+    <t>TE</t>
+  </si>
+  <si>
+    <t>Euronext OTC</t>
+  </si>
+  <si>
+    <t>XE</t>
+  </si>
+  <si>
+    <t>FINRA ADF</t>
+  </si>
+  <si>
+    <t>UD</t>
+  </si>
+  <si>
+    <t>FN Denmark</t>
+  </si>
+  <si>
+    <t>DF</t>
+  </si>
+  <si>
+    <t>FN Finland</t>
+  </si>
+  <si>
+    <t>FF</t>
+  </si>
+  <si>
+    <t>FN Iceland</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>FN Stockholm</t>
+  </si>
+  <si>
+    <t>SF</t>
+  </si>
+  <si>
+    <t>Frankfurt</t>
+  </si>
+  <si>
+    <t>Frankfurt NM</t>
+  </si>
+  <si>
+    <t>Fukuoka</t>
+  </si>
+  <si>
+    <t>JF</t>
+  </si>
+  <si>
+    <t>GXG Markets</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>ZG</t>
+  </si>
+  <si>
+    <t>Gaborone</t>
+  </si>
+  <si>
+    <t>Gambia StkEx</t>
+  </si>
+  <si>
+    <t>GX</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>GreTai Sec M</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Guayaquil</t>
+  </si>
+  <si>
+    <t>Guernsey</t>
+  </si>
+  <si>
+    <t>HI-MTF</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Hannover</t>
+  </si>
+  <si>
+    <t>VH</t>
+  </si>
+  <si>
+    <t>Hanoi UPCoM</t>
+  </si>
+  <si>
+    <t>Hercules</t>
+  </si>
+  <si>
+    <t>JX</t>
+  </si>
+  <si>
+    <t>Ho Chi Minh</t>
+  </si>
+  <si>
+    <t>VM</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>HO</t>
+  </si>
+  <si>
+    <t>ISDX</t>
+  </si>
+  <si>
+    <t>ISE</t>
+  </si>
+  <si>
+    <t>UL</t>
+  </si>
+  <si>
+    <t>ITG Posit</t>
+  </si>
+  <si>
+    <t>PO</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Instinet Canada Cross</t>
+  </si>
+  <si>
+    <t>Iraq SE</t>
+  </si>
+  <si>
+    <t>Isle of Man</t>
+  </si>
+  <si>
+    <t>Istanbul</t>
+  </si>
+  <si>
+    <t>JSCGeorgiaSE</t>
+  </si>
+  <si>
+    <t>JSDA OffExch</t>
+  </si>
+  <si>
+    <t>JJ</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>JY</t>
+  </si>
+  <si>
+    <t>Johannesburg</t>
+  </si>
+  <si>
+    <t>KOSDAQ</t>
+  </si>
+  <si>
+    <t>KQ</t>
+  </si>
+  <si>
+    <t>KSE</t>
+  </si>
+  <si>
+    <t>Kabu.com</t>
+  </si>
+  <si>
+    <t>JD</t>
+  </si>
+  <si>
+    <t>Kabul Intl</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>KazkhstnStEX</t>
+  </si>
+  <si>
+    <t>Kingston</t>
+  </si>
+  <si>
+    <t>Konex</t>
+  </si>
+  <si>
+    <t>Korea SE</t>
+  </si>
+  <si>
+    <t>KoreaFrBMkt</t>
+  </si>
+  <si>
+    <t>KF</t>
+  </si>
+  <si>
+    <t>Kosovo</t>
+  </si>
+  <si>
+    <t>KO</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>KB</t>
+  </si>
+  <si>
+    <t>LSE EuropeQS</t>
+  </si>
+  <si>
+    <t>LO</t>
+  </si>
+  <si>
+    <t>Laos SE</t>
+  </si>
+  <si>
+    <t>LibyanStExc</t>
+  </si>
+  <si>
+    <t>Liechtenstei</t>
+  </si>
+  <si>
+    <t>Liqdty Qt Ex</t>
+  </si>
+  <si>
+    <t>LQ</t>
+  </si>
+  <si>
+    <t>Liquidnet Canada ATS</t>
+  </si>
+  <si>
+    <t>Ljub SE OTC</t>
+  </si>
+  <si>
+    <t>XJ</t>
+  </si>
+  <si>
+    <t>Ljubljana</t>
+  </si>
+  <si>
+    <t>Lndon SE OTC</t>
+  </si>
+  <si>
+    <t>XL</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Lynx ATS</t>
+  </si>
+  <si>
+    <t>DG</t>
+  </si>
+  <si>
+    <t>MCX Stock Exchange</t>
+  </si>
+  <si>
+    <t>IG</t>
+  </si>
+  <si>
+    <t>MICEX Main</t>
+  </si>
+  <si>
+    <t>RX</t>
+  </si>
+  <si>
+    <t>MICEX NMD</t>
+  </si>
+  <si>
+    <t>RN</t>
+  </si>
+  <si>
+    <t>MICEX Repo</t>
+  </si>
+  <si>
+    <t>RP</t>
+  </si>
+  <si>
+    <t>Macau</t>
+  </si>
+  <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
+    <t>Madeira</t>
+  </si>
+  <si>
+    <t>Madrid Stock Exchange</t>
+  </si>
+  <si>
+    <t>Maldives S E</t>
+  </si>
+  <si>
+    <t>Maputo</t>
+  </si>
+  <si>
+    <t>Marshall Isd</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>Medellin</t>
+  </si>
+  <si>
+    <t>Mendoza SE</t>
+  </si>
+  <si>
+    <t>Mil Aftr Hrs</t>
+  </si>
+  <si>
+    <t>IF</t>
+  </si>
+  <si>
+    <t>Mil Comp Day</t>
+  </si>
+  <si>
+    <t>IC</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Montevideo</t>
+  </si>
+  <si>
+    <t>Montreal</t>
+  </si>
+  <si>
+    <t>Munich</t>
+  </si>
+  <si>
+    <t>Muscat</t>
+  </si>
+  <si>
+    <t>NASDAQ CM</t>
+  </si>
+  <si>
+    <t>UR</t>
+  </si>
+  <si>
+    <t>NASDAQ GM</t>
+  </si>
+  <si>
+    <t>UQ</t>
+  </si>
+  <si>
+    <t>NASDAQ GS</t>
+  </si>
+  <si>
+    <t>UW</t>
+  </si>
+  <si>
+    <t>NASDAQ iM</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>NDQ Deutshld</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>NEWEX</t>
+  </si>
+  <si>
+    <t>EX</t>
+  </si>
+  <si>
+    <t>NGM OTC</t>
+  </si>
+  <si>
+    <t>XG</t>
+  </si>
+  <si>
+    <t>NILEX</t>
+  </si>
+  <si>
+    <t>EI</t>
+  </si>
+  <si>
+    <t>NSDQ OMX Arm</t>
+  </si>
+  <si>
+    <t>AY</t>
+  </si>
+  <si>
+    <t>NSDQ OMX BX</t>
+  </si>
+  <si>
+    <t>UB</t>
+  </si>
+  <si>
+    <t>NSDQ OMX PSX</t>
+  </si>
+  <si>
+    <t>UX</t>
+  </si>
+  <si>
+    <t>NSX</t>
+  </si>
+  <si>
+    <t>NYSE ARCA Eu</t>
+  </si>
+  <si>
+    <t>NYSE Arca</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>NYSE EU Lond</t>
+  </si>
+  <si>
+    <t>LD</t>
+  </si>
+  <si>
+    <t>NYSE MKT LLC</t>
+  </si>
+  <si>
+    <t>NZX</t>
+  </si>
+  <si>
+    <t>Nagoya</t>
+  </si>
+  <si>
+    <t>JN</t>
+  </si>
+  <si>
+    <t>Nairobi SE</t>
+  </si>
+  <si>
+    <t>Nasdaq Dubai</t>
+  </si>
+  <si>
+    <t>National</t>
+  </si>
+  <si>
+    <t>UC</t>
+  </si>
+  <si>
+    <t>Natl India</t>
+  </si>
+  <si>
+    <t>Nepal Stock</t>
+  </si>
+  <si>
+    <t>NK</t>
+  </si>
+  <si>
+    <t>Neth Antille</t>
+  </si>
+  <si>
+    <t>NT</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>UN</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Nicosia</t>
+  </si>
+  <si>
+    <t>Nordic GM</t>
+  </si>
+  <si>
+    <t>Norway OTC</t>
+  </si>
+  <si>
+    <t>NS</t>
+  </si>
+  <si>
+    <t>OMX OTC</t>
+  </si>
+  <si>
+    <t>XO</t>
+  </si>
+  <si>
+    <t>OTC  US</t>
+  </si>
+  <si>
+    <t>UV</t>
+  </si>
+  <si>
+    <t>OTC BB</t>
+  </si>
+  <si>
+    <t>UU</t>
+  </si>
+  <si>
+    <t>OTC Markets</t>
+  </si>
+  <si>
+    <t>PQ</t>
+  </si>
+  <si>
+    <t>OTC-X BEKB</t>
+  </si>
+  <si>
+    <t>XK</t>
+  </si>
+  <si>
+    <t>Occidente</t>
+  </si>
+  <si>
+    <t>Omega</t>
+  </si>
+  <si>
+    <t>Optimark Jpn</t>
+  </si>
+  <si>
+    <t>Osaka</t>
+  </si>
+  <si>
+    <t>Oslo OTC</t>
+  </si>
+  <si>
+    <t>XN</t>
+  </si>
+  <si>
+    <t>PEX</t>
+  </si>
+  <si>
+    <t>PX</t>
+  </si>
+  <si>
+    <t>PFTS</t>
+  </si>
+  <si>
+    <t>PFTSOrderdrv</t>
+  </si>
+  <si>
+    <t>OU</t>
+  </si>
+  <si>
+    <t>PFTSQuotedrv</t>
+  </si>
+  <si>
+    <t>QU</t>
+  </si>
+  <si>
+    <t>PLUS Europe</t>
+  </si>
+  <si>
+    <t>Panama City</t>
+  </si>
+  <si>
+    <t>Paris NM</t>
+  </si>
+  <si>
+    <t>Plus Mkt OTC</t>
+  </si>
+  <si>
+    <t>XP</t>
+  </si>
+  <si>
+    <t>Poland OTC</t>
+  </si>
+  <si>
+    <t>PD</t>
+  </si>
+  <si>
+    <t>Port Moresby</t>
+  </si>
+  <si>
+    <t>PB</t>
+  </si>
+  <si>
+    <t>Port Spain</t>
+  </si>
+  <si>
+    <t>Prague SE</t>
+  </si>
+  <si>
+    <t>Prague-Block</t>
+  </si>
+  <si>
+    <t>KL</t>
+  </si>
+  <si>
+    <t>Pure Trading</t>
+  </si>
+  <si>
+    <t>CJ</t>
+  </si>
+  <si>
+    <t>Quito</t>
+  </si>
+  <si>
+    <t>EQ</t>
+  </si>
+  <si>
+    <t>Quote MTF</t>
+  </si>
+  <si>
+    <t>QM</t>
+  </si>
+  <si>
+    <t>RASDAQ</t>
+  </si>
+  <si>
+    <t>RQ</t>
+  </si>
+  <si>
+    <t>RTS</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>RTS Ukraine</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>Reykjavik</t>
+  </si>
+  <si>
+    <t>Riga</t>
+  </si>
+  <si>
+    <t>LG</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>SBI Japannext</t>
+  </si>
+  <si>
+    <t>SBIJNxt XMkt</t>
+  </si>
+  <si>
+    <t>JU</t>
+  </si>
+  <si>
+    <t>SEM</t>
+  </si>
+  <si>
+    <t>SIBEX</t>
+  </si>
+  <si>
+    <t>RZ</t>
+  </si>
+  <si>
+    <t>SIGMA X Canada</t>
+  </si>
+  <si>
+    <t>TY</t>
+  </si>
+  <si>
+    <t>SIGMA X MTF</t>
+  </si>
+  <si>
+    <t>SIM VSE</t>
+  </si>
+  <si>
+    <t>SIX Str Prod</t>
+  </si>
+  <si>
+    <t>SIX Swiss Ex</t>
+  </si>
+  <si>
+    <t>SIX Swiss Off-Exchange</t>
+  </si>
+  <si>
+    <t>XW</t>
+  </si>
+  <si>
+    <t>SPSE</t>
+  </si>
+  <si>
+    <t>FS</t>
+  </si>
+  <si>
+    <t>Sant. Comerc</t>
+  </si>
+  <si>
+    <t>Sant. Elec</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>Sapporo</t>
+  </si>
+  <si>
+    <t>JS</t>
+  </si>
+  <si>
+    <t>Sarajevo</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>ZS</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Shanghai</t>
+  </si>
+  <si>
+    <t>SharesPost</t>
+  </si>
+  <si>
+    <t>Shenzhen</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>SU</t>
+  </si>
+  <si>
+    <t>Soma</t>
+  </si>
+  <si>
+    <t>St Kts &amp; Nvs</t>
+  </si>
+  <si>
+    <t>NX</t>
+  </si>
+  <si>
+    <t>Stutgt Wrnts</t>
+  </si>
+  <si>
+    <t>Stuttgart</t>
+  </si>
+  <si>
+    <t>Stuttgrt OTC</t>
+  </si>
+  <si>
+    <t>XS</t>
+  </si>
+  <si>
+    <t>Swiss Contrb</t>
+  </si>
+  <si>
+    <t>TMX Select</t>
+  </si>
+  <si>
+    <t>TOM MTF</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Tallinn</t>
+  </si>
+  <si>
+    <t>Tehran</t>
+  </si>
+  <si>
+    <t>Tel Aviv</t>
+  </si>
+  <si>
+    <t>Tokyo</t>
+  </si>
+  <si>
+    <t>JT</t>
+  </si>
+  <si>
+    <t>Tokyo AIM</t>
+  </si>
+  <si>
+    <t>JG</t>
+  </si>
+  <si>
+    <t>Toronto</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>Tradegate</t>
+  </si>
+  <si>
+    <t>Tradepoint</t>
+  </si>
+  <si>
+    <t>TriAct Trnto</t>
+  </si>
+  <si>
+    <t>TriAct Vntre</t>
+  </si>
+  <si>
+    <t>Tunis</t>
+  </si>
+  <si>
+    <t>TurkDEX</t>
+  </si>
+  <si>
+    <t>T0</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Turks&amp; Caico</t>
+  </si>
+  <si>
+    <t>Turquoise</t>
+  </si>
+  <si>
+    <t>TQ</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>ZU</t>
+  </si>
+  <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t>Valetta</t>
+  </si>
+  <si>
+    <t>Venture</t>
+  </si>
+  <si>
+    <t>Vilnius SE</t>
+  </si>
+  <si>
+    <t>Windhoek</t>
+  </si>
+  <si>
+    <t>Winnipeg</t>
+  </si>
+  <si>
+    <t>Xetra</t>
+  </si>
+  <si>
+    <t>Xetra ETF</t>
+  </si>
+  <si>
+    <t>Xetra Stars</t>
+  </si>
+  <si>
+    <t>XetraIntlMkt</t>
+  </si>
+  <si>
+    <t>GK</t>
+  </si>
+  <si>
+    <t>Xtra EU Strs</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>YS</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_AR</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_AT</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_AQ</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_IA</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_DH</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_GN</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_KA</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_AL</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_EA</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_AG</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_TA</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_TN</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_JR</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_AD</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_AX</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_AI</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_QX</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_A0</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_PN</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_GA</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_AA</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_XT</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_AP</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_UF</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_EB</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_VY</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_XV</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_BS</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_BN</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_BC</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_IB</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_BM</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_BI</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_LK</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_AZ</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_TB</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_BK</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_SB</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_LB</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_RB</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_SG</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_ZB</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_GB</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_BH</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_SR</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_SO</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_XB</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_VB</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_CX</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_XI</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_BP</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_BV</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_VI</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_SK</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_GC</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_BA</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_IM</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_BX</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_RE</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_HB</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_XH</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_AF</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_AS</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_XU</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_BU</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_BY</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_MK</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_UE</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_UO</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_XA</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_JI</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_KY</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_DS</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_DT</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_KH</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_CF</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_VR</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_VS</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_MC</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_HE</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_IX</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_XC</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_AH</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_DV</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_TX</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_UM</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_SL</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_LC</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_SQ</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_CU</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_DC</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_CR</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_YC</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_RC</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_DB</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_SY</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_DD</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_TZ</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_XF</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_CQ</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_IH</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_XD</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_BD</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_DE</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_ID</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_GD</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_VJ</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_VK</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_EC</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_NE</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_NA</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_BB</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_PL</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_FP</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_E1</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_EO</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_EL</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_BQ</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_EK</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_EU</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_TE</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_XE</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_UD</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_DF</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_FF</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_RF</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_SF</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_GF</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_NF</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_JF</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_G4</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_ZG</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_BG</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_GX</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_TL</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_TT</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_GL</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_EG</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_GU</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_HM</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_GH</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_GI</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_VH</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_VU</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_ZH</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_FH</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_JX</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_VM</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_HO</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_HK</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_PZ</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_UL</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_PO</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_IJ</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_TW</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_IQ</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_IO</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_TI</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_GG</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_JJ</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_JY</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_SJ</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_KQ</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_KS</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_JD</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_AK</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_PK</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_KZ</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_JA</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_KE</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_KP</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_KF</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_KO</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_KK</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_KB</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_LO</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_NL</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_LS</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_LY</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_LE</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_PE</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_LQ</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_TK</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_XJ</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_SV</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_XL</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_LN</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_LI</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_ZL</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_LX</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_DG</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_IG</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_RX</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_RN</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_RP</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_MA</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_MS</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_MD</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_SN</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_SM</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_MW</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_MX</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_MZ</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_MI</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_CL</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_AM</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_MM</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_IF</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_IC</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_MB</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_MN</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_MO</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_ME</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_UY</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_CM</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_GM</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_OM</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_UR</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_UQ</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_UW</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_UT</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_ND</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_EX</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_XG</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_EI</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_AY</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_UB</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_UX</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_AO</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_NR</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_UP</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_LD</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_UA</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_NZ</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_JN</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_KN</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_DU</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_UC</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_IS</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_NK</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_NT</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_UN</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_NC</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_CY</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_NG</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_NS</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_XO</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_UV</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_UU</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_PQ</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_XK</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_CO</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_TG</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_JM</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_JO</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_NO</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_XN</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_PX</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_UZ</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_OU</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_QU</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_PG</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_PS</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_PP</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_NP</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_PM</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_XP</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_PD</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_PB</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_TP</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_CK</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_KL</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_CJ</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_QD</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_EQ</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_QM</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_RQ</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_RR</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_UK</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_IR</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_LG</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_RW</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_JE</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_JU</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_MP</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_RZ</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_TY</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_S1</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_SI</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_SX</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_SE</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_VX</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_XW</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_FS</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_CC</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_CE</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_JS</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_BT</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_AB</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_ZS</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_SZ</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_CG</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_SH</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_CS</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_SU</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_SP</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_BO</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_NX</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_SS</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_GW</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_GS</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_XS</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_SD</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_SC</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_TJ</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_MT</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_TD</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_ET</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_IE</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_IT</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_JT</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_JG</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_CT</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_TH</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_LT</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_TR</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_TV</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_TU</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_T0</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_TM</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_TC</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_TQ</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_UG</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_ZU</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_SA</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_MV</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_CV</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_AV</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_LH</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_PW</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_NW</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_CW</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_GY</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_GT</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_GQ</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_GK</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_GE</t>
+  </si>
+  <si>
+    <t>BB_EXCH_LU_YS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8895,16 +11319,317 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -8912,20 +11637,210 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -9224,10 +12139,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1122"/>
+  <dimension ref="A1:E1471"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="A248" sqref="A248"/>
+    <sheetView tabSelected="1" topLeftCell="A1326" workbookViewId="0">
+      <selection activeCell="A1123" sqref="A1123:A1471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9235,7 +12150,7 @@
     <col min="1" max="1" width="45.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.140625" customWidth="1"/>
-    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -28310,6 +31225,5939 @@
         <v>2793</v>
       </c>
       <c r="E1122" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1123" t="s">
+        <v>3331</v>
+      </c>
+      <c r="B1123" s="4" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C1123" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="D1123" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1123" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1124" s="4" t="s">
+        <v>3332</v>
+      </c>
+      <c r="B1124" s="4" t="s">
+        <v>2872</v>
+      </c>
+      <c r="C1124" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D1124" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1124" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1125" s="4" t="s">
+        <v>3333</v>
+      </c>
+      <c r="B1125" s="4" t="s">
+        <v>2873</v>
+      </c>
+      <c r="C1125" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D1125" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1125" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1126" s="4" t="s">
+        <v>3334</v>
+      </c>
+      <c r="B1126" s="4" t="s">
+        <v>2874</v>
+      </c>
+      <c r="C1126" s="4" t="s">
+        <v>2875</v>
+      </c>
+      <c r="D1126" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1126" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1127" s="4" t="s">
+        <v>3335</v>
+      </c>
+      <c r="B1127" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="C1127" s="4" t="s">
+        <v>2876</v>
+      </c>
+      <c r="D1127" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1127" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1128" s="4" t="s">
+        <v>3336</v>
+      </c>
+      <c r="B1128" s="4" t="s">
+        <v>2877</v>
+      </c>
+      <c r="C1128" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="D1128" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1128" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1129" s="4" t="s">
+        <v>3337</v>
+      </c>
+      <c r="B1129" s="4" t="s">
+        <v>2878</v>
+      </c>
+      <c r="C1129" s="4" t="s">
+        <v>2879</v>
+      </c>
+      <c r="D1129" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1129" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1130" s="4" t="s">
+        <v>3338</v>
+      </c>
+      <c r="B1130" s="4" t="s">
+        <v>2880</v>
+      </c>
+      <c r="C1130" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D1130" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1130" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1131" s="4" t="s">
+        <v>3339</v>
+      </c>
+      <c r="B1131" s="4" t="s">
+        <v>2881</v>
+      </c>
+      <c r="C1131" s="4" t="s">
+        <v>2882</v>
+      </c>
+      <c r="D1131" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1131" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1132" s="4" t="s">
+        <v>3340</v>
+      </c>
+      <c r="B1132" s="4" t="s">
+        <v>2883</v>
+      </c>
+      <c r="C1132" s="4" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D1132" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1132" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1133" s="4" t="s">
+        <v>3341</v>
+      </c>
+      <c r="B1133" s="4" t="s">
+        <v>2884</v>
+      </c>
+      <c r="C1133" s="4" t="s">
+        <v>2885</v>
+      </c>
+      <c r="D1133" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1133" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1134" s="4" t="s">
+        <v>3342</v>
+      </c>
+      <c r="B1134" s="4" t="s">
+        <v>2886</v>
+      </c>
+      <c r="C1134" s="4" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D1134" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1134" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1135" s="4" t="s">
+        <v>3343</v>
+      </c>
+      <c r="B1135" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="C1135" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="D1135" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1135" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1136" s="4" t="s">
+        <v>3344</v>
+      </c>
+      <c r="B1136" s="4" t="s">
+        <v>2887</v>
+      </c>
+      <c r="C1136" s="4" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D1136" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1136" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1137" s="4" t="s">
+        <v>3345</v>
+      </c>
+      <c r="B1137" s="4" t="s">
+        <v>2888</v>
+      </c>
+      <c r="C1137" s="4" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D1137" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1137" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1138" s="4" t="s">
+        <v>3346</v>
+      </c>
+      <c r="B1138" s="4" t="s">
+        <v>2889</v>
+      </c>
+      <c r="C1138" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D1138" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1138" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1139" s="4" t="s">
+        <v>3347</v>
+      </c>
+      <c r="B1139" s="4" t="s">
+        <v>2890</v>
+      </c>
+      <c r="C1139" s="4" t="s">
+        <v>2891</v>
+      </c>
+      <c r="D1139" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1139" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1140" s="4" t="s">
+        <v>3348</v>
+      </c>
+      <c r="B1140" s="4" t="s">
+        <v>2892</v>
+      </c>
+      <c r="C1140" s="4" t="s">
+        <v>2893</v>
+      </c>
+      <c r="D1140" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1140" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1141" s="4" t="s">
+        <v>3349</v>
+      </c>
+      <c r="B1141" s="4" t="s">
+        <v>2894</v>
+      </c>
+      <c r="C1141" s="4" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D1141" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1141" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1142" s="4" t="s">
+        <v>3350</v>
+      </c>
+      <c r="B1142" s="4" t="s">
+        <v>2895</v>
+      </c>
+      <c r="C1142" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="D1142" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1142" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1143" s="4" t="s">
+        <v>3351</v>
+      </c>
+      <c r="B1143" s="4" t="s">
+        <v>2896</v>
+      </c>
+      <c r="C1143" s="4" t="s">
+        <v>2897</v>
+      </c>
+      <c r="D1143" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1143" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1144" s="4" t="s">
+        <v>3352</v>
+      </c>
+      <c r="B1144" s="4" t="s">
+        <v>2898</v>
+      </c>
+      <c r="C1144" s="4" t="s">
+        <v>2899</v>
+      </c>
+      <c r="D1144" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1144" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1145" s="4" t="s">
+        <v>3353</v>
+      </c>
+      <c r="B1145" s="4" t="s">
+        <v>2900</v>
+      </c>
+      <c r="C1145" s="4" t="s">
+        <v>2901</v>
+      </c>
+      <c r="D1145" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1145" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1146" s="4" t="s">
+        <v>3354</v>
+      </c>
+      <c r="B1146" s="4" t="s">
+        <v>2902</v>
+      </c>
+      <c r="C1146" s="4" t="s">
+        <v>2903</v>
+      </c>
+      <c r="D1146" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1146" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1147" s="4" t="s">
+        <v>3355</v>
+      </c>
+      <c r="B1147" s="4" t="s">
+        <v>2904</v>
+      </c>
+      <c r="C1147" s="4" t="s">
+        <v>2905</v>
+      </c>
+      <c r="D1147" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1147" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1148" s="4" t="s">
+        <v>3356</v>
+      </c>
+      <c r="B1148" s="4" t="s">
+        <v>2906</v>
+      </c>
+      <c r="C1148" s="4" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D1148" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1148" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1149" s="4" t="s">
+        <v>3357</v>
+      </c>
+      <c r="B1149" s="4" t="s">
+        <v>2908</v>
+      </c>
+      <c r="C1149" s="4" t="s">
+        <v>2909</v>
+      </c>
+      <c r="D1149" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1149" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1150" s="4" t="s">
+        <v>3358</v>
+      </c>
+      <c r="B1150" s="4" t="s">
+        <v>2910</v>
+      </c>
+      <c r="C1150" s="4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D1150" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1150" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1151" s="4" t="s">
+        <v>3359</v>
+      </c>
+      <c r="B1151" s="4" t="s">
+        <v>2911</v>
+      </c>
+      <c r="C1151" s="4" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D1151" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1151" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1152" s="4" t="s">
+        <v>3360</v>
+      </c>
+      <c r="B1152" s="4" t="s">
+        <v>2912</v>
+      </c>
+      <c r="C1152" s="4" t="s">
+        <v>2913</v>
+      </c>
+      <c r="D1152" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1152" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1153" s="4" t="s">
+        <v>3361</v>
+      </c>
+      <c r="B1153" s="4" t="s">
+        <v>2914</v>
+      </c>
+      <c r="C1153" s="4" t="s">
+        <v>2915</v>
+      </c>
+      <c r="D1153" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1153" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1154" s="4" t="s">
+        <v>3362</v>
+      </c>
+      <c r="B1154" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="C1154" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="D1154" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1154" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1155" s="4" t="s">
+        <v>3363</v>
+      </c>
+      <c r="B1155" s="4" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C1155" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="D1155" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1155" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1156" s="4" t="s">
+        <v>3364</v>
+      </c>
+      <c r="B1156" s="4" t="s">
+        <v>2917</v>
+      </c>
+      <c r="C1156" s="4" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D1156" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1156" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1157" s="4" t="s">
+        <v>3365</v>
+      </c>
+      <c r="B1157" s="4" t="s">
+        <v>2918</v>
+      </c>
+      <c r="C1157" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D1157" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1157" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1158" s="4" t="s">
+        <v>3366</v>
+      </c>
+      <c r="B1158" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="C1158" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="D1158" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1158" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1159" s="4" t="s">
+        <v>3367</v>
+      </c>
+      <c r="B1159" s="4" t="s">
+        <v>2919</v>
+      </c>
+      <c r="C1159" s="4" t="s">
+        <v>2920</v>
+      </c>
+      <c r="D1159" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1159" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1160" s="4" t="s">
+        <v>3368</v>
+      </c>
+      <c r="B1160" s="4" t="s">
+        <v>2921</v>
+      </c>
+      <c r="C1160" s="4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D1160" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1160" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1161" s="4" t="s">
+        <v>3369</v>
+      </c>
+      <c r="B1161" s="4" t="s">
+        <v>2922</v>
+      </c>
+      <c r="C1161" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="D1161" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1161" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1162" s="4" t="s">
+        <v>3370</v>
+      </c>
+      <c r="B1162" s="4" t="s">
+        <v>2923</v>
+      </c>
+      <c r="C1162" s="4" t="s">
+        <v>2924</v>
+      </c>
+      <c r="D1162" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1162" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1163" s="4" t="s">
+        <v>3371</v>
+      </c>
+      <c r="B1163" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="C1163" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="D1163" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1163" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1164" s="4" t="s">
+        <v>3372</v>
+      </c>
+      <c r="B1164" s="4" t="s">
+        <v>2925</v>
+      </c>
+      <c r="C1164" s="4" t="s">
+        <v>2926</v>
+      </c>
+      <c r="D1164" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1164" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1165" s="4" t="s">
+        <v>3373</v>
+      </c>
+      <c r="B1165" s="4" t="s">
+        <v>2927</v>
+      </c>
+      <c r="C1165" s="4" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D1165" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1165" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1166" s="4" t="s">
+        <v>3374</v>
+      </c>
+      <c r="B1166" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="C1166" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="D1166" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1166" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1167" s="4" t="s">
+        <v>3375</v>
+      </c>
+      <c r="B1167" s="4" t="s">
+        <v>2928</v>
+      </c>
+      <c r="C1167" s="4" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D1167" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1167" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1168" s="4" t="s">
+        <v>3376</v>
+      </c>
+      <c r="B1168" s="4" t="s">
+        <v>2929</v>
+      </c>
+      <c r="C1168" s="4" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D1168" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1168" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1169" s="4" t="s">
+        <v>3377</v>
+      </c>
+      <c r="B1169" s="4" t="s">
+        <v>2930</v>
+      </c>
+      <c r="C1169" s="4" t="s">
+        <v>2931</v>
+      </c>
+      <c r="D1169" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1169" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1170" s="4" t="s">
+        <v>3378</v>
+      </c>
+      <c r="B1170" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="C1170" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="D1170" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1170" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1171" s="4" t="s">
+        <v>3379</v>
+      </c>
+      <c r="B1171" s="4" t="s">
+        <v>2932</v>
+      </c>
+      <c r="C1171" s="4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D1171" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1171" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1172" s="4" t="s">
+        <v>3380</v>
+      </c>
+      <c r="B1172" s="4" t="s">
+        <v>2933</v>
+      </c>
+      <c r="C1172" s="4" t="s">
+        <v>2934</v>
+      </c>
+      <c r="D1172" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1172" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1173" s="4" t="s">
+        <v>3381</v>
+      </c>
+      <c r="B1173" s="4" t="s">
+        <v>2935</v>
+      </c>
+      <c r="C1173" s="4" t="s">
+        <v>2936</v>
+      </c>
+      <c r="D1173" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1173" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1174" s="4" t="s">
+        <v>3382</v>
+      </c>
+      <c r="B1174" s="4" t="s">
+        <v>2937</v>
+      </c>
+      <c r="C1174" s="4" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D1174" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1174" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1175" s="4" t="s">
+        <v>3383</v>
+      </c>
+      <c r="B1175" s="4" t="s">
+        <v>2938</v>
+      </c>
+      <c r="C1175" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D1175" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1175" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1176" s="4" t="s">
+        <v>3384</v>
+      </c>
+      <c r="B1176" s="4" t="s">
+        <v>2939</v>
+      </c>
+      <c r="C1176" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="D1176" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1176" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1177" s="4" t="s">
+        <v>3385</v>
+      </c>
+      <c r="B1177" s="4" t="s">
+        <v>2940</v>
+      </c>
+      <c r="C1177" s="4" t="s">
+        <v>2941</v>
+      </c>
+      <c r="D1177" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1177" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1178" s="4" t="s">
+        <v>3386</v>
+      </c>
+      <c r="B1178" s="4" t="s">
+        <v>2942</v>
+      </c>
+      <c r="C1178" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="D1178" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1178" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1179" s="4" t="s">
+        <v>3387</v>
+      </c>
+      <c r="B1179" s="4" t="s">
+        <v>2943</v>
+      </c>
+      <c r="C1179" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="D1179" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1179" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1180" s="4" t="s">
+        <v>3388</v>
+      </c>
+      <c r="B1180" s="4" t="s">
+        <v>2944</v>
+      </c>
+      <c r="C1180" s="4" t="s">
+        <v>2945</v>
+      </c>
+      <c r="D1180" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1180" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1181" s="4" t="s">
+        <v>3389</v>
+      </c>
+      <c r="B1181" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="C1181" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D1181" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1181" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1182" s="4" t="s">
+        <v>3390</v>
+      </c>
+      <c r="B1182" s="4" t="s">
+        <v>2946</v>
+      </c>
+      <c r="C1182" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="D1182" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1182" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1183" s="4" t="s">
+        <v>3391</v>
+      </c>
+      <c r="B1183" s="4" t="s">
+        <v>2947</v>
+      </c>
+      <c r="C1183" s="4" t="s">
+        <v>2948</v>
+      </c>
+      <c r="D1183" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1183" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1184" s="4" t="s">
+        <v>3392</v>
+      </c>
+      <c r="B1184" s="4" t="s">
+        <v>2949</v>
+      </c>
+      <c r="C1184" s="4" t="s">
+        <v>998</v>
+      </c>
+      <c r="D1184" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1184" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1185" s="4" t="s">
+        <v>3393</v>
+      </c>
+      <c r="B1185" s="4" t="s">
+        <v>2950</v>
+      </c>
+      <c r="C1185" s="4" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D1185" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1185" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1186" s="4" t="s">
+        <v>3394</v>
+      </c>
+      <c r="B1186" s="4" t="s">
+        <v>2951</v>
+      </c>
+      <c r="C1186" s="4" t="s">
+        <v>2952</v>
+      </c>
+      <c r="D1186" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1186" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1187" s="4" t="s">
+        <v>3395</v>
+      </c>
+      <c r="B1187" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="C1187" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="D1187" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1187" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1188" s="4" t="s">
+        <v>3396</v>
+      </c>
+      <c r="B1188" s="4" t="s">
+        <v>2953</v>
+      </c>
+      <c r="C1188" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D1188" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1188" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1189" s="4" t="s">
+        <v>3397</v>
+      </c>
+      <c r="B1189" s="4" t="s">
+        <v>2954</v>
+      </c>
+      <c r="C1189" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="D1189" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1189" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1190" s="4" t="s">
+        <v>3398</v>
+      </c>
+      <c r="B1190" s="4" t="s">
+        <v>2955</v>
+      </c>
+      <c r="C1190" s="4" t="s">
+        <v>2956</v>
+      </c>
+      <c r="D1190" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1190" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1191" s="4" t="s">
+        <v>3399</v>
+      </c>
+      <c r="B1191" s="4" t="s">
+        <v>2957</v>
+      </c>
+      <c r="C1191" s="4" t="s">
+        <v>2958</v>
+      </c>
+      <c r="D1191" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1191" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1192" s="4" t="s">
+        <v>3400</v>
+      </c>
+      <c r="B1192" s="4" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C1192" s="4" t="s">
+        <v>2960</v>
+      </c>
+      <c r="D1192" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1192" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1193" s="4" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1193" s="4" t="s">
+        <v>2961</v>
+      </c>
+      <c r="C1193" s="4" t="s">
+        <v>2962</v>
+      </c>
+      <c r="D1193" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1193" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1194" s="4" t="s">
+        <v>3402</v>
+      </c>
+      <c r="B1194" s="4" t="s">
+        <v>2963</v>
+      </c>
+      <c r="C1194" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="D1194" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1194" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1195" s="4" t="s">
+        <v>3403</v>
+      </c>
+      <c r="B1195" s="4" t="s">
+        <v>2964</v>
+      </c>
+      <c r="C1195" s="4" t="s">
+        <v>2965</v>
+      </c>
+      <c r="D1195" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1195" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1196" s="4" t="s">
+        <v>3404</v>
+      </c>
+      <c r="B1196" s="4" t="s">
+        <v>2966</v>
+      </c>
+      <c r="C1196" s="4" t="s">
+        <v>2967</v>
+      </c>
+      <c r="D1196" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1196" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1197" s="4" t="s">
+        <v>3405</v>
+      </c>
+      <c r="B1197" s="4" t="s">
+        <v>2968</v>
+      </c>
+      <c r="C1197" s="4" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D1197" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1197" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1198" s="4" t="s">
+        <v>3406</v>
+      </c>
+      <c r="B1198" s="4" t="s">
+        <v>2969</v>
+      </c>
+      <c r="C1198" s="4" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D1198" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1198" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1199" s="4" t="s">
+        <v>3407</v>
+      </c>
+      <c r="B1199" s="4" t="s">
+        <v>2970</v>
+      </c>
+      <c r="C1199" s="4" t="s">
+        <v>2971</v>
+      </c>
+      <c r="D1199" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1199" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1200" s="4" t="s">
+        <v>3408</v>
+      </c>
+      <c r="B1200" s="4" t="s">
+        <v>2972</v>
+      </c>
+      <c r="C1200" s="4" t="s">
+        <v>2973</v>
+      </c>
+      <c r="D1200" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1200" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1201" s="4" t="s">
+        <v>3409</v>
+      </c>
+      <c r="B1201" s="4" t="s">
+        <v>2974</v>
+      </c>
+      <c r="C1201" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="D1201" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1201" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1202" s="4" t="s">
+        <v>3410</v>
+      </c>
+      <c r="B1202" s="4" t="s">
+        <v>2975</v>
+      </c>
+      <c r="C1202" s="4" t="s">
+        <v>2976</v>
+      </c>
+      <c r="D1202" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1202" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1203" s="4" t="s">
+        <v>3411</v>
+      </c>
+      <c r="B1203" s="4" t="s">
+        <v>2977</v>
+      </c>
+      <c r="C1203" s="4" t="s">
+        <v>2978</v>
+      </c>
+      <c r="D1203" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1203" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1204" s="4" t="s">
+        <v>3412</v>
+      </c>
+      <c r="B1204" s="4" t="s">
+        <v>2979</v>
+      </c>
+      <c r="C1204" s="4" t="s">
+        <v>2980</v>
+      </c>
+      <c r="D1204" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1204" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1205" s="4" t="s">
+        <v>3413</v>
+      </c>
+      <c r="B1205" s="4" t="s">
+        <v>2981</v>
+      </c>
+      <c r="C1205" s="4" t="s">
+        <v>2982</v>
+      </c>
+      <c r="D1205" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1205" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1206" s="4" t="s">
+        <v>3414</v>
+      </c>
+      <c r="B1206" s="4" t="s">
+        <v>2983</v>
+      </c>
+      <c r="C1206" s="4" t="s">
+        <v>2984</v>
+      </c>
+      <c r="D1206" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1206" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1207" s="4" t="s">
+        <v>3415</v>
+      </c>
+      <c r="B1207" s="4" t="s">
+        <v>2985</v>
+      </c>
+      <c r="C1207" s="4" t="s">
+        <v>2986</v>
+      </c>
+      <c r="D1207" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1207" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1208" s="4" t="s">
+        <v>3416</v>
+      </c>
+      <c r="B1208" s="4" t="s">
+        <v>2987</v>
+      </c>
+      <c r="C1208" s="4" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D1208" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1208" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1209" s="4" t="s">
+        <v>3417</v>
+      </c>
+      <c r="B1209" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="C1209" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="D1209" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1209" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1210" s="4" t="s">
+        <v>3418</v>
+      </c>
+      <c r="B1210" s="4" t="s">
+        <v>2988</v>
+      </c>
+      <c r="C1210" s="4" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D1210" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1210" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1211" s="4" t="s">
+        <v>3419</v>
+      </c>
+      <c r="B1211" s="4" t="s">
+        <v>2989</v>
+      </c>
+      <c r="C1211" s="4" t="s">
+        <v>2990</v>
+      </c>
+      <c r="D1211" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1211" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1212" s="4" t="s">
+        <v>3420</v>
+      </c>
+      <c r="B1212" s="4" t="s">
+        <v>2991</v>
+      </c>
+      <c r="C1212" s="4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D1212" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1212" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1213" s="4" t="s">
+        <v>3421</v>
+      </c>
+      <c r="B1213" s="4" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C1213" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1213" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1213" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1214" s="4" t="s">
+        <v>3422</v>
+      </c>
+      <c r="B1214" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="C1214" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="D1214" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1214" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1215" s="4" t="s">
+        <v>3423</v>
+      </c>
+      <c r="B1215" s="4" t="s">
+        <v>2993</v>
+      </c>
+      <c r="C1215" s="4" t="s">
+        <v>2994</v>
+      </c>
+      <c r="D1215" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1215" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1216" s="4" t="s">
+        <v>3424</v>
+      </c>
+      <c r="B1216" s="4" t="s">
+        <v>2995</v>
+      </c>
+      <c r="C1216" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="D1216" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1216" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1217" s="4" t="s">
+        <v>3425</v>
+      </c>
+      <c r="B1217" s="4" t="s">
+        <v>2996</v>
+      </c>
+      <c r="C1217" s="4" t="s">
+        <v>2997</v>
+      </c>
+      <c r="D1217" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1217" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1218" s="4" t="s">
+        <v>3426</v>
+      </c>
+      <c r="B1218" s="4" t="s">
+        <v>2998</v>
+      </c>
+      <c r="C1218" s="4" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D1218" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1218" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1219" s="4" t="s">
+        <v>3427</v>
+      </c>
+      <c r="B1219" s="4" t="s">
+        <v>2999</v>
+      </c>
+      <c r="C1219" s="4" t="s">
+        <v>3000</v>
+      </c>
+      <c r="D1219" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1219" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1220" s="4" t="s">
+        <v>3428</v>
+      </c>
+      <c r="B1220" s="4" t="s">
+        <v>3001</v>
+      </c>
+      <c r="C1220" s="4" t="s">
+        <v>868</v>
+      </c>
+      <c r="D1220" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1220" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1221" s="4" t="s">
+        <v>3429</v>
+      </c>
+      <c r="B1221" s="4" t="s">
+        <v>3002</v>
+      </c>
+      <c r="C1221" s="4" t="s">
+        <v>3003</v>
+      </c>
+      <c r="D1221" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1221" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1222" s="4" t="s">
+        <v>3430</v>
+      </c>
+      <c r="B1222" s="4" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C1222" s="4" t="s">
+        <v>3005</v>
+      </c>
+      <c r="D1222" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1222" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1223" s="4" t="s">
+        <v>3431</v>
+      </c>
+      <c r="B1223" s="4" t="s">
+        <v>3006</v>
+      </c>
+      <c r="C1223" s="4" t="s">
+        <v>3007</v>
+      </c>
+      <c r="D1223" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1223" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1224" s="4" t="s">
+        <v>3432</v>
+      </c>
+      <c r="B1224" s="4" t="s">
+        <v>3008</v>
+      </c>
+      <c r="C1224" s="4" t="s">
+        <v>3009</v>
+      </c>
+      <c r="D1224" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1224" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1225" s="4" t="s">
+        <v>3433</v>
+      </c>
+      <c r="B1225" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="C1225" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="D1225" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1225" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1226" s="4" t="s">
+        <v>3434</v>
+      </c>
+      <c r="B1226" s="4" t="s">
+        <v>3010</v>
+      </c>
+      <c r="C1226" s="4" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D1226" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1226" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1227" s="4" t="s">
+        <v>3435</v>
+      </c>
+      <c r="B1227" s="4" t="s">
+        <v>3011</v>
+      </c>
+      <c r="C1227" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="D1227" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1227" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1228" s="4" t="s">
+        <v>3436</v>
+      </c>
+      <c r="B1228" s="4" t="s">
+        <v>3012</v>
+      </c>
+      <c r="C1228" s="4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D1228" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1228" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1229" s="4" t="s">
+        <v>3437</v>
+      </c>
+      <c r="B1229" s="4" t="s">
+        <v>3013</v>
+      </c>
+      <c r="C1229" s="4" t="s">
+        <v>3014</v>
+      </c>
+      <c r="D1229" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1229" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1230" s="4" t="s">
+        <v>3438</v>
+      </c>
+      <c r="B1230" s="4" t="s">
+        <v>3015</v>
+      </c>
+      <c r="C1230" s="4" t="s">
+        <v>3016</v>
+      </c>
+      <c r="D1230" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1230" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1231" s="4" t="s">
+        <v>3439</v>
+      </c>
+      <c r="B1231" s="4" t="s">
+        <v>3017</v>
+      </c>
+      <c r="C1231" s="4" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D1231" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1231" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1232" s="4" t="s">
+        <v>3440</v>
+      </c>
+      <c r="B1232" s="4" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C1232" s="4" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D1232" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1232" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1233" s="4" t="s">
+        <v>3441</v>
+      </c>
+      <c r="B1233" s="4" t="s">
+        <v>3019</v>
+      </c>
+      <c r="C1233" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="D1233" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1233" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1234" s="4" t="s">
+        <v>3442</v>
+      </c>
+      <c r="B1234" s="4" t="s">
+        <v>3020</v>
+      </c>
+      <c r="C1234" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="D1234" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1234" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1235" s="4" t="s">
+        <v>3443</v>
+      </c>
+      <c r="B1235" s="4" t="s">
+        <v>3021</v>
+      </c>
+      <c r="C1235" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="D1235" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1235" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1236" s="4" t="s">
+        <v>3444</v>
+      </c>
+      <c r="B1236" s="4" t="s">
+        <v>3022</v>
+      </c>
+      <c r="C1236" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="D1236" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1236" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1237" s="4" t="s">
+        <v>3445</v>
+      </c>
+      <c r="B1237" s="4" t="s">
+        <v>3023</v>
+      </c>
+      <c r="C1237" s="4" t="s">
+        <v>3024</v>
+      </c>
+      <c r="D1237" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1237" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1238" s="4" t="s">
+        <v>3446</v>
+      </c>
+      <c r="B1238" s="4" t="s">
+        <v>3023</v>
+      </c>
+      <c r="C1238" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="D1238" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1238" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1239" s="4" t="s">
+        <v>3447</v>
+      </c>
+      <c r="B1239" s="4" t="s">
+        <v>3025</v>
+      </c>
+      <c r="C1239" s="4" t="s">
+        <v>3026</v>
+      </c>
+      <c r="D1239" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1239" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1240" s="4" t="s">
+        <v>3448</v>
+      </c>
+      <c r="B1240" s="4" t="s">
+        <v>3027</v>
+      </c>
+      <c r="C1240" s="4" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D1240" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1240" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1241" s="4" t="s">
+        <v>3449</v>
+      </c>
+      <c r="B1241" s="4" t="s">
+        <v>3028</v>
+      </c>
+      <c r="C1241" s="4" t="s">
+        <v>858</v>
+      </c>
+      <c r="D1241" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1241" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1242" s="4" t="s">
+        <v>3450</v>
+      </c>
+      <c r="B1242" s="4" t="s">
+        <v>3029</v>
+      </c>
+      <c r="C1242" s="4" t="s">
+        <v>3030</v>
+      </c>
+      <c r="D1242" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1242" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1243" s="4" t="s">
+        <v>3451</v>
+      </c>
+      <c r="B1243" s="4" t="s">
+        <v>3031</v>
+      </c>
+      <c r="C1243" s="4" t="s">
+        <v>3032</v>
+      </c>
+      <c r="D1243" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1243" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1244" s="4" t="s">
+        <v>3452</v>
+      </c>
+      <c r="B1244" s="4" t="s">
+        <v>3033</v>
+      </c>
+      <c r="C1244" s="4" t="s">
+        <v>3034</v>
+      </c>
+      <c r="D1244" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1244" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1245" s="4" t="s">
+        <v>3453</v>
+      </c>
+      <c r="B1245" s="4" t="s">
+        <v>3035</v>
+      </c>
+      <c r="C1245" s="4" t="s">
+        <v>3036</v>
+      </c>
+      <c r="D1245" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1245" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1246" s="4" t="s">
+        <v>3454</v>
+      </c>
+      <c r="B1246" s="4" t="s">
+        <v>3037</v>
+      </c>
+      <c r="C1246" s="4" t="s">
+        <v>3038</v>
+      </c>
+      <c r="D1246" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1246" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1247" s="4" t="s">
+        <v>3455</v>
+      </c>
+      <c r="B1247" s="4" t="s">
+        <v>3039</v>
+      </c>
+      <c r="C1247" s="4" t="s">
+        <v>3040</v>
+      </c>
+      <c r="D1247" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1247" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1248" s="4" t="s">
+        <v>3456</v>
+      </c>
+      <c r="B1248" s="4" t="s">
+        <v>3041</v>
+      </c>
+      <c r="C1248" s="4" t="s">
+        <v>3042</v>
+      </c>
+      <c r="D1248" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1248" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1249" s="4" t="s">
+        <v>3457</v>
+      </c>
+      <c r="B1249" s="4" t="s">
+        <v>3043</v>
+      </c>
+      <c r="C1249" s="4" t="s">
+        <v>3044</v>
+      </c>
+      <c r="D1249" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1249" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1250" s="4" t="s">
+        <v>3458</v>
+      </c>
+      <c r="B1250" s="4" t="s">
+        <v>3045</v>
+      </c>
+      <c r="C1250" s="4" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D1250" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1250" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1251" s="4" t="s">
+        <v>3459</v>
+      </c>
+      <c r="B1251" s="4" t="s">
+        <v>3046</v>
+      </c>
+      <c r="C1251" s="4" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D1251" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1251" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1252" s="4" t="s">
+        <v>3460</v>
+      </c>
+      <c r="B1252" s="4" t="s">
+        <v>3047</v>
+      </c>
+      <c r="C1252" s="4" t="s">
+        <v>3048</v>
+      </c>
+      <c r="D1252" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1252" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1253" s="4" t="s">
+        <v>3461</v>
+      </c>
+      <c r="B1253" s="4" t="s">
+        <v>3049</v>
+      </c>
+      <c r="C1253" s="4" t="s">
+        <v>3050</v>
+      </c>
+      <c r="D1253" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1253" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1254" s="4" t="s">
+        <v>3462</v>
+      </c>
+      <c r="B1254" s="4" t="s">
+        <v>3051</v>
+      </c>
+      <c r="C1254" s="4" t="s">
+        <v>3052</v>
+      </c>
+      <c r="D1254" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1254" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1255" s="4" t="s">
+        <v>3463</v>
+      </c>
+      <c r="B1255" s="4" t="s">
+        <v>3053</v>
+      </c>
+      <c r="C1255" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="D1255" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1255" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1256" s="4" t="s">
+        <v>3464</v>
+      </c>
+      <c r="B1256" s="4" t="s">
+        <v>3054</v>
+      </c>
+      <c r="C1256" s="4" t="s">
+        <v>3055</v>
+      </c>
+      <c r="D1256" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1256" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1257" s="4" t="s">
+        <v>3465</v>
+      </c>
+      <c r="B1257" s="4" t="s">
+        <v>3056</v>
+      </c>
+      <c r="C1257" s="4" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D1257" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1257" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1258" s="4" t="s">
+        <v>3466</v>
+      </c>
+      <c r="B1258" s="4" t="s">
+        <v>3057</v>
+      </c>
+      <c r="C1258" s="4" t="s">
+        <v>866</v>
+      </c>
+      <c r="D1258" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1258" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1259" s="4" t="s">
+        <v>3467</v>
+      </c>
+      <c r="B1259" s="4" t="s">
+        <v>3058</v>
+      </c>
+      <c r="C1259" s="4" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D1259" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1259" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1260" s="4" t="s">
+        <v>3468</v>
+      </c>
+      <c r="B1260" s="4" t="s">
+        <v>3059</v>
+      </c>
+      <c r="C1260" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D1260" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1260" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1261" s="4" t="s">
+        <v>3469</v>
+      </c>
+      <c r="B1261" s="4" t="s">
+        <v>3060</v>
+      </c>
+      <c r="C1261" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="D1261" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1261" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1262" s="4" t="s">
+        <v>3470</v>
+      </c>
+      <c r="B1262" s="4" t="s">
+        <v>3061</v>
+      </c>
+      <c r="C1262" s="4" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D1262" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1262" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1263" s="4" t="s">
+        <v>3471</v>
+      </c>
+      <c r="B1263" s="4" t="s">
+        <v>3062</v>
+      </c>
+      <c r="C1263" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D1263" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1263" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1264" s="4" t="s">
+        <v>3472</v>
+      </c>
+      <c r="B1264" s="4" t="s">
+        <v>3063</v>
+      </c>
+      <c r="C1264" s="4" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D1264" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1264" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1265" s="4" t="s">
+        <v>3473</v>
+      </c>
+      <c r="B1265" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="C1265" s="4" t="s">
+        <v>3064</v>
+      </c>
+      <c r="D1265" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1265" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1266" s="4" t="s">
+        <v>3474</v>
+      </c>
+      <c r="B1266" s="4" t="s">
+        <v>3065</v>
+      </c>
+      <c r="C1266" s="4" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D1266" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1266" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1267" s="4" t="s">
+        <v>3475</v>
+      </c>
+      <c r="B1267" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="C1267" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="D1267" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1267" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1268" s="4" t="s">
+        <v>3476</v>
+      </c>
+      <c r="B1268" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="C1268" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="D1268" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1268" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1269" s="4" t="s">
+        <v>3477</v>
+      </c>
+      <c r="B1269" s="4" t="s">
+        <v>3066</v>
+      </c>
+      <c r="C1269" s="4" t="s">
+        <v>3067</v>
+      </c>
+      <c r="D1269" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1269" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1270" s="4" t="s">
+        <v>3478</v>
+      </c>
+      <c r="B1270" s="4" t="s">
+        <v>3068</v>
+      </c>
+      <c r="C1270" s="4" t="s">
+        <v>3069</v>
+      </c>
+      <c r="D1270" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1270" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1271" s="4" t="s">
+        <v>3479</v>
+      </c>
+      <c r="B1271" s="4" t="s">
+        <v>3070</v>
+      </c>
+      <c r="C1271" s="4" t="s">
+        <v>3071</v>
+      </c>
+      <c r="D1271" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1271" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1272" s="4" t="s">
+        <v>3480</v>
+      </c>
+      <c r="B1272" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="C1272" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="D1272" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1272" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1273" s="4" t="s">
+        <v>3481</v>
+      </c>
+      <c r="B1273" s="4" t="s">
+        <v>3072</v>
+      </c>
+      <c r="C1273" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="D1273" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1273" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1274" s="4" t="s">
+        <v>3482</v>
+      </c>
+      <c r="B1274" s="4" t="s">
+        <v>3073</v>
+      </c>
+      <c r="C1274" s="4" t="s">
+        <v>3074</v>
+      </c>
+      <c r="D1274" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1274" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1275" s="4" t="s">
+        <v>3483</v>
+      </c>
+      <c r="B1275" s="4" t="s">
+        <v>3075</v>
+      </c>
+      <c r="C1275" s="4" t="s">
+        <v>3076</v>
+      </c>
+      <c r="D1275" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1275" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1276" s="4" t="s">
+        <v>3484</v>
+      </c>
+      <c r="B1276" s="4" t="s">
+        <v>3077</v>
+      </c>
+      <c r="C1276" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="D1276" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1276" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1277" s="4" t="s">
+        <v>3485</v>
+      </c>
+      <c r="B1277" s="4" t="s">
+        <v>3078</v>
+      </c>
+      <c r="C1277" s="4" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D1277" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1277" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1278" s="4" t="s">
+        <v>3486</v>
+      </c>
+      <c r="B1278" s="4" t="s">
+        <v>3079</v>
+      </c>
+      <c r="C1278" s="4" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D1278" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1278" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1279" s="4" t="s">
+        <v>3487</v>
+      </c>
+      <c r="B1279" s="4" t="s">
+        <v>3080</v>
+      </c>
+      <c r="C1279" s="4" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D1279" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1279" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1280" s="4" t="s">
+        <v>3488</v>
+      </c>
+      <c r="B1280" s="4" t="s">
+        <v>3081</v>
+      </c>
+      <c r="C1280" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="D1280" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1280" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1281" s="4" t="s">
+        <v>3489</v>
+      </c>
+      <c r="B1281" s="4" t="s">
+        <v>3082</v>
+      </c>
+      <c r="C1281" s="4" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D1281" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1281" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1282" s="4" t="s">
+        <v>3490</v>
+      </c>
+      <c r="B1282" s="4" t="s">
+        <v>3083</v>
+      </c>
+      <c r="C1282" s="4" t="s">
+        <v>3084</v>
+      </c>
+      <c r="D1282" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1282" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1283" s="4" t="s">
+        <v>3491</v>
+      </c>
+      <c r="B1283" s="4" t="s">
+        <v>3085</v>
+      </c>
+      <c r="C1283" s="4" t="s">
+        <v>3086</v>
+      </c>
+      <c r="D1283" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1283" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1284" s="4" t="s">
+        <v>3492</v>
+      </c>
+      <c r="B1284" s="4" t="s">
+        <v>3087</v>
+      </c>
+      <c r="C1284" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="D1284" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1284" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1285" s="4" t="s">
+        <v>3493</v>
+      </c>
+      <c r="B1285" s="4" t="s">
+        <v>3088</v>
+      </c>
+      <c r="C1285" s="4" t="s">
+        <v>3089</v>
+      </c>
+      <c r="D1285" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1285" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1286" s="4" t="s">
+        <v>3494</v>
+      </c>
+      <c r="B1286" s="4" t="s">
+        <v>3090</v>
+      </c>
+      <c r="C1286" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="D1286" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1286" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1287" s="4" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B1287" s="4" t="s">
+        <v>3091</v>
+      </c>
+      <c r="C1287" s="4" t="s">
+        <v>3092</v>
+      </c>
+      <c r="D1287" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1287" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1288" s="4" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B1288" s="4" t="s">
+        <v>3093</v>
+      </c>
+      <c r="C1288" s="4" t="s">
+        <v>3094</v>
+      </c>
+      <c r="D1288" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1288" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1289" s="4" t="s">
+        <v>3497</v>
+      </c>
+      <c r="B1289" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="C1289" s="4" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D1289" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1289" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1290" s="4" t="s">
+        <v>3498</v>
+      </c>
+      <c r="B1290" s="4" t="s">
+        <v>3095</v>
+      </c>
+      <c r="C1290" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="D1290" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1290" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1291" s="4" t="s">
+        <v>3499</v>
+      </c>
+      <c r="B1291" s="4" t="s">
+        <v>3096</v>
+      </c>
+      <c r="C1291" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="D1291" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1291" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1292" s="4" t="s">
+        <v>3500</v>
+      </c>
+      <c r="B1292" s="4" t="s">
+        <v>3097</v>
+      </c>
+      <c r="C1292" s="4" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1292" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1292" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1293" s="4" t="s">
+        <v>3501</v>
+      </c>
+      <c r="B1293" s="4" t="s">
+        <v>3098</v>
+      </c>
+      <c r="C1293" s="4" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D1293" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1293" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1294" s="4" t="s">
+        <v>3502</v>
+      </c>
+      <c r="B1294" s="4" t="s">
+        <v>3099</v>
+      </c>
+      <c r="C1294" s="4" t="s">
+        <v>3100</v>
+      </c>
+      <c r="D1294" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1294" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1295" s="4" t="s">
+        <v>3503</v>
+      </c>
+      <c r="B1295" s="4" t="s">
+        <v>3101</v>
+      </c>
+      <c r="C1295" s="4" t="s">
+        <v>3102</v>
+      </c>
+      <c r="D1295" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1295" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1296" s="4" t="s">
+        <v>3504</v>
+      </c>
+      <c r="B1296" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="C1296" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="D1296" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1296" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1297" s="4" t="s">
+        <v>3505</v>
+      </c>
+      <c r="B1297" s="4" t="s">
+        <v>3103</v>
+      </c>
+      <c r="C1297" s="4" t="s">
+        <v>3104</v>
+      </c>
+      <c r="D1297" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1297" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1298" s="4" t="s">
+        <v>3506</v>
+      </c>
+      <c r="B1298" s="4" t="s">
+        <v>3105</v>
+      </c>
+      <c r="C1298" s="4" t="s">
+        <v>3106</v>
+      </c>
+      <c r="D1298" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1298" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1299" s="4" t="s">
+        <v>3507</v>
+      </c>
+      <c r="B1299" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="C1299" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="D1299" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1299" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1300" s="4" t="s">
+        <v>3508</v>
+      </c>
+      <c r="B1300" s="4" t="s">
+        <v>3107</v>
+      </c>
+      <c r="C1300" s="4" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D1300" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1300" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1301" s="4" t="s">
+        <v>3509</v>
+      </c>
+      <c r="B1301" s="4" t="s">
+        <v>3108</v>
+      </c>
+      <c r="C1301" s="4" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D1301" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1301" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1302" s="4" t="s">
+        <v>3510</v>
+      </c>
+      <c r="B1302" s="4" t="s">
+        <v>3109</v>
+      </c>
+      <c r="C1302" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="D1302" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1302" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1303" s="4" t="s">
+        <v>3511</v>
+      </c>
+      <c r="B1303" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="C1303" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="D1303" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1303" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1304" s="4" t="s">
+        <v>3512</v>
+      </c>
+      <c r="B1304" s="4" t="s">
+        <v>3110</v>
+      </c>
+      <c r="C1304" s="4" t="s">
+        <v>3111</v>
+      </c>
+      <c r="D1304" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1304" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1305" s="4" t="s">
+        <v>3513</v>
+      </c>
+      <c r="B1305" s="4" t="s">
+        <v>3112</v>
+      </c>
+      <c r="C1305" s="4" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D1305" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1305" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1306" s="4" t="s">
+        <v>3514</v>
+      </c>
+      <c r="B1306" s="4" t="s">
+        <v>3113</v>
+      </c>
+      <c r="C1306" s="4" t="s">
+        <v>3114</v>
+      </c>
+      <c r="D1306" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1306" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1307" s="4" t="s">
+        <v>3515</v>
+      </c>
+      <c r="B1307" s="4" t="s">
+        <v>3115</v>
+      </c>
+      <c r="C1307" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="D1307" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1307" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1308" s="4" t="s">
+        <v>3516</v>
+      </c>
+      <c r="B1308" s="4" t="s">
+        <v>3116</v>
+      </c>
+      <c r="C1308" s="4" t="s">
+        <v>3117</v>
+      </c>
+      <c r="D1308" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1308" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1309" s="4" t="s">
+        <v>3517</v>
+      </c>
+      <c r="B1309" s="4" t="s">
+        <v>3118</v>
+      </c>
+      <c r="C1309" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="D1309" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1309" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1310" s="4" t="s">
+        <v>3518</v>
+      </c>
+      <c r="B1310" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="C1310" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="D1310" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1310" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1311" s="4" t="s">
+        <v>3519</v>
+      </c>
+      <c r="B1311" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="C1311" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="D1311" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1311" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1312" s="4" t="s">
+        <v>3520</v>
+      </c>
+      <c r="B1312" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="C1312" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="D1312" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1312" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1313" s="4" t="s">
+        <v>3521</v>
+      </c>
+      <c r="B1313" s="4" t="s">
+        <v>3119</v>
+      </c>
+      <c r="C1313" s="4" t="s">
+        <v>3120</v>
+      </c>
+      <c r="D1313" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1313" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1314" s="4" t="s">
+        <v>3522</v>
+      </c>
+      <c r="B1314" s="4" t="s">
+        <v>3121</v>
+      </c>
+      <c r="C1314" s="4" t="s">
+        <v>3122</v>
+      </c>
+      <c r="D1314" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1314" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1315" s="4" t="s">
+        <v>3523</v>
+      </c>
+      <c r="B1315" s="4" t="s">
+        <v>3123</v>
+      </c>
+      <c r="C1315" s="4" t="s">
+        <v>3124</v>
+      </c>
+      <c r="D1315" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1315" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1316" s="4" t="s">
+        <v>3524</v>
+      </c>
+      <c r="B1316" s="4" t="s">
+        <v>3125</v>
+      </c>
+      <c r="C1316" s="4" t="s">
+        <v>3126</v>
+      </c>
+      <c r="D1316" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1316" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1317" s="4" t="s">
+        <v>3525</v>
+      </c>
+      <c r="B1317" s="4" t="s">
+        <v>3127</v>
+      </c>
+      <c r="C1317" s="4" t="s">
+        <v>3128</v>
+      </c>
+      <c r="D1317" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1317" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1318" s="4" t="s">
+        <v>3526</v>
+      </c>
+      <c r="B1318" s="4" t="s">
+        <v>3129</v>
+      </c>
+      <c r="C1318" s="4" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D1318" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1318" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1319" s="4" t="s">
+        <v>3527</v>
+      </c>
+      <c r="B1319" s="4" t="s">
+        <v>3130</v>
+      </c>
+      <c r="C1319" s="4" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D1319" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1319" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1320" s="4" t="s">
+        <v>3528</v>
+      </c>
+      <c r="B1320" s="4" t="s">
+        <v>3131</v>
+      </c>
+      <c r="C1320" s="4" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D1320" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1320" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1321" s="4" t="s">
+        <v>3529</v>
+      </c>
+      <c r="B1321" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="C1321" s="4" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D1321" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1321" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1322" s="4" t="s">
+        <v>3530</v>
+      </c>
+      <c r="B1322" s="4" t="s">
+        <v>3132</v>
+      </c>
+      <c r="C1322" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="D1322" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1322" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1323" s="4" t="s">
+        <v>3531</v>
+      </c>
+      <c r="B1323" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="C1323" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="D1323" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1323" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1324" s="4" t="s">
+        <v>3532</v>
+      </c>
+      <c r="B1324" s="4" t="s">
+        <v>3133</v>
+      </c>
+      <c r="C1324" s="4" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D1324" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1324" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1325" s="4" t="s">
+        <v>3533</v>
+      </c>
+      <c r="B1325" s="4" t="s">
+        <v>3134</v>
+      </c>
+      <c r="C1325" s="4" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D1325" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1325" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1326" s="4" t="s">
+        <v>3534</v>
+      </c>
+      <c r="B1326" s="4" t="s">
+        <v>3135</v>
+      </c>
+      <c r="C1326" s="4" t="s">
+        <v>3136</v>
+      </c>
+      <c r="D1326" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1326" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1327" s="4" t="s">
+        <v>3535</v>
+      </c>
+      <c r="B1327" s="4" t="s">
+        <v>3137</v>
+      </c>
+      <c r="C1327" s="4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D1327" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1327" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1328" s="4" t="s">
+        <v>3536</v>
+      </c>
+      <c r="B1328" s="4" t="s">
+        <v>3138</v>
+      </c>
+      <c r="C1328" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D1328" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1328" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1329" s="4" t="s">
+        <v>3537</v>
+      </c>
+      <c r="B1329" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="C1329" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="D1329" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1329" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1330" s="4" t="s">
+        <v>3538</v>
+      </c>
+      <c r="B1330" s="4" t="s">
+        <v>3139</v>
+      </c>
+      <c r="C1330" s="4" t="s">
+        <v>3140</v>
+      </c>
+      <c r="D1330" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1330" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1331" s="4" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B1331" s="4" t="s">
+        <v>3141</v>
+      </c>
+      <c r="C1331" s="4" t="s">
+        <v>3142</v>
+      </c>
+      <c r="D1331" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1331" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1332" s="4" t="s">
+        <v>3540</v>
+      </c>
+      <c r="B1332" s="4" t="s">
+        <v>3143</v>
+      </c>
+      <c r="C1332" s="4" t="s">
+        <v>3144</v>
+      </c>
+      <c r="D1332" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1332" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1333" s="4" t="s">
+        <v>3541</v>
+      </c>
+      <c r="B1333" s="4" t="s">
+        <v>3145</v>
+      </c>
+      <c r="C1333" s="4" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D1333" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1333" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1334" s="4" t="s">
+        <v>3542</v>
+      </c>
+      <c r="B1334" s="4" t="s">
+        <v>3146</v>
+      </c>
+      <c r="C1334" s="4" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D1334" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1334" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1335" s="4" t="s">
+        <v>3543</v>
+      </c>
+      <c r="B1335" s="4" t="s">
+        <v>3147</v>
+      </c>
+      <c r="C1335" s="4" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D1335" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1335" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1336" s="4" t="s">
+        <v>3544</v>
+      </c>
+      <c r="B1336" s="4" t="s">
+        <v>3148</v>
+      </c>
+      <c r="C1336" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="D1336" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1336" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1337" s="4" t="s">
+        <v>3545</v>
+      </c>
+      <c r="B1337" s="4" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C1337" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D1337" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1337" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1338" s="4" t="s">
+        <v>3546</v>
+      </c>
+      <c r="B1338" s="4" t="s">
+        <v>3150</v>
+      </c>
+      <c r="C1338" s="4" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D1338" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1338" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1339" s="4" t="s">
+        <v>3547</v>
+      </c>
+      <c r="B1339" s="4" t="s">
+        <v>3151</v>
+      </c>
+      <c r="C1339" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="D1339" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1339" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1340" s="4" t="s">
+        <v>3548</v>
+      </c>
+      <c r="B1340" s="4" t="s">
+        <v>3152</v>
+      </c>
+      <c r="C1340" s="4" t="s">
+        <v>3153</v>
+      </c>
+      <c r="D1340" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1340" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1341" s="4" t="s">
+        <v>3549</v>
+      </c>
+      <c r="B1341" s="4" t="s">
+        <v>3154</v>
+      </c>
+      <c r="C1341" s="4" t="s">
+        <v>3155</v>
+      </c>
+      <c r="D1341" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1341" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1342" s="4" t="s">
+        <v>3550</v>
+      </c>
+      <c r="B1342" s="4" t="s">
+        <v>3156</v>
+      </c>
+      <c r="C1342" s="4" t="s">
+        <v>3157</v>
+      </c>
+      <c r="D1342" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1342" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1343" s="4" t="s">
+        <v>3551</v>
+      </c>
+      <c r="B1343" s="4" t="s">
+        <v>3158</v>
+      </c>
+      <c r="C1343" s="4" t="s">
+        <v>3159</v>
+      </c>
+      <c r="D1343" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1343" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1344" s="4" t="s">
+        <v>3552</v>
+      </c>
+      <c r="B1344" s="4" t="s">
+        <v>3160</v>
+      </c>
+      <c r="C1344" s="4" t="s">
+        <v>3161</v>
+      </c>
+      <c r="D1344" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1344" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1345" s="4" t="s">
+        <v>3553</v>
+      </c>
+      <c r="B1345" s="4" t="s">
+        <v>3162</v>
+      </c>
+      <c r="C1345" s="4" t="s">
+        <v>3163</v>
+      </c>
+      <c r="D1345" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1345" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1346" s="4" t="s">
+        <v>3554</v>
+      </c>
+      <c r="B1346" s="4" t="s">
+        <v>3164</v>
+      </c>
+      <c r="C1346" s="4" t="s">
+        <v>3165</v>
+      </c>
+      <c r="D1346" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1346" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1347" s="4" t="s">
+        <v>3555</v>
+      </c>
+      <c r="B1347" s="4" t="s">
+        <v>3166</v>
+      </c>
+      <c r="C1347" s="4" t="s">
+        <v>3167</v>
+      </c>
+      <c r="D1347" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1347" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1348" s="4" t="s">
+        <v>3556</v>
+      </c>
+      <c r="B1348" s="4" t="s">
+        <v>3168</v>
+      </c>
+      <c r="C1348" s="4" t="s">
+        <v>3169</v>
+      </c>
+      <c r="D1348" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1348" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1349" s="4" t="s">
+        <v>3557</v>
+      </c>
+      <c r="B1349" s="4" t="s">
+        <v>3170</v>
+      </c>
+      <c r="C1349" s="4" t="s">
+        <v>3171</v>
+      </c>
+      <c r="D1349" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1349" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1350" s="4" t="s">
+        <v>3558</v>
+      </c>
+      <c r="B1350" s="4" t="s">
+        <v>3172</v>
+      </c>
+      <c r="C1350" s="4" t="s">
+        <v>3173</v>
+      </c>
+      <c r="D1350" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1350" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1351" s="4" t="s">
+        <v>3559</v>
+      </c>
+      <c r="B1351" s="4" t="s">
+        <v>3174</v>
+      </c>
+      <c r="C1351" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D1351" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1351" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1352" s="4" t="s">
+        <v>3560</v>
+      </c>
+      <c r="B1352" s="4" t="s">
+        <v>3175</v>
+      </c>
+      <c r="C1352" s="4" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D1352" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1352" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1353" s="4" t="s">
+        <v>3561</v>
+      </c>
+      <c r="B1353" s="4" t="s">
+        <v>3176</v>
+      </c>
+      <c r="C1353" s="4" t="s">
+        <v>3177</v>
+      </c>
+      <c r="D1353" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1353" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1354" s="4" t="s">
+        <v>3562</v>
+      </c>
+      <c r="B1354" s="4" t="s">
+        <v>3178</v>
+      </c>
+      <c r="C1354" s="4" t="s">
+        <v>3179</v>
+      </c>
+      <c r="D1354" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1354" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1355" s="4" t="s">
+        <v>3563</v>
+      </c>
+      <c r="B1355" s="4" t="s">
+        <v>3180</v>
+      </c>
+      <c r="C1355" s="4" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D1355" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1355" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1356" s="4" t="s">
+        <v>3564</v>
+      </c>
+      <c r="B1356" s="4" t="s">
+        <v>3181</v>
+      </c>
+      <c r="C1356" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="D1356" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1356" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1357" s="4" t="s">
+        <v>3565</v>
+      </c>
+      <c r="B1357" s="4" t="s">
+        <v>3182</v>
+      </c>
+      <c r="C1357" s="4" t="s">
+        <v>3183</v>
+      </c>
+      <c r="D1357" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1357" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1358" s="4" t="s">
+        <v>3566</v>
+      </c>
+      <c r="B1358" s="4" t="s">
+        <v>3184</v>
+      </c>
+      <c r="C1358" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="D1358" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1358" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1359" s="4" t="s">
+        <v>3567</v>
+      </c>
+      <c r="B1359" s="4" t="s">
+        <v>3185</v>
+      </c>
+      <c r="C1359" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="D1359" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1359" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1360" s="4" t="s">
+        <v>3568</v>
+      </c>
+      <c r="B1360" s="4" t="s">
+        <v>3186</v>
+      </c>
+      <c r="C1360" s="4" t="s">
+        <v>3187</v>
+      </c>
+      <c r="D1360" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1360" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1361" s="4" t="s">
+        <v>3569</v>
+      </c>
+      <c r="B1361" s="4" t="s">
+        <v>3188</v>
+      </c>
+      <c r="C1361" s="4" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D1361" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1361" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1362" s="4" t="s">
+        <v>3570</v>
+      </c>
+      <c r="B1362" s="4" t="s">
+        <v>3189</v>
+      </c>
+      <c r="C1362" s="4" t="s">
+        <v>3190</v>
+      </c>
+      <c r="D1362" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1362" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1363" s="4" t="s">
+        <v>3571</v>
+      </c>
+      <c r="B1363" s="4" t="s">
+        <v>3191</v>
+      </c>
+      <c r="C1363" s="4" t="s">
+        <v>3192</v>
+      </c>
+      <c r="D1363" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1363" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1364" s="4" t="s">
+        <v>3572</v>
+      </c>
+      <c r="B1364" s="4" t="s">
+        <v>3193</v>
+      </c>
+      <c r="C1364" s="4" t="s">
+        <v>3194</v>
+      </c>
+      <c r="D1364" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1364" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1365" s="4" t="s">
+        <v>3573</v>
+      </c>
+      <c r="B1365" s="4" t="s">
+        <v>3195</v>
+      </c>
+      <c r="C1365" s="4" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D1365" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1365" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1366" s="4" t="s">
+        <v>3574</v>
+      </c>
+      <c r="B1366" s="4" t="s">
+        <v>3196</v>
+      </c>
+      <c r="C1366" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="D1366" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1366" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1367" s="4" t="s">
+        <v>3575</v>
+      </c>
+      <c r="B1367" s="4" t="s">
+        <v>3197</v>
+      </c>
+      <c r="C1367" s="4" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D1367" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1367" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1368" s="4" t="s">
+        <v>3576</v>
+      </c>
+      <c r="B1368" s="4" t="s">
+        <v>3198</v>
+      </c>
+      <c r="C1368" s="4" t="s">
+        <v>3199</v>
+      </c>
+      <c r="D1368" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1368" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1369" s="4" t="s">
+        <v>3577</v>
+      </c>
+      <c r="B1369" s="4" t="s">
+        <v>3200</v>
+      </c>
+      <c r="C1369" s="4" t="s">
+        <v>3201</v>
+      </c>
+      <c r="D1369" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1369" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1370" s="4" t="s">
+        <v>3578</v>
+      </c>
+      <c r="B1370" s="4" t="s">
+        <v>3202</v>
+      </c>
+      <c r="C1370" s="4" t="s">
+        <v>3203</v>
+      </c>
+      <c r="D1370" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1370" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1371" s="4" t="s">
+        <v>3579</v>
+      </c>
+      <c r="B1371" s="4" t="s">
+        <v>3204</v>
+      </c>
+      <c r="C1371" s="4" t="s">
+        <v>3205</v>
+      </c>
+      <c r="D1371" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1371" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1372" s="4" t="s">
+        <v>3580</v>
+      </c>
+      <c r="B1372" s="4" t="s">
+        <v>3206</v>
+      </c>
+      <c r="C1372" s="4" t="s">
+        <v>3207</v>
+      </c>
+      <c r="D1372" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1372" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1373" s="4" t="s">
+        <v>3581</v>
+      </c>
+      <c r="B1373" s="4" t="s">
+        <v>3208</v>
+      </c>
+      <c r="C1373" s="4" t="s">
+        <v>3209</v>
+      </c>
+      <c r="D1373" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1373" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1374" s="4" t="s">
+        <v>3582</v>
+      </c>
+      <c r="B1374" s="4" t="s">
+        <v>3210</v>
+      </c>
+      <c r="C1374" s="4" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D1374" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1374" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1375" s="4" t="s">
+        <v>3583</v>
+      </c>
+      <c r="B1375" s="4" t="s">
+        <v>3211</v>
+      </c>
+      <c r="C1375" s="4" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D1375" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1375" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1376" s="4" t="s">
+        <v>3584</v>
+      </c>
+      <c r="B1376" s="4" t="s">
+        <v>3212</v>
+      </c>
+      <c r="C1376" s="4" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D1376" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1376" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1377" s="4" t="s">
+        <v>3585</v>
+      </c>
+      <c r="B1377" s="4" t="s">
+        <v>3213</v>
+      </c>
+      <c r="C1377" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D1377" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1377" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1378" s="4" t="s">
+        <v>3586</v>
+      </c>
+      <c r="B1378" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="C1378" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="D1378" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1378" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1379" s="4" t="s">
+        <v>3587</v>
+      </c>
+      <c r="B1379" s="4" t="s">
+        <v>3214</v>
+      </c>
+      <c r="C1379" s="4" t="s">
+        <v>3215</v>
+      </c>
+      <c r="D1379" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1379" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1380" s="4" t="s">
+        <v>3588</v>
+      </c>
+      <c r="B1380" s="4" t="s">
+        <v>3216</v>
+      </c>
+      <c r="C1380" s="4" t="s">
+        <v>3217</v>
+      </c>
+      <c r="D1380" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1380" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1381" s="4" t="s">
+        <v>3589</v>
+      </c>
+      <c r="B1381" s="4" t="s">
+        <v>3218</v>
+      </c>
+      <c r="C1381" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="D1381" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1381" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1382" s="4" t="s">
+        <v>3590</v>
+      </c>
+      <c r="B1382" s="4" t="s">
+        <v>3219</v>
+      </c>
+      <c r="C1382" s="4" t="s">
+        <v>3220</v>
+      </c>
+      <c r="D1382" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1382" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1383" s="4" t="s">
+        <v>3591</v>
+      </c>
+      <c r="B1383" s="4" t="s">
+        <v>3221</v>
+      </c>
+      <c r="C1383" s="4" t="s">
+        <v>3222</v>
+      </c>
+      <c r="D1383" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1383" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1384" s="4" t="s">
+        <v>3592</v>
+      </c>
+      <c r="B1384" s="4" t="s">
+        <v>3223</v>
+      </c>
+      <c r="C1384" s="4" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D1384" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1384" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1385" s="4" t="s">
+        <v>3593</v>
+      </c>
+      <c r="B1385" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="C1385" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="D1385" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1385" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1386" s="4" t="s">
+        <v>3594</v>
+      </c>
+      <c r="B1386" s="4" t="s">
+        <v>3224</v>
+      </c>
+      <c r="C1386" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="D1386" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1386" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1387" s="4" t="s">
+        <v>3595</v>
+      </c>
+      <c r="B1387" s="4" t="s">
+        <v>3225</v>
+      </c>
+      <c r="C1387" s="4" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D1387" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1387" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1388" s="4" t="s">
+        <v>3596</v>
+      </c>
+      <c r="B1388" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="C1388" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="D1388" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1388" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1389" s="4" t="s">
+        <v>3597</v>
+      </c>
+      <c r="B1389" s="4" t="s">
+        <v>3226</v>
+      </c>
+      <c r="C1389" s="4" t="s">
+        <v>3227</v>
+      </c>
+      <c r="D1389" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1389" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1390" s="4" t="s">
+        <v>3598</v>
+      </c>
+      <c r="B1390" s="4" t="s">
+        <v>3228</v>
+      </c>
+      <c r="C1390" s="4" t="s">
+        <v>3229</v>
+      </c>
+      <c r="D1390" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1390" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1391" s="4" t="s">
+        <v>3599</v>
+      </c>
+      <c r="B1391" s="4" t="s">
+        <v>3230</v>
+      </c>
+      <c r="C1391" s="4" t="s">
+        <v>3231</v>
+      </c>
+      <c r="D1391" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1391" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1392" s="4" t="s">
+        <v>3600</v>
+      </c>
+      <c r="B1392" s="4" t="s">
+        <v>3232</v>
+      </c>
+      <c r="C1392" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="D1392" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1392" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1393" s="4" t="s">
+        <v>3601</v>
+      </c>
+      <c r="B1393" s="4" t="s">
+        <v>3233</v>
+      </c>
+      <c r="C1393" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D1393" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1393" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1394" s="4" t="s">
+        <v>3602</v>
+      </c>
+      <c r="B1394" s="4" t="s">
+        <v>3234</v>
+      </c>
+      <c r="C1394" s="4" t="s">
+        <v>3235</v>
+      </c>
+      <c r="D1394" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1394" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1395" s="4" t="s">
+        <v>3603</v>
+      </c>
+      <c r="B1395" s="4" t="s">
+        <v>3236</v>
+      </c>
+      <c r="C1395" s="4" t="s">
+        <v>3237</v>
+      </c>
+      <c r="D1395" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1395" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1396" s="4" t="s">
+        <v>3604</v>
+      </c>
+      <c r="B1396" s="4" t="s">
+        <v>839</v>
+      </c>
+      <c r="C1396" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="D1396" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1396" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1397" s="4" t="s">
+        <v>3605</v>
+      </c>
+      <c r="B1397" s="4" t="s">
+        <v>3238</v>
+      </c>
+      <c r="C1397" s="4" t="s">
+        <v>3239</v>
+      </c>
+      <c r="D1397" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1397" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1398" s="4" t="s">
+        <v>3606</v>
+      </c>
+      <c r="B1398" s="4" t="s">
+        <v>3240</v>
+      </c>
+      <c r="C1398" s="4" t="s">
+        <v>3241</v>
+      </c>
+      <c r="D1398" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1398" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1399" s="4" t="s">
+        <v>3607</v>
+      </c>
+      <c r="B1399" s="4" t="s">
+        <v>3242</v>
+      </c>
+      <c r="C1399" s="4" t="s">
+        <v>3243</v>
+      </c>
+      <c r="D1399" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1399" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1400" s="4" t="s">
+        <v>3608</v>
+      </c>
+      <c r="B1400" s="4" t="s">
+        <v>3244</v>
+      </c>
+      <c r="C1400" s="4" t="s">
+        <v>3245</v>
+      </c>
+      <c r="D1400" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1400" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1401" s="4" t="s">
+        <v>3609</v>
+      </c>
+      <c r="B1401" s="4" t="s">
+        <v>3246</v>
+      </c>
+      <c r="C1401" s="4" t="s">
+        <v>3247</v>
+      </c>
+      <c r="D1401" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1401" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1402" s="4" t="s">
+        <v>3610</v>
+      </c>
+      <c r="B1402" s="4" t="s">
+        <v>3248</v>
+      </c>
+      <c r="C1402" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="D1402" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1402" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1403" s="4" t="s">
+        <v>3611</v>
+      </c>
+      <c r="B1403" s="4" t="s">
+        <v>3249</v>
+      </c>
+      <c r="C1403" s="4" t="s">
+        <v>3250</v>
+      </c>
+      <c r="D1403" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1403" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1404" s="4" t="s">
+        <v>3612</v>
+      </c>
+      <c r="B1404" s="4" t="s">
+        <v>3251</v>
+      </c>
+      <c r="C1404" s="4" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D1404" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1404" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1405" s="4" t="s">
+        <v>3613</v>
+      </c>
+      <c r="B1405" s="4" t="s">
+        <v>3252</v>
+      </c>
+      <c r="C1405" s="4" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D1405" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1405" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1406" s="4" t="s">
+        <v>3614</v>
+      </c>
+      <c r="B1406" s="4" t="s">
+        <v>3253</v>
+      </c>
+      <c r="C1406" s="4" t="s">
+        <v>3254</v>
+      </c>
+      <c r="D1406" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1406" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1407" s="4" t="s">
+        <v>3615</v>
+      </c>
+      <c r="B1407" s="4" t="s">
+        <v>3255</v>
+      </c>
+      <c r="C1407" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="D1407" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1407" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1408" s="4" t="s">
+        <v>3616</v>
+      </c>
+      <c r="B1408" s="4" t="s">
+        <v>3256</v>
+      </c>
+      <c r="C1408" s="4" t="s">
+        <v>3257</v>
+      </c>
+      <c r="D1408" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1408" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1409" s="4" t="s">
+        <v>3617</v>
+      </c>
+      <c r="B1409" s="4" t="s">
+        <v>3258</v>
+      </c>
+      <c r="C1409" s="4" t="s">
+        <v>3259</v>
+      </c>
+      <c r="D1409" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1409" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1410" s="4" t="s">
+        <v>3618</v>
+      </c>
+      <c r="B1410" s="4" t="s">
+        <v>3260</v>
+      </c>
+      <c r="C1410" s="4" t="s">
+        <v>2866</v>
+      </c>
+      <c r="D1410" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1410" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1411" s="4" t="s">
+        <v>3619</v>
+      </c>
+      <c r="B1411" s="4" t="s">
+        <v>3261</v>
+      </c>
+      <c r="C1411" s="4" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D1411" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1411" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1412" s="4" t="s">
+        <v>3620</v>
+      </c>
+      <c r="B1412" s="4" t="s">
+        <v>3262</v>
+      </c>
+      <c r="C1412" s="4" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D1412" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1412" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1413" s="4" t="s">
+        <v>3621</v>
+      </c>
+      <c r="B1413" s="4" t="s">
+        <v>3263</v>
+      </c>
+      <c r="C1413" s="4" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D1413" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1413" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1414" s="4" t="s">
+        <v>3622</v>
+      </c>
+      <c r="B1414" s="4" t="s">
+        <v>3263</v>
+      </c>
+      <c r="C1414" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="D1414" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1414" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1415" s="4" t="s">
+        <v>3623</v>
+      </c>
+      <c r="B1415" s="4" t="s">
+        <v>3264</v>
+      </c>
+      <c r="C1415" s="4" t="s">
+        <v>3265</v>
+      </c>
+      <c r="D1415" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1415" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1416" s="4" t="s">
+        <v>3624</v>
+      </c>
+      <c r="B1416" s="4" t="s">
+        <v>3266</v>
+      </c>
+      <c r="C1416" s="4" t="s">
+        <v>3267</v>
+      </c>
+      <c r="D1416" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1416" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1417" s="4" t="s">
+        <v>3625</v>
+      </c>
+      <c r="B1417" s="4" t="s">
+        <v>3268</v>
+      </c>
+      <c r="C1417" s="4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D1417" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1417" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1418" s="4" t="s">
+        <v>3626</v>
+      </c>
+      <c r="B1418" s="4" t="s">
+        <v>3269</v>
+      </c>
+      <c r="C1418" s="4" t="s">
+        <v>3270</v>
+      </c>
+      <c r="D1418" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1418" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1419" s="4" t="s">
+        <v>3627</v>
+      </c>
+      <c r="B1419" s="4" t="s">
+        <v>3271</v>
+      </c>
+      <c r="C1419" s="4" t="s">
+        <v>3272</v>
+      </c>
+      <c r="D1419" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1419" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1420" s="4" t="s">
+        <v>3628</v>
+      </c>
+      <c r="B1420" s="4" t="s">
+        <v>3273</v>
+      </c>
+      <c r="C1420" s="4" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D1420" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1420" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1421" s="4" t="s">
+        <v>3629</v>
+      </c>
+      <c r="B1421" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="C1421" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="D1421" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1421" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1422" s="4" t="s">
+        <v>3630</v>
+      </c>
+      <c r="B1422" s="4" t="s">
+        <v>3274</v>
+      </c>
+      <c r="C1422" s="4" t="s">
+        <v>3275</v>
+      </c>
+      <c r="D1422" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1422" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1423" s="4" t="s">
+        <v>3631</v>
+      </c>
+      <c r="B1423" s="4" t="s">
+        <v>3276</v>
+      </c>
+      <c r="C1423" s="4" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D1423" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1423" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1424" s="4" t="s">
+        <v>3632</v>
+      </c>
+      <c r="B1424" s="4" t="s">
+        <v>3277</v>
+      </c>
+      <c r="C1424" s="4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D1424" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1424" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1425" s="4" t="s">
+        <v>3633</v>
+      </c>
+      <c r="B1425" s="4" t="s">
+        <v>3278</v>
+      </c>
+      <c r="C1425" s="4" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D1425" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1425" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1426" s="4" t="s">
+        <v>3634</v>
+      </c>
+      <c r="B1426" s="4" t="s">
+        <v>3279</v>
+      </c>
+      <c r="C1426" s="4" t="s">
+        <v>3280</v>
+      </c>
+      <c r="D1426" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1426" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1427" s="4" t="s">
+        <v>3635</v>
+      </c>
+      <c r="B1427" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="C1427" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="D1427" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1427" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1428" s="4" t="s">
+        <v>3636</v>
+      </c>
+      <c r="B1428" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="C1428" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="D1428" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1428" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1429" s="4" t="s">
+        <v>3637</v>
+      </c>
+      <c r="B1429" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="C1429" s="4" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D1429" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1429" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1430" s="4" t="s">
+        <v>3638</v>
+      </c>
+      <c r="B1430" s="4" t="s">
+        <v>3284</v>
+      </c>
+      <c r="C1430" s="4" t="s">
+        <v>3285</v>
+      </c>
+      <c r="D1430" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1430" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1431" s="4" t="s">
+        <v>3639</v>
+      </c>
+      <c r="B1431" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="C1431" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="D1431" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1431" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1432" s="4" t="s">
+        <v>3640</v>
+      </c>
+      <c r="B1432" s="4" t="s">
+        <v>3286</v>
+      </c>
+      <c r="C1432" s="4" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D1432" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1432" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1433" s="4" t="s">
+        <v>3641</v>
+      </c>
+      <c r="B1433" s="4" t="s">
+        <v>3287</v>
+      </c>
+      <c r="C1433" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D1433" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1433" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1434" s="4" t="s">
+        <v>3642</v>
+      </c>
+      <c r="B1434" s="4" t="s">
+        <v>3288</v>
+      </c>
+      <c r="C1434" s="4" t="s">
+        <v>3289</v>
+      </c>
+      <c r="D1434" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1434" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1435" s="4" t="s">
+        <v>3643</v>
+      </c>
+      <c r="B1435" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="C1435" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="D1435" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1435" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1436" s="4" t="s">
+        <v>3644</v>
+      </c>
+      <c r="B1436" s="4" t="s">
+        <v>3290</v>
+      </c>
+      <c r="C1436" s="4" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D1436" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1436" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1437" s="4" t="s">
+        <v>3645</v>
+      </c>
+      <c r="B1437" s="4" t="s">
+        <v>3291</v>
+      </c>
+      <c r="C1437" s="4" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D1437" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1437" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1438" s="4" t="s">
+        <v>3646</v>
+      </c>
+      <c r="B1438" s="4" t="s">
+        <v>3292</v>
+      </c>
+      <c r="C1438" s="4" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D1438" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1438" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1439" s="4" t="s">
+        <v>3466</v>
+      </c>
+      <c r="B1439" s="4" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C1439" s="4" t="s">
+        <v>866</v>
+      </c>
+      <c r="D1439" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1439" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1440" s="4" t="s">
+        <v>3647</v>
+      </c>
+      <c r="B1440" s="4" t="s">
+        <v>3294</v>
+      </c>
+      <c r="C1440" s="4" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D1440" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1440" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1441" s="4" t="s">
+        <v>3648</v>
+      </c>
+      <c r="B1441" s="4" t="s">
+        <v>3295</v>
+      </c>
+      <c r="C1441" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="D1441" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1441" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1442" s="4" t="s">
+        <v>3649</v>
+      </c>
+      <c r="B1442" s="4" t="s">
+        <v>3296</v>
+      </c>
+      <c r="C1442" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="D1442" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1442" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1443" s="4" t="s">
+        <v>3650</v>
+      </c>
+      <c r="B1443" s="4" t="s">
+        <v>3297</v>
+      </c>
+      <c r="C1443" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="D1443" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1443" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1444" s="4" t="s">
+        <v>3651</v>
+      </c>
+      <c r="B1444" s="4" t="s">
+        <v>3298</v>
+      </c>
+      <c r="C1444" s="4" t="s">
+        <v>3299</v>
+      </c>
+      <c r="D1444" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1444" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1445" s="4" t="s">
+        <v>3652</v>
+      </c>
+      <c r="B1445" s="4" t="s">
+        <v>3300</v>
+      </c>
+      <c r="C1445" s="4" t="s">
+        <v>3301</v>
+      </c>
+      <c r="D1445" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1445" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1446" s="4" t="s">
+        <v>3653</v>
+      </c>
+      <c r="B1446" s="4" t="s">
+        <v>3302</v>
+      </c>
+      <c r="C1446" s="4" t="s">
+        <v>3303</v>
+      </c>
+      <c r="D1446" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1446" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1447" s="4" t="s">
+        <v>3654</v>
+      </c>
+      <c r="B1447" s="4" t="s">
+        <v>3304</v>
+      </c>
+      <c r="C1447" s="4" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D1447" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1447" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1448" s="4" t="s">
+        <v>3655</v>
+      </c>
+      <c r="B1448" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="C1448" s="4" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D1448" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1448" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1449" s="4" t="s">
+        <v>3656</v>
+      </c>
+      <c r="B1449" s="4" t="s">
+        <v>3306</v>
+      </c>
+      <c r="C1449" s="4" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D1449" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1449" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1450" s="4" t="s">
+        <v>3657</v>
+      </c>
+      <c r="B1450" s="4" t="s">
+        <v>3307</v>
+      </c>
+      <c r="C1450" s="4" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D1450" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1450" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1451" s="4" t="s">
+        <v>3658</v>
+      </c>
+      <c r="B1451" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="C1451" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="D1451" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1451" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1452" s="4" t="s">
+        <v>3659</v>
+      </c>
+      <c r="B1452" s="4" t="s">
+        <v>3309</v>
+      </c>
+      <c r="C1452" s="4" t="s">
+        <v>3310</v>
+      </c>
+      <c r="D1452" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1452" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1453" s="4" t="s">
+        <v>3660</v>
+      </c>
+      <c r="B1453" s="4" t="s">
+        <v>3311</v>
+      </c>
+      <c r="C1453" s="4" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D1453" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1453" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1454" s="4" t="s">
+        <v>3661</v>
+      </c>
+      <c r="B1454" s="4" t="s">
+        <v>3312</v>
+      </c>
+      <c r="C1454" s="4" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D1454" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1454" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1455" s="4" t="s">
+        <v>3662</v>
+      </c>
+      <c r="B1455" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="C1455" s="4" t="s">
+        <v>3314</v>
+      </c>
+      <c r="D1455" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1455" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1456" s="4" t="s">
+        <v>3663</v>
+      </c>
+      <c r="B1456" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C1456" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="D1456" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1456" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1457" s="4" t="s">
+        <v>3664</v>
+      </c>
+      <c r="B1457" s="4" t="s">
+        <v>3315</v>
+      </c>
+      <c r="C1457" s="4" t="s">
+        <v>3316</v>
+      </c>
+      <c r="D1457" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1457" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1458" s="4" t="s">
+        <v>3665</v>
+      </c>
+      <c r="B1458" s="4" t="s">
+        <v>3317</v>
+      </c>
+      <c r="C1458" s="4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D1458" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1458" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1459" s="4" t="s">
+        <v>3666</v>
+      </c>
+      <c r="B1459" s="4" t="s">
+        <v>3318</v>
+      </c>
+      <c r="C1459" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="D1459" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1459" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1460" s="4" t="s">
+        <v>3667</v>
+      </c>
+      <c r="B1460" s="4" t="s">
+        <v>3319</v>
+      </c>
+      <c r="C1460" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D1460" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1460" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1461" s="4" t="s">
+        <v>3668</v>
+      </c>
+      <c r="B1461" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="C1461" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="D1461" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1461" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1462" s="4" t="s">
+        <v>3669</v>
+      </c>
+      <c r="B1462" s="4" t="s">
+        <v>3320</v>
+      </c>
+      <c r="C1462" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="D1462" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1462" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1463" s="4" t="s">
+        <v>3670</v>
+      </c>
+      <c r="B1463" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="C1463" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="D1463" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1463" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1464" s="4" t="s">
+        <v>3671</v>
+      </c>
+      <c r="B1464" s="4" t="s">
+        <v>3321</v>
+      </c>
+      <c r="C1464" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="D1464" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1464" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1465" s="4" t="s">
+        <v>3672</v>
+      </c>
+      <c r="B1465" s="4" t="s">
+        <v>3322</v>
+      </c>
+      <c r="C1465" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D1465" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1465" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1466" s="4" t="s">
+        <v>3673</v>
+      </c>
+      <c r="B1466" s="4" t="s">
+        <v>3323</v>
+      </c>
+      <c r="C1466" s="4" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D1466" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1466" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1467" s="4" t="s">
+        <v>3674</v>
+      </c>
+      <c r="B1467" s="4" t="s">
+        <v>3324</v>
+      </c>
+      <c r="C1467" s="4" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D1467" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1467" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1468" s="4" t="s">
+        <v>3675</v>
+      </c>
+      <c r="B1468" s="4" t="s">
+        <v>3325</v>
+      </c>
+      <c r="C1468" s="4" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D1468" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1468" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1469" s="4" t="s">
+        <v>3676</v>
+      </c>
+      <c r="B1469" s="4" t="s">
+        <v>3326</v>
+      </c>
+      <c r="C1469" s="4" t="s">
+        <v>3327</v>
+      </c>
+      <c r="D1469" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1469" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1470" s="4" t="s">
+        <v>3677</v>
+      </c>
+      <c r="B1470" s="4" t="s">
+        <v>3328</v>
+      </c>
+      <c r="C1470" s="4" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D1470" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1470" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1471" s="4" t="s">
+        <v>3678</v>
+      </c>
+      <c r="B1471" s="4" t="s">
+        <v>3329</v>
+      </c>
+      <c r="C1471" s="4" t="s">
+        <v>3330</v>
+      </c>
+      <c r="D1471" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E1471" s="4" t="b">
         <v>1</v>
       </c>
     </row>

--- a/resources/Repository Setup.xlsx
+++ b/resources/Repository Setup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="480" yWindow="180" windowWidth="27795" windowHeight="12525"/>
   </bookViews>
   <sheets>
     <sheet name="Attributes" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="CompanyContainer" sheetId="6" r:id="rId3"/>
     <sheet name="PersonContainer" sheetId="7" r:id="rId4"/>
     <sheet name="AccountContainer" sheetId="5" r:id="rId5"/>
+    <sheet name="BloombergLookUp" sheetId="9" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="AD" localSheetId="0">Attributes!$C$383</definedName>
@@ -268,7 +269,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6049" uniqueCount="3679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7579" uniqueCount="4091">
   <si>
     <t>identifier</t>
   </si>
@@ -11305,6 +11306,1242 @@
   </si>
   <si>
     <t>BB_EXCH_LU_YS</t>
+  </si>
+  <si>
+    <t>AN</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>ANTIGUA &amp; BARBU</t>
+  </si>
+  <si>
+    <t>Aland Islands</t>
+  </si>
+  <si>
+    <t>BOLIVIA</t>
+  </si>
+  <si>
+    <t>BOSNIA-HERZE.</t>
+  </si>
+  <si>
+    <t>BR.INDN OCEAN</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>BRITAIN</t>
+  </si>
+  <si>
+    <t>BRITISH VIRGIN</t>
+  </si>
+  <si>
+    <t>BRUNEI</t>
+  </si>
+  <si>
+    <t>Bonaire, Saint</t>
+  </si>
+  <si>
+    <t>CENTRAL AFRICA</t>
+  </si>
+  <si>
+    <t>CHNL</t>
+  </si>
+  <si>
+    <t>CHANNEL ISLANDS</t>
+  </si>
+  <si>
+    <t>CHRISTMAS IS.</t>
+  </si>
+  <si>
+    <t>COCOS</t>
+  </si>
+  <si>
+    <t>CURACAO</t>
+  </si>
+  <si>
+    <t>CZECH</t>
+  </si>
+  <si>
+    <t>DEM.REP. CONGO</t>
+  </si>
+  <si>
+    <t>DOMINICAN REPB.</t>
+  </si>
+  <si>
+    <t>DR</t>
+  </si>
+  <si>
+    <t>EAST CARIBBEAN</t>
+  </si>
+  <si>
+    <t>EAST TIMOR</t>
+  </si>
+  <si>
+    <t>EQUATORIAL</t>
+  </si>
+  <si>
+    <t>EUROZONE</t>
+  </si>
+  <si>
+    <t>FAEROE ISLAND</t>
+  </si>
+  <si>
+    <t>FALKLAND IS.</t>
+  </si>
+  <si>
+    <t>FRENCH PACIFIC</t>
+  </si>
+  <si>
+    <t>FRENCH SOUTHERN</t>
+  </si>
+  <si>
+    <t>GO</t>
+  </si>
+  <si>
+    <t>HEARD/MACDONLD</t>
+  </si>
+  <si>
+    <t>IRAN</t>
+  </si>
+  <si>
+    <t>IVORY COAST</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>KU</t>
+  </si>
+  <si>
+    <t>LAOS</t>
+  </si>
+  <si>
+    <t>LL</t>
+  </si>
+  <si>
+    <t>MACAU</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>MACEDONIA</t>
+  </si>
+  <si>
+    <t>Z5</t>
+  </si>
+  <si>
+    <t>MALI REPUBLIC</t>
+  </si>
+  <si>
+    <t>MARSHALL ISLAND</t>
+  </si>
+  <si>
+    <t>MICRONESIA</t>
+  </si>
+  <si>
+    <t>MOLDOVA</t>
+  </si>
+  <si>
+    <t>MJ</t>
+  </si>
+  <si>
+    <t>YV</t>
+  </si>
+  <si>
+    <t>MULT</t>
+  </si>
+  <si>
+    <t>MIX</t>
+  </si>
+  <si>
+    <t>Mixed</t>
+  </si>
+  <si>
+    <t>NAURU ISLAND</t>
+  </si>
+  <si>
+    <t>NETH. ANTILLES</t>
+  </si>
+  <si>
+    <t>NV</t>
+  </si>
+  <si>
+    <t>NIGER REPUBLIC</t>
+  </si>
+  <si>
+    <t>NORTH KOREA</t>
+  </si>
+  <si>
+    <t>NORTHERN MARIAN</t>
+  </si>
+  <si>
+    <t>PALESTINE</t>
+  </si>
+  <si>
+    <t>PANAMA CANAL ZO</t>
+  </si>
+  <si>
+    <t>PAPUA N.GUINEA</t>
+  </si>
+  <si>
+    <t>PITCAIRN IS.</t>
+  </si>
+  <si>
+    <t>REUNION</t>
+  </si>
+  <si>
+    <t>RUSSIA</t>
+  </si>
+  <si>
+    <t>S.GEORGIA/S.SAN</t>
+  </si>
+  <si>
+    <t>SAMOA (WEST)</t>
+  </si>
+  <si>
+    <t>SAO TOME</t>
+  </si>
+  <si>
+    <t>SEBORGA</t>
+  </si>
+  <si>
+    <t>SINT MAARTEN</t>
+  </si>
+  <si>
+    <t>SNAT</t>
+  </si>
+  <si>
+    <t>SOLOMON ISLAND</t>
+  </si>
+  <si>
+    <t>SOUTH KOREA</t>
+  </si>
+  <si>
+    <t>ST. HELENA</t>
+  </si>
+  <si>
+    <t>ST. KITTS &amp; NEV</t>
+  </si>
+  <si>
+    <t>ST. LUCIA</t>
+  </si>
+  <si>
+    <t>ST. VINCENT</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>SVALBARD &amp; JAN</t>
+  </si>
+  <si>
+    <t>SYRIA</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>St Barthelemy</t>
+  </si>
+  <si>
+    <t>St Martin</t>
+  </si>
+  <si>
+    <t>TAIWAN</t>
+  </si>
+  <si>
+    <t>TANZANIA</t>
+  </si>
+  <si>
+    <t>TRINIDAD</t>
+  </si>
+  <si>
+    <t>TURKS &amp; CAICOS</t>
+  </si>
+  <si>
+    <t>U.S. MINOR OUTL</t>
+  </si>
+  <si>
+    <t>UAE</t>
+  </si>
+  <si>
+    <t>VATICAN</t>
+  </si>
+  <si>
+    <t>VENEZUELA</t>
+  </si>
+  <si>
+    <t>VZ</t>
+  </si>
+  <si>
+    <t>VIETNAM</t>
+  </si>
+  <si>
+    <t>VIRGIN ISLANDS</t>
+  </si>
+  <si>
+    <t>WALLIS &amp; FUTUNA</t>
+  </si>
+  <si>
+    <t>ZI</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>bloomberg_country_lookup</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_AF</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_AL</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_AI</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_DZ</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_AD</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_AN</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_AO</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_A5</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_AQ</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_AG</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_AR</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_AE</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_AM</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_AB</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_AW</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_AU</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_AS</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_AT</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_AZ</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_AX</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_BH</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_BS</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_BJ</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_BD</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_BW</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_BB</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_BR</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_BK</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_BY</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_BE</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_BI</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_BZ</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_BN</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_BM</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_BT</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_BL</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_BO</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_BA</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_BV</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_IO</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_EN</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_GB</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_VG</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_VS</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_BG</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_BP</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_BF</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_BQ</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_KH</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_CM</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_CA</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_CV</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_CI</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_KY</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_CF</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_CD</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_TD</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_CHNL</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_CL</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_CH</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_CN</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_CX</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_CC</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_CO</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_KM</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_CG</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_CK</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_CR</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_HR</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_CU</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_CT</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_CW</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_CY</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_CZ</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_ZA</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_DE</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_DK</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_DJ</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_DM</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_DO</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_DR</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_XD</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_TL</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_EC</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_ED</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_EG</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_EL</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_SV</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_EQ</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_GQ</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_ER</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_EE</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_ET</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_TE</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_FO</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_FK</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_FJ</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_FI</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_FR</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_GF</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_PF</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_TF</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_GA</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_GO</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_GM</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_GE</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_GG</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_GH</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_GI</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_GR</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_GL</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_GD</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_GP</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_GU</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_GT</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_GS</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_GN</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_GW</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_GY</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_HT</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_HM</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_HN</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_HK</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_HU</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_IC</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_IS</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_IN</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_ID</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_IA</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_IR</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_IQ</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_IE</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_IM</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_IL</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_IT</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_IV</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_JM</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_JN</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_JP</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_JE</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_JO</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_KZ</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_KE</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_KN</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_KB</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_KI</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_KU</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_KW</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_KG</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_LA</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_LO</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_LL</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_LV</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_LB</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_LE</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_LH</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_LS</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_LR</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_LY</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_LC</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_LI</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_LN</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_LT</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_LU</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_LX</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_MO</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_U2</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_MC</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_MK</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_Z5</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_MG</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_MW</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_MA</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_MY</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_MV</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_MH</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_ML</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_MB</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_MT</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_MR</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_MQ</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_MM</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_MP</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_MU</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_YT</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_MX</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_FM</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_MF</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_MD</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_MJ</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_MN</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_ME</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_YV</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_MS</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_MZ</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_MULT</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_MIX</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_NA</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_NR</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_NU</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_NP</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_NV</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_NE</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_NL</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_NC</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_NZ</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_NI</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_NG</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_NF</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_KP</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_NK</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_NO</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_OM</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_PK</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_PW</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_PS</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_PA</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_PN</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_PZ</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_PG</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_PP</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_PY</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_PE</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_PH</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_PD</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_PL</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_PO</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_PT</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_PR</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_QA</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_RE</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_RO</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_RU</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_RW</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_WS</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_SM</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_ST</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_TM</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_SA</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_SR</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_ZB</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_SB</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_SN</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_SC</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_SS</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_S1</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_SL</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_SG</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_SI</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_SX</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_SK</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_SO</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_SNAT</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_SJ</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_SQ</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_KR</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_ES</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_SP</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_LK</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_SH</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_LD</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_VC</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_VT</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_SD</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_SU</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_S2</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_SZ</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_SE</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_SW</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_SY</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_RR</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_RS</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_TA</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_TW</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_TJ</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_TZ</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_TH</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_TG</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_TK</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_TO</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_TR</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_TT</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_TN</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_TU</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_TC</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_TV</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_UM</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_UA</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_UG</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_UK</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_US</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_UR</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_UY</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_UZ</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_VA</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_VU</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_VE</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_VZ</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_VN</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_VI</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_WF</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_EH</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_YE</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_ZI</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_ZW</t>
+  </si>
+  <si>
+    <t>BB_COUNTRY_LU_ZM</t>
+  </si>
+  <si>
+    <t>Bloomberg Code</t>
+  </si>
+  <si>
+    <t>Finale Type</t>
+  </si>
+  <si>
+    <t>Short Name</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>LU_DAY_CNT</t>
+  </si>
+  <si>
+    <t>bloomberg_day_count</t>
+  </si>
+  <si>
+    <t>LU_ISSUER_INDUSTRY</t>
+  </si>
+  <si>
+    <t>bloomberg_issuer_industry</t>
+  </si>
+  <si>
+    <t>LU_CRNCY</t>
+  </si>
+  <si>
+    <t>bloomberg_currency</t>
   </si>
 </sst>
 </file>
@@ -12139,10 +13376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1471"/>
+  <dimension ref="A1:E1851"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1326" workbookViewId="0">
-      <selection activeCell="A1123" sqref="A1123:A1471"/>
+    <sheetView tabSelected="1" topLeftCell="A1824" workbookViewId="0">
+      <selection activeCell="B1741" sqref="B1741"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37158,6 +38395,6466 @@
         <v>2871</v>
       </c>
       <c r="E1471" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1472" t="s">
+        <v>3775</v>
+      </c>
+      <c r="B1472" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C1472" s="4" t="s">
+        <v>998</v>
+      </c>
+      <c r="D1472" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1472" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1473" s="4" t="s">
+        <v>3776</v>
+      </c>
+      <c r="B1473" s="4" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C1473" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D1473" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1473" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1474" s="4" t="s">
+        <v>3777</v>
+      </c>
+      <c r="B1474" s="4" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C1474" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D1474" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1474" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1475" s="4" t="s">
+        <v>3778</v>
+      </c>
+      <c r="B1475" s="4" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C1475" s="4" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D1475" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1475" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1476" s="4" t="s">
+        <v>3779</v>
+      </c>
+      <c r="B1476" s="4" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C1476" s="4" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D1476" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1476" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1477" s="4" t="s">
+        <v>3780</v>
+      </c>
+      <c r="B1477" s="4" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C1477" s="4" t="s">
+        <v>3679</v>
+      </c>
+      <c r="D1477" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1477" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1478" s="4" t="s">
+        <v>3781</v>
+      </c>
+      <c r="B1478" s="4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C1478" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D1478" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1478" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1479" s="4" t="s">
+        <v>3782</v>
+      </c>
+      <c r="B1479" s="4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C1479" s="4" t="s">
+        <v>3680</v>
+      </c>
+      <c r="D1479" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1479" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1480" s="4" t="s">
+        <v>3777</v>
+      </c>
+      <c r="B1480" s="4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C1480" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D1480" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1480" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1481" s="4" t="s">
+        <v>3783</v>
+      </c>
+      <c r="B1481" s="4" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C1481" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D1481" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1481" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1482" s="4" t="s">
+        <v>3784</v>
+      </c>
+      <c r="B1482" s="4" t="s">
+        <v>3681</v>
+      </c>
+      <c r="C1482" s="4" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D1482" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1482" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1483" s="4" t="s">
+        <v>3785</v>
+      </c>
+      <c r="B1483" s="4" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C1483" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="D1483" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1483" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1484" s="4" t="s">
+        <v>3786</v>
+      </c>
+      <c r="B1484" s="4" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C1484" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D1484" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1484" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1485" s="4" t="s">
+        <v>3787</v>
+      </c>
+      <c r="B1485" s="4" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C1485" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D1485" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1485" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1486" s="4" t="s">
+        <v>3788</v>
+      </c>
+      <c r="B1486" s="4" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C1486" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="D1486" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1486" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1487" s="4" t="s">
+        <v>3789</v>
+      </c>
+      <c r="B1487" s="4" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C1487" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D1487" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1487" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1488" s="4" t="s">
+        <v>3790</v>
+      </c>
+      <c r="B1488" s="4" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C1488" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="D1488" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1488" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1489" s="4" t="s">
+        <v>3791</v>
+      </c>
+      <c r="B1489" s="4" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C1489" s="4" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D1489" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1489" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1490" s="4" t="s">
+        <v>3792</v>
+      </c>
+      <c r="B1490" s="4" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C1490" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D1490" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1490" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1491" s="4" t="s">
+        <v>3793</v>
+      </c>
+      <c r="B1491" s="4" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C1491" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D1491" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1491" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1492" s="4" t="s">
+        <v>3794</v>
+      </c>
+      <c r="B1492" s="4" t="s">
+        <v>3682</v>
+      </c>
+      <c r="C1492" s="4" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D1492" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1492" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1493" s="4" t="s">
+        <v>3795</v>
+      </c>
+      <c r="B1493" s="4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C1493" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="D1493" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1493" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1494" s="4" t="s">
+        <v>3796</v>
+      </c>
+      <c r="B1494" s="4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C1494" s="4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D1494" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1494" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1495" s="4" t="s">
+        <v>3795</v>
+      </c>
+      <c r="B1495" s="4" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C1495" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="D1495" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1495" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1496" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="B1496" s="4" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C1496" s="4" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D1496" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1496" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1497" s="4" t="s">
+        <v>3798</v>
+      </c>
+      <c r="B1497" s="4" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C1497" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="D1497" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1497" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1498" s="4" t="s">
+        <v>3799</v>
+      </c>
+      <c r="B1498" s="4" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C1498" s="4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D1498" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1498" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1499" s="4" t="s">
+        <v>3800</v>
+      </c>
+      <c r="B1499" s="4" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C1499" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="D1499" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1499" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1500" s="4" t="s">
+        <v>3801</v>
+      </c>
+      <c r="B1500" s="4" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C1500" s="4" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D1500" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1500" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1501" s="4" t="s">
+        <v>3802</v>
+      </c>
+      <c r="B1501" s="4" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C1501" s="4" t="s">
+        <v>2920</v>
+      </c>
+      <c r="D1501" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1501" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1502" s="4" t="s">
+        <v>3803</v>
+      </c>
+      <c r="B1502" s="4" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C1502" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D1502" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1502" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1503" s="4" t="s">
+        <v>3804</v>
+      </c>
+      <c r="B1503" s="4" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C1503" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D1503" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1503" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1504" s="4" t="s">
+        <v>3805</v>
+      </c>
+      <c r="B1504" s="4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C1504" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="D1504" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1504" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1505" s="4" t="s">
+        <v>3806</v>
+      </c>
+      <c r="B1505" s="4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C1505" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="D1505" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1505" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1506" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="B1506" s="4" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C1506" s="4" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D1506" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1506" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1507" s="4" t="s">
+        <v>3807</v>
+      </c>
+      <c r="B1507" s="4" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C1507" s="4" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D1507" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1507" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1508" s="4" t="s">
+        <v>3798</v>
+      </c>
+      <c r="B1508" s="4" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C1508" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="D1508" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1508" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1509" s="4" t="s">
+        <v>3808</v>
+      </c>
+      <c r="B1509" s="4" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C1509" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="D1509" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1509" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1510" s="4" t="s">
+        <v>3809</v>
+      </c>
+      <c r="B1510" s="4" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C1510" s="4" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D1510" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1510" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1511" s="4" t="s">
+        <v>3810</v>
+      </c>
+      <c r="B1511" s="4" t="s">
+        <v>3683</v>
+      </c>
+      <c r="C1511" s="4" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D1511" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1511" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1512" s="4" t="s">
+        <v>3811</v>
+      </c>
+      <c r="B1512" s="4" t="s">
+        <v>3683</v>
+      </c>
+      <c r="C1512" s="4" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D1512" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1512" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1513" s="4" t="s">
+        <v>3812</v>
+      </c>
+      <c r="B1513" s="4" t="s">
+        <v>3684</v>
+      </c>
+      <c r="C1513" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="D1513" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1513" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1514" s="4" t="s">
+        <v>3803</v>
+      </c>
+      <c r="B1514" s="4" t="s">
+        <v>3684</v>
+      </c>
+      <c r="C1514" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D1514" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1514" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1515" s="4" t="s">
+        <v>3811</v>
+      </c>
+      <c r="B1515" s="4" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C1515" s="4" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D1515" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1515" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1516" s="4" t="s">
+        <v>3799</v>
+      </c>
+      <c r="B1516" s="4" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C1516" s="4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D1516" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1516" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1517" s="4" t="s">
+        <v>3813</v>
+      </c>
+      <c r="B1517" s="4" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C1517" s="4" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D1517" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1517" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1518" s="4" t="s">
+        <v>3814</v>
+      </c>
+      <c r="B1518" s="4" t="s">
+        <v>3685</v>
+      </c>
+      <c r="C1518" s="4" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D1518" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1518" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1519" s="4" t="s">
+        <v>3801</v>
+      </c>
+      <c r="B1519" s="4" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C1519" s="4" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D1519" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1519" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1520" s="4" t="s">
+        <v>3806</v>
+      </c>
+      <c r="B1520" s="4" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C1520" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="D1520" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1520" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1521" s="4" t="s">
+        <v>3815</v>
+      </c>
+      <c r="B1521" s="4" t="s">
+        <v>3687</v>
+      </c>
+      <c r="C1521" s="4" t="s">
+        <v>3686</v>
+      </c>
+      <c r="D1521" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1521" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1522" s="4" t="s">
+        <v>3816</v>
+      </c>
+      <c r="B1522" s="4" t="s">
+        <v>3687</v>
+      </c>
+      <c r="C1522" s="4" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D1522" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1522" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1523" s="4" t="s">
+        <v>3817</v>
+      </c>
+      <c r="B1523" s="4" t="s">
+        <v>3688</v>
+      </c>
+      <c r="C1523" s="4" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D1523" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1523" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1524" s="4" t="s">
+        <v>3818</v>
+      </c>
+      <c r="B1524" s="4" t="s">
+        <v>3688</v>
+      </c>
+      <c r="C1524" s="4" t="s">
+        <v>2973</v>
+      </c>
+      <c r="D1524" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1524" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1525" s="4" t="s">
+        <v>3808</v>
+      </c>
+      <c r="B1525" s="4" t="s">
+        <v>3689</v>
+      </c>
+      <c r="C1525" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="D1525" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1525" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1526" s="4" t="s">
+        <v>3807</v>
+      </c>
+      <c r="B1526" s="4" t="s">
+        <v>3689</v>
+      </c>
+      <c r="C1526" s="4" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D1526" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1526" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1527" s="4" t="s">
+        <v>3819</v>
+      </c>
+      <c r="B1527" s="4" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C1527" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="D1527" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1527" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1528" s="4" t="s">
+        <v>3820</v>
+      </c>
+      <c r="B1528" s="4" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C1528" s="4" t="s">
+        <v>2936</v>
+      </c>
+      <c r="D1528" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1528" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1529" s="4" t="s">
+        <v>3821</v>
+      </c>
+      <c r="B1529" s="4" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C1529" s="4" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D1529" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1529" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1530" s="4" t="s">
+        <v>3822</v>
+      </c>
+      <c r="B1530" s="4" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C1530" s="4" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D1530" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1530" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1531" s="4" t="s">
+        <v>3819</v>
+      </c>
+      <c r="B1531" s="4" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C1531" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="D1531" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1531" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1532" s="4" t="s">
+        <v>3805</v>
+      </c>
+      <c r="B1532" s="4" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C1532" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="D1532" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1532" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1533" s="4" t="s">
+        <v>3822</v>
+      </c>
+      <c r="B1533" s="4" t="s">
+        <v>3690</v>
+      </c>
+      <c r="C1533" s="4" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D1533" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1533" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1534" s="4" t="s">
+        <v>3823</v>
+      </c>
+      <c r="B1534" s="4" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C1534" s="4" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D1534" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1534" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1535" s="4" t="s">
+        <v>3824</v>
+      </c>
+      <c r="B1535" s="4" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C1535" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D1535" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1535" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1536" s="4" t="s">
+        <v>3825</v>
+      </c>
+      <c r="B1536" s="4" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C1536" s="4" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D1536" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1536" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1537" s="4" t="s">
+        <v>3826</v>
+      </c>
+      <c r="B1537" s="4" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C1537" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D1537" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1537" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1538" s="4" t="s">
+        <v>3827</v>
+      </c>
+      <c r="B1538" s="4" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C1538" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="D1538" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1538" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1539" s="4" t="s">
+        <v>3828</v>
+      </c>
+      <c r="B1539" s="4" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C1539" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="D1539" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1539" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1540" s="4" t="s">
+        <v>3829</v>
+      </c>
+      <c r="B1540" s="4" t="s">
+        <v>3691</v>
+      </c>
+      <c r="C1540" s="4" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D1540" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1540" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1541" s="4" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B1541" s="4" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C1541" s="4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D1541" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1541" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1542" s="4" t="s">
+        <v>3831</v>
+      </c>
+      <c r="B1542" s="4" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C1542" s="4" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D1542" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1542" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1543" s="4" t="s">
+        <v>3832</v>
+      </c>
+      <c r="B1543" s="4" t="s">
+        <v>3693</v>
+      </c>
+      <c r="C1543" s="4" t="s">
+        <v>3692</v>
+      </c>
+      <c r="D1543" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1543" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1544" s="4" t="s">
+        <v>3833</v>
+      </c>
+      <c r="B1544" s="4" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C1544" s="4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D1544" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1544" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1545" s="4" t="s">
+        <v>3834</v>
+      </c>
+      <c r="B1545" s="4" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C1545" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="D1545" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1545" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1546" s="4" t="s">
+        <v>3835</v>
+      </c>
+      <c r="B1546" s="4" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C1546" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="D1546" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1546" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1547" s="4" t="s">
+        <v>3836</v>
+      </c>
+      <c r="B1547" s="4" t="s">
+        <v>3694</v>
+      </c>
+      <c r="C1547" s="4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D1547" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1547" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1548" s="4" t="s">
+        <v>3837</v>
+      </c>
+      <c r="B1548" s="4" t="s">
+        <v>3695</v>
+      </c>
+      <c r="C1548" s="4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D1548" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1548" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1549" s="4" t="s">
+        <v>3838</v>
+      </c>
+      <c r="B1549" s="4" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C1549" s="4" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D1549" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1549" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1550" s="4" t="s">
+        <v>3835</v>
+      </c>
+      <c r="B1550" s="4" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C1550" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="D1550" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1550" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1551" s="4" t="s">
+        <v>3839</v>
+      </c>
+      <c r="B1551" s="4" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C1551" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D1551" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1551" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1552" s="4" t="s">
+        <v>3840</v>
+      </c>
+      <c r="B1552" s="4" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C1552" s="4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D1552" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1552" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1553" s="4" t="s">
+        <v>3841</v>
+      </c>
+      <c r="B1553" s="4" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C1553" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D1553" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1553" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1554" s="4" t="s">
+        <v>3841</v>
+      </c>
+      <c r="B1554" s="4" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C1554" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D1554" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1554" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1555" s="4" t="s">
+        <v>3842</v>
+      </c>
+      <c r="B1555" s="4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C1555" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="D1555" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1555" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1556" s="4" t="s">
+        <v>3843</v>
+      </c>
+      <c r="B1556" s="4" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C1556" s="4" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D1556" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1556" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1557" s="4" t="s">
+        <v>3844</v>
+      </c>
+      <c r="B1557" s="4" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C1557" s="4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D1557" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1557" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1558" s="4" t="s">
+        <v>3845</v>
+      </c>
+      <c r="B1558" s="4" t="s">
+        <v>3696</v>
+      </c>
+      <c r="C1558" s="4" t="s">
+        <v>3303</v>
+      </c>
+      <c r="D1558" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1558" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1559" s="4" t="s">
+        <v>3846</v>
+      </c>
+      <c r="B1559" s="4" t="s">
+        <v>3696</v>
+      </c>
+      <c r="C1559" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D1559" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1559" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1560" s="4" t="s">
+        <v>3837</v>
+      </c>
+      <c r="B1560" s="4" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C1560" s="4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D1560" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1560" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1561" s="4" t="s">
+        <v>3847</v>
+      </c>
+      <c r="B1561" s="4" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C1561" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="D1561" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1561" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1562" s="4" t="s">
+        <v>3848</v>
+      </c>
+      <c r="B1562" s="4" t="s">
+        <v>3697</v>
+      </c>
+      <c r="C1562" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="D1562" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1562" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1563" s="4" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B1563" s="4" t="s">
+        <v>3698</v>
+      </c>
+      <c r="C1563" s="4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D1563" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1563" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1564" s="4" t="s">
+        <v>3849</v>
+      </c>
+      <c r="B1564" s="4" t="s">
+        <v>3698</v>
+      </c>
+      <c r="C1564" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D1564" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1564" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1565" s="4" t="s">
+        <v>3850</v>
+      </c>
+      <c r="B1565" s="4" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C1565" s="4" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D1565" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1565" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1566" s="4" t="s">
+        <v>3851</v>
+      </c>
+      <c r="B1566" s="4" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C1566" s="4" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D1566" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1566" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1567" s="4" t="s">
+        <v>3852</v>
+      </c>
+      <c r="B1567" s="4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C1567" s="4" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D1567" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1567" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1568" s="4" t="s">
+        <v>3853</v>
+      </c>
+      <c r="B1568" s="4" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C1568" s="4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D1568" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1568" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1569" s="4" t="s">
+        <v>3854</v>
+      </c>
+      <c r="B1569" s="4" t="s">
+        <v>3699</v>
+      </c>
+      <c r="C1569" s="4" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D1569" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1569" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1570" s="4" t="s">
+        <v>3855</v>
+      </c>
+      <c r="B1570" s="4" t="s">
+        <v>3699</v>
+      </c>
+      <c r="C1570" s="4" t="s">
+        <v>3700</v>
+      </c>
+      <c r="D1570" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1570" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1571" s="4" t="s">
+        <v>3856</v>
+      </c>
+      <c r="B1571" s="4" t="s">
+        <v>3701</v>
+      </c>
+      <c r="C1571" s="4" t="s">
+        <v>3009</v>
+      </c>
+      <c r="D1571" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1571" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1572" s="4" t="s">
+        <v>3857</v>
+      </c>
+      <c r="B1572" s="4" t="s">
+        <v>3702</v>
+      </c>
+      <c r="C1572" s="4" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D1572" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1572" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1573" s="4" t="s">
+        <v>3858</v>
+      </c>
+      <c r="B1573" s="4" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C1573" s="4" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D1573" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1573" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1574" s="4" t="s">
+        <v>3859</v>
+      </c>
+      <c r="B1574" s="4" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C1574" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="D1574" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1574" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1575" s="4" t="s">
+        <v>3860</v>
+      </c>
+      <c r="B1575" s="4" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C1575" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D1575" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1575" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1576" s="4" t="s">
+        <v>3861</v>
+      </c>
+      <c r="B1576" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C1576" s="4" t="s">
+        <v>3026</v>
+      </c>
+      <c r="D1576" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1576" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1577" s="4" t="s">
+        <v>3862</v>
+      </c>
+      <c r="B1577" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C1577" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="D1577" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1577" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1578" s="4" t="s">
+        <v>3863</v>
+      </c>
+      <c r="B1578" s="4" t="s">
+        <v>3703</v>
+      </c>
+      <c r="C1578" s="4" t="s">
+        <v>3239</v>
+      </c>
+      <c r="D1578" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1578" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1579" s="4" t="s">
+        <v>3864</v>
+      </c>
+      <c r="B1579" s="4" t="s">
+        <v>3703</v>
+      </c>
+      <c r="C1579" s="4" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D1579" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1579" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1580" s="4" t="s">
+        <v>3865</v>
+      </c>
+      <c r="B1580" s="4" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C1580" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D1580" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1580" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1581" s="4" t="s">
+        <v>3866</v>
+      </c>
+      <c r="B1581" s="4" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C1581" s="4" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D1581" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1581" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1582" s="4" t="s">
+        <v>3867</v>
+      </c>
+      <c r="B1582" s="4" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C1582" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="D1582" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1582" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1583" s="4" t="s">
+        <v>3858</v>
+      </c>
+      <c r="B1583" s="4" t="s">
+        <v>3704</v>
+      </c>
+      <c r="C1583" s="4" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D1583" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1583" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1584" s="4" t="s">
+        <v>3868</v>
+      </c>
+      <c r="B1584" s="4" t="s">
+        <v>3704</v>
+      </c>
+      <c r="C1584" s="4" t="s">
+        <v>3032</v>
+      </c>
+      <c r="D1584" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1584" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1585" s="4" t="s">
+        <v>3869</v>
+      </c>
+      <c r="B1585" s="4" t="s">
+        <v>3705</v>
+      </c>
+      <c r="C1585" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1585" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1585" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1586" s="4" t="s">
+        <v>3870</v>
+      </c>
+      <c r="B1586" s="4" t="s">
+        <v>3706</v>
+      </c>
+      <c r="C1586" s="4" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D1586" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1586" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1587" s="4" t="s">
+        <v>3871</v>
+      </c>
+      <c r="B1587" s="4" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C1587" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D1587" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1587" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1588" s="4" t="s">
+        <v>3872</v>
+      </c>
+      <c r="B1588" s="4" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C1588" s="4" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D1588" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1588" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1589" s="4" t="s">
+        <v>3873</v>
+      </c>
+      <c r="B1589" s="4" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C1589" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D1589" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1589" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1590" s="4" t="s">
+        <v>3874</v>
+      </c>
+      <c r="B1590" s="4" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C1590" s="4" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D1590" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1590" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1591" s="4" t="s">
+        <v>3875</v>
+      </c>
+      <c r="B1591" s="4" t="s">
+        <v>3707</v>
+      </c>
+      <c r="C1591" s="4" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D1591" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1591" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1592" s="4" t="s">
+        <v>3876</v>
+      </c>
+      <c r="B1592" s="4" t="s">
+        <v>3708</v>
+      </c>
+      <c r="C1592" s="4" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D1592" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1592" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1593" s="4" t="s">
+        <v>3877</v>
+      </c>
+      <c r="B1593" s="4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C1593" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="D1593" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1593" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1594" s="4" t="s">
+        <v>3878</v>
+      </c>
+      <c r="B1594" s="4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C1594" s="4" t="s">
+        <v>3709</v>
+      </c>
+      <c r="D1594" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1594" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1595" s="4" t="s">
+        <v>3877</v>
+      </c>
+      <c r="B1595" s="4" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C1595" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="D1595" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1595" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1596" s="4" t="s">
+        <v>3879</v>
+      </c>
+      <c r="B1596" s="4" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C1596" s="4" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D1596" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1596" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1597" s="4" t="s">
+        <v>3880</v>
+      </c>
+      <c r="B1597" s="4" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C1597" s="4" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D1597" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1597" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1598" s="4" t="s">
+        <v>3881</v>
+      </c>
+      <c r="B1598" s="4" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C1598" s="4" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D1598" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1598" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1599" s="4" t="s">
+        <v>3850</v>
+      </c>
+      <c r="B1599" s="4" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C1599" s="4" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D1599" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1599" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1600" s="4" t="s">
+        <v>3880</v>
+      </c>
+      <c r="B1600" s="4" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C1600" s="4" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D1600" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1600" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1601" s="4" t="s">
+        <v>3882</v>
+      </c>
+      <c r="B1601" s="4" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C1601" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D1601" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1601" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1602" s="4" t="s">
+        <v>3883</v>
+      </c>
+      <c r="B1602" s="4" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C1602" s="4" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D1602" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1602" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1603" s="4" t="s">
+        <v>3884</v>
+      </c>
+      <c r="B1603" s="4" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C1603" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="D1603" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1603" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1604" s="4" t="s">
+        <v>3885</v>
+      </c>
+      <c r="B1604" s="4" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C1604" s="4" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D1604" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1604" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1605" s="4" t="s">
+        <v>3886</v>
+      </c>
+      <c r="B1605" s="4" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C1605" s="4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D1605" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1605" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1606" s="4" t="s">
+        <v>3887</v>
+      </c>
+      <c r="B1606" s="4" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1606" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1606" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1606" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1607" s="4" t="s">
+        <v>3879</v>
+      </c>
+      <c r="B1607" s="4" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1607" s="4" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D1607" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1607" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1608" s="4" t="s">
+        <v>3888</v>
+      </c>
+      <c r="B1608" s="4" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1608" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="D1608" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1608" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1609" s="4" t="s">
+        <v>3889</v>
+      </c>
+      <c r="B1609" s="4" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C1609" s="4" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D1609" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1609" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1610" s="4" t="s">
+        <v>3888</v>
+      </c>
+      <c r="B1610" s="4" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C1610" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="D1610" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1610" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1611" s="4" t="s">
+        <v>3881</v>
+      </c>
+      <c r="B1611" s="4" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C1611" s="4" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D1611" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1611" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1612" s="4" t="s">
+        <v>3890</v>
+      </c>
+      <c r="B1612" s="4" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C1612" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D1612" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1612" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1613" s="4" t="s">
+        <v>3891</v>
+      </c>
+      <c r="B1613" s="4" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C1613" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="D1613" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1613" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1614" s="4" t="s">
+        <v>3892</v>
+      </c>
+      <c r="B1614" s="4" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C1614" s="4" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D1614" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1614" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1615" s="4" t="s">
+        <v>3893</v>
+      </c>
+      <c r="B1615" s="4" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C1615" s="4" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D1615" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1615" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1616" s="4" t="s">
+        <v>3894</v>
+      </c>
+      <c r="B1616" s="4" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C1616" s="4" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D1616" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1616" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1617" s="4" t="s">
+        <v>3895</v>
+      </c>
+      <c r="B1617" s="4" t="s">
+        <v>3710</v>
+      </c>
+      <c r="C1617" s="4" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D1617" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1617" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1618" s="4" t="s">
+        <v>3896</v>
+      </c>
+      <c r="B1618" s="4" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C1618" s="4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D1618" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1618" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1619" s="4" t="s">
+        <v>3897</v>
+      </c>
+      <c r="B1619" s="4" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C1619" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="D1619" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1619" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1620" s="4" t="s">
+        <v>3898</v>
+      </c>
+      <c r="B1620" s="4" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C1620" s="4" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D1620" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1620" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1621" s="4" t="s">
+        <v>3899</v>
+      </c>
+      <c r="B1621" s="4" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C1621" s="4" t="s">
+        <v>3142</v>
+      </c>
+      <c r="D1621" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1621" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1622" s="4" t="s">
+        <v>3900</v>
+      </c>
+      <c r="B1622" s="4" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C1622" s="4" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D1622" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1622" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1623" s="4" t="s">
+        <v>3901</v>
+      </c>
+      <c r="B1623" s="4" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C1623" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="D1623" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1623" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1624" s="4" t="s">
+        <v>3902</v>
+      </c>
+      <c r="B1624" s="4" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C1624" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="D1624" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1624" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1625" s="4" t="s">
+        <v>3903</v>
+      </c>
+      <c r="B1625" s="4" t="s">
+        <v>3711</v>
+      </c>
+      <c r="C1625" s="4" t="s">
+        <v>2875</v>
+      </c>
+      <c r="D1625" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1625" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1626" s="4" t="s">
+        <v>3904</v>
+      </c>
+      <c r="B1626" s="4" t="s">
+        <v>3711</v>
+      </c>
+      <c r="C1626" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="D1626" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1626" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1627" s="4" t="s">
+        <v>3905</v>
+      </c>
+      <c r="B1627" s="4" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C1627" s="4" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D1627" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1627" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1628" s="4" t="s">
+        <v>3906</v>
+      </c>
+      <c r="B1628" s="4" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C1628" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="D1628" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1628" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1629" s="4" t="s">
+        <v>3904</v>
+      </c>
+      <c r="B1629" s="4" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C1629" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="D1629" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1629" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1630" s="4" t="s">
+        <v>3907</v>
+      </c>
+      <c r="B1630" s="4" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C1630" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="D1630" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1630" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1631" s="4" t="s">
+        <v>3814</v>
+      </c>
+      <c r="B1631" s="4" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C1631" s="4" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D1631" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1631" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1632" s="4" t="s">
+        <v>3908</v>
+      </c>
+      <c r="B1632" s="4" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C1632" s="4" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D1632" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1632" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1633" s="4" t="s">
+        <v>3900</v>
+      </c>
+      <c r="B1633" s="4" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C1633" s="4" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D1633" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1633" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1634" s="4" t="s">
+        <v>3909</v>
+      </c>
+      <c r="B1634" s="4" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C1634" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="D1634" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1634" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1635" s="4" t="s">
+        <v>3827</v>
+      </c>
+      <c r="B1635" s="4" t="s">
+        <v>3712</v>
+      </c>
+      <c r="C1635" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="D1635" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1635" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1636" s="4" t="s">
+        <v>3910</v>
+      </c>
+      <c r="B1636" s="4" t="s">
+        <v>3712</v>
+      </c>
+      <c r="C1636" s="4" t="s">
+        <v>3713</v>
+      </c>
+      <c r="D1636" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1636" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1637" s="4" t="s">
+        <v>3911</v>
+      </c>
+      <c r="B1637" s="4" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C1637" s="4" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D1637" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1637" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1638" s="4" t="s">
+        <v>3912</v>
+      </c>
+      <c r="B1638" s="4" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C1638" s="4" t="s">
+        <v>3183</v>
+      </c>
+      <c r="D1638" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1638" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1639" s="4" t="s">
+        <v>3913</v>
+      </c>
+      <c r="B1639" s="4" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C1639" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="D1639" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1639" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1640" s="4" t="s">
+        <v>3914</v>
+      </c>
+      <c r="B1640" s="4" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C1640" s="4" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D1640" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1640" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1641" s="4" t="s">
+        <v>3915</v>
+      </c>
+      <c r="B1641" s="4" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C1641" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D1641" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1641" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1642" s="4" t="s">
+        <v>3916</v>
+      </c>
+      <c r="B1642" s="4" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C1642" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="D1642" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1642" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1643" s="4" t="s">
+        <v>3917</v>
+      </c>
+      <c r="B1643" s="4" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C1643" s="4" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1643" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1643" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1644" s="4" t="s">
+        <v>3918</v>
+      </c>
+      <c r="B1644" s="4" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C1644" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="D1644" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1644" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1645" s="4" t="s">
+        <v>3919</v>
+      </c>
+      <c r="B1645" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C1645" s="4" t="s">
+        <v>3104</v>
+      </c>
+      <c r="D1645" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1645" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1646" s="4" t="s">
+        <v>3920</v>
+      </c>
+      <c r="B1646" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C1646" s="4" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D1646" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1646" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1647" s="4" t="s">
+        <v>3921</v>
+      </c>
+      <c r="B1647" s="4" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C1647" s="4" t="s">
+        <v>3714</v>
+      </c>
+      <c r="D1647" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1647" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1648" s="4" t="s">
+        <v>3922</v>
+      </c>
+      <c r="B1648" s="4" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C1648" s="4" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D1648" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1648" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1649" s="4" t="s">
+        <v>3923</v>
+      </c>
+      <c r="B1649" s="4" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C1649" s="4" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D1649" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1649" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1650" s="4" t="s">
+        <v>3828</v>
+      </c>
+      <c r="B1650" s="4" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C1650" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="D1650" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1650" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1651" s="4" t="s">
+        <v>3924</v>
+      </c>
+      <c r="B1651" s="4" t="s">
+        <v>3715</v>
+      </c>
+      <c r="C1651" s="4" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D1651" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1651" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1652" s="4" t="s">
+        <v>3925</v>
+      </c>
+      <c r="B1652" s="4" t="s">
+        <v>3715</v>
+      </c>
+      <c r="C1652" s="4" t="s">
+        <v>3106</v>
+      </c>
+      <c r="D1652" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1652" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1653" s="4" t="s">
+        <v>3926</v>
+      </c>
+      <c r="B1653" s="4" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C1653" s="4" t="s">
+        <v>3716</v>
+      </c>
+      <c r="D1653" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1653" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1654" s="4" t="s">
+        <v>3927</v>
+      </c>
+      <c r="B1654" s="4" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C1654" s="4" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D1654" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1654" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1655" s="4" t="s">
+        <v>3928</v>
+      </c>
+      <c r="B1655" s="4" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C1655" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="D1655" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1655" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1656" s="4" t="s">
+        <v>3929</v>
+      </c>
+      <c r="B1656" s="4" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C1656" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="D1656" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1656" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1657" s="4" t="s">
+        <v>3930</v>
+      </c>
+      <c r="B1657" s="4" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C1657" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="D1657" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1657" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1658" s="4" t="s">
+        <v>3931</v>
+      </c>
+      <c r="B1658" s="4" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C1658" s="4" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D1658" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1658" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1659" s="4" t="s">
+        <v>3932</v>
+      </c>
+      <c r="B1659" s="4" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C1659" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="D1659" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1659" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1660" s="4" t="s">
+        <v>3933</v>
+      </c>
+      <c r="B1660" s="4" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C1660" s="4" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D1660" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1660" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1661" s="4" t="s">
+        <v>3934</v>
+      </c>
+      <c r="B1661" s="4" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C1661" s="4" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D1661" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1661" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1662" s="4" t="s">
+        <v>3935</v>
+      </c>
+      <c r="B1662" s="4" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C1662" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="D1662" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1662" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1663" s="4" t="s">
+        <v>3936</v>
+      </c>
+      <c r="B1663" s="4" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C1663" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="D1663" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1663" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1664" s="4" t="s">
+        <v>3937</v>
+      </c>
+      <c r="B1664" s="4" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C1664" s="4" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D1664" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1664" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1665" s="4" t="s">
+        <v>3938</v>
+      </c>
+      <c r="B1665" s="4" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C1665" s="4" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D1665" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1665" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1666" s="4" t="s">
+        <v>3939</v>
+      </c>
+      <c r="B1666" s="4" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C1666" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="D1666" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1666" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1667" s="4" t="s">
+        <v>3940</v>
+      </c>
+      <c r="B1667" s="4" t="s">
+        <v>3717</v>
+      </c>
+      <c r="C1667" s="4" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D1667" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1667" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1668" s="4" t="s">
+        <v>3941</v>
+      </c>
+      <c r="B1668" s="4" t="s">
+        <v>3717</v>
+      </c>
+      <c r="C1668" s="4" t="s">
+        <v>3718</v>
+      </c>
+      <c r="D1668" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1668" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1669" s="4" t="s">
+        <v>3942</v>
+      </c>
+      <c r="B1669" s="4" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C1669" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="D1669" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1669" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1670" s="4" t="s">
+        <v>3943</v>
+      </c>
+      <c r="B1670" s="4" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C1670" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="D1670" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1670" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1671" s="4" t="s">
+        <v>3944</v>
+      </c>
+      <c r="B1671" s="4" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C1671" s="4" t="s">
+        <v>3720</v>
+      </c>
+      <c r="D1671" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1671" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1672" s="4" t="s">
+        <v>3945</v>
+      </c>
+      <c r="B1672" s="4" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C1672" s="4" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D1672" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1672" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1673" s="4" t="s">
+        <v>3946</v>
+      </c>
+      <c r="B1673" s="4" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C1673" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="D1673" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1673" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1674" s="4" t="s">
+        <v>3947</v>
+      </c>
+      <c r="B1674" s="4" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C1674" s="4" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D1674" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1674" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1675" s="4" t="s">
+        <v>3948</v>
+      </c>
+      <c r="B1675" s="4" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C1675" s="4" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D1675" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1675" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1676" s="4" t="s">
+        <v>3949</v>
+      </c>
+      <c r="B1676" s="4" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C1676" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="D1676" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1676" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1677" s="4" t="s">
+        <v>3950</v>
+      </c>
+      <c r="B1677" s="4" t="s">
+        <v>3721</v>
+      </c>
+      <c r="C1677" s="4" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D1677" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1677" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1678" s="4" t="s">
+        <v>3951</v>
+      </c>
+      <c r="B1678" s="4" t="s">
+        <v>3721</v>
+      </c>
+      <c r="C1678" s="4" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D1678" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1678" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1679" s="4" t="s">
+        <v>3952</v>
+      </c>
+      <c r="B1679" s="4" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C1679" s="4" t="s">
+        <v>3144</v>
+      </c>
+      <c r="D1679" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1679" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1680" s="4" t="s">
+        <v>3953</v>
+      </c>
+      <c r="B1680" s="4" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C1680" s="4" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D1680" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1680" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1681" s="4" t="s">
+        <v>3950</v>
+      </c>
+      <c r="B1681" s="4" t="s">
+        <v>3722</v>
+      </c>
+      <c r="C1681" s="4" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D1681" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1681" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1682" s="4" t="s">
+        <v>3954</v>
+      </c>
+      <c r="B1682" s="4" t="s">
+        <v>3722</v>
+      </c>
+      <c r="C1682" s="4" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D1682" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1682" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1683" s="4" t="s">
+        <v>3955</v>
+      </c>
+      <c r="B1683" s="4" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C1683" s="4" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D1683" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1683" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1684" s="4" t="s">
+        <v>3956</v>
+      </c>
+      <c r="B1684" s="4" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C1684" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="D1684" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1684" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1685" s="4" t="s">
+        <v>3954</v>
+      </c>
+      <c r="B1685" s="4" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C1685" s="4" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D1685" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1685" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1686" s="4" t="s">
+        <v>3957</v>
+      </c>
+      <c r="B1686" s="4" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C1686" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="D1686" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1686" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1687" s="4" t="s">
+        <v>3958</v>
+      </c>
+      <c r="B1687" s="4" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C1687" s="4" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D1687" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1687" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1688" s="4" t="s">
+        <v>3959</v>
+      </c>
+      <c r="B1688" s="4" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C1688" s="4" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D1688" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1688" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1689" s="4" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B1689" s="4" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C1689" s="4" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D1689" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1689" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1690" s="4" t="s">
+        <v>3961</v>
+      </c>
+      <c r="B1690" s="4" t="s">
+        <v>3723</v>
+      </c>
+      <c r="C1690" s="4" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D1690" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1690" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1691" s="4" t="s">
+        <v>3962</v>
+      </c>
+      <c r="B1691" s="4" t="s">
+        <v>3723</v>
+      </c>
+      <c r="C1691" s="4" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D1691" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1691" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1692" s="4" t="s">
+        <v>3963</v>
+      </c>
+      <c r="B1692" s="4" t="s">
+        <v>3724</v>
+      </c>
+      <c r="C1692" s="4" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D1692" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1692" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1693" s="4" t="s">
+        <v>3943</v>
+      </c>
+      <c r="B1693" s="4" t="s">
+        <v>3724</v>
+      </c>
+      <c r="C1693" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="D1693" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1693" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1694" s="4" t="s">
+        <v>3942</v>
+      </c>
+      <c r="B1694" s="4" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C1694" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="D1694" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1694" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1695" s="4" t="s">
+        <v>3955</v>
+      </c>
+      <c r="B1695" s="4" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C1695" s="4" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D1695" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1695" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1696" s="4" t="s">
+        <v>3964</v>
+      </c>
+      <c r="B1696" s="4" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C1696" s="4" t="s">
+        <v>3725</v>
+      </c>
+      <c r="D1696" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1696" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1697" s="4" t="s">
+        <v>3965</v>
+      </c>
+      <c r="B1697" s="4" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C1697" s="4" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D1697" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1697" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1698" s="4" t="s">
+        <v>3966</v>
+      </c>
+      <c r="B1698" s="4" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C1698" s="4" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D1698" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1698" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1699" s="4" t="s">
+        <v>3967</v>
+      </c>
+      <c r="B1699" s="4" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C1699" s="4" t="s">
+        <v>3726</v>
+      </c>
+      <c r="D1699" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1699" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1700" s="4" t="s">
+        <v>3968</v>
+      </c>
+      <c r="B1700" s="4" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C1700" s="4" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D1700" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1700" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1701" s="4" t="s">
+        <v>3947</v>
+      </c>
+      <c r="B1701" s="4" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1701" s="4" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D1701" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1701" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1702" s="4" t="s">
+        <v>3940</v>
+      </c>
+      <c r="B1702" s="4" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1702" s="4" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D1702" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1702" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1703" s="4" t="s">
+        <v>3969</v>
+      </c>
+      <c r="B1703" s="4" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C1703" s="4" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D1703" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1703" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1704" s="4" t="s">
+        <v>3970</v>
+      </c>
+      <c r="B1704" s="4" t="s">
+        <v>3727</v>
+      </c>
+      <c r="C1704" s="4" t="s">
+        <v>3727</v>
+      </c>
+      <c r="D1704" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1704" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1705" s="4" t="s">
+        <v>3956</v>
+      </c>
+      <c r="B1705" s="4" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C1705" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="D1705" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1705" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1706" s="4" t="s">
+        <v>3948</v>
+      </c>
+      <c r="B1706" s="4" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C1706" s="4" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D1706" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1706" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1707" s="4" t="s">
+        <v>3971</v>
+      </c>
+      <c r="B1707" s="4" t="s">
+        <v>3729</v>
+      </c>
+      <c r="C1707" s="4" t="s">
+        <v>3728</v>
+      </c>
+      <c r="D1707" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1707" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1708" s="4" t="s">
+        <v>3972</v>
+      </c>
+      <c r="B1708" s="4" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C1708" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="D1708" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1708" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1709" s="4" t="s">
+        <v>3973</v>
+      </c>
+      <c r="B1709" s="4" t="s">
+        <v>3730</v>
+      </c>
+      <c r="C1709" s="4" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D1709" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1709" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1710" s="4" t="s">
+        <v>3974</v>
+      </c>
+      <c r="B1710" s="4" t="s">
+        <v>3730</v>
+      </c>
+      <c r="C1710" s="4" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D1710" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1710" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1711" s="4" t="s">
+        <v>3975</v>
+      </c>
+      <c r="B1711" s="4" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C1711" s="4" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D1711" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1711" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1712" s="4" t="s">
+        <v>3780</v>
+      </c>
+      <c r="B1712" s="4" t="s">
+        <v>3731</v>
+      </c>
+      <c r="C1712" s="4" t="s">
+        <v>3679</v>
+      </c>
+      <c r="D1712" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1712" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1713" s="4" t="s">
+        <v>3976</v>
+      </c>
+      <c r="B1713" s="4" t="s">
+        <v>3731</v>
+      </c>
+      <c r="C1713" s="4" t="s">
+        <v>3732</v>
+      </c>
+      <c r="D1713" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1713" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1714" s="4" t="s">
+        <v>3977</v>
+      </c>
+      <c r="B1714" s="4" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C1714" s="4" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D1714" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1714" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1715" s="4" t="s">
+        <v>3978</v>
+      </c>
+      <c r="B1715" s="4" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C1715" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="D1715" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1715" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1716" s="4" t="s">
+        <v>3979</v>
+      </c>
+      <c r="B1716" s="4" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C1716" s="4" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D1716" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1716" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1717" s="4" t="s">
+        <v>3980</v>
+      </c>
+      <c r="B1717" s="4" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C1717" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="D1717" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1717" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1718" s="4" t="s">
+        <v>3979</v>
+      </c>
+      <c r="B1718" s="4" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C1718" s="4" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D1718" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1718" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1719" s="4" t="s">
+        <v>3981</v>
+      </c>
+      <c r="B1719" s="4" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C1719" s="4" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D1719" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1719" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1720" s="4" t="s">
+        <v>3977</v>
+      </c>
+      <c r="B1720" s="4" t="s">
+        <v>3733</v>
+      </c>
+      <c r="C1720" s="4" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D1720" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1720" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1721" s="4" t="s">
+        <v>3973</v>
+      </c>
+      <c r="B1721" s="4" t="s">
+        <v>3733</v>
+      </c>
+      <c r="C1721" s="4" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D1721" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1721" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1722" s="4" t="s">
+        <v>3982</v>
+      </c>
+      <c r="B1722" s="4" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C1722" s="4" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D1722" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1722" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1723" s="4" t="s">
+        <v>3983</v>
+      </c>
+      <c r="B1723" s="4" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C1723" s="4" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D1723" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1723" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1724" s="4" t="s">
+        <v>3984</v>
+      </c>
+      <c r="B1724" s="4" t="s">
+        <v>3734</v>
+      </c>
+      <c r="C1724" s="4" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D1724" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1724" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1725" s="4" t="s">
+        <v>3985</v>
+      </c>
+      <c r="B1725" s="4" t="s">
+        <v>3734</v>
+      </c>
+      <c r="C1725" s="4" t="s">
+        <v>3190</v>
+      </c>
+      <c r="D1725" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1725" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1726" s="4" t="s">
+        <v>3957</v>
+      </c>
+      <c r="B1726" s="4" t="s">
+        <v>3735</v>
+      </c>
+      <c r="C1726" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="D1726" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1726" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1727" s="4" t="s">
+        <v>3986</v>
+      </c>
+      <c r="B1727" s="4" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C1727" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="D1727" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1727" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1728" s="4" t="s">
+        <v>3987</v>
+      </c>
+      <c r="B1728" s="4" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C1728" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="D1728" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1728" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1729" s="4" t="s">
+        <v>3988</v>
+      </c>
+      <c r="B1729" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C1729" s="4" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D1729" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1729" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1730" s="4" t="s">
+        <v>3989</v>
+      </c>
+      <c r="B1730" s="4" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C1730" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="D1730" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1730" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1731" s="4" t="s">
+        <v>3990</v>
+      </c>
+      <c r="B1731" s="4" t="s">
+        <v>3736</v>
+      </c>
+      <c r="C1731" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="D1731" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1731" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1732" s="4" t="s">
+        <v>3991</v>
+      </c>
+      <c r="B1732" s="4" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C1732" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="D1732" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1732" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1733" s="4" t="s">
+        <v>3992</v>
+      </c>
+      <c r="B1733" s="4" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C1733" s="4" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D1733" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1733" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1734" s="4" t="s">
+        <v>3993</v>
+      </c>
+      <c r="B1734" s="4" t="s">
+        <v>3737</v>
+      </c>
+      <c r="C1734" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="D1734" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1734" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1735" s="4" t="s">
+        <v>3994</v>
+      </c>
+      <c r="B1735" s="4" t="s">
+        <v>3738</v>
+      </c>
+      <c r="C1735" s="4" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D1735" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1735" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1736" s="4" t="s">
+        <v>3995</v>
+      </c>
+      <c r="B1736" s="4" t="s">
+        <v>3738</v>
+      </c>
+      <c r="C1736" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="D1736" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1736" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1737" s="4" t="s">
+        <v>3994</v>
+      </c>
+      <c r="B1737" s="4" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C1737" s="4" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D1737" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1737" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1738" s="4" t="s">
+        <v>3996</v>
+      </c>
+      <c r="B1738" s="4" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C1738" s="4" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D1738" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1738" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1739" s="4" t="s">
+        <v>3997</v>
+      </c>
+      <c r="B1739" s="4" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C1739" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="D1739" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1739" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1740" s="4" t="s">
+        <v>3998</v>
+      </c>
+      <c r="B1740" s="4" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C1740" s="4" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D1740" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1740" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1741" s="4" t="s">
+        <v>3992</v>
+      </c>
+      <c r="B1741" s="4" t="s">
+        <v>3739</v>
+      </c>
+      <c r="C1741" s="4" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D1741" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1741" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1742" s="4" t="s">
+        <v>3999</v>
+      </c>
+      <c r="B1742" s="4" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C1742" s="4" t="s">
+        <v>3229</v>
+      </c>
+      <c r="D1742" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1742" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1743" s="4" t="s">
+        <v>4000</v>
+      </c>
+      <c r="B1743" s="4" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C1743" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="D1743" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1743" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1744" s="4" t="s">
+        <v>4001</v>
+      </c>
+      <c r="B1744" s="4" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C1744" s="4" t="s">
+        <v>3076</v>
+      </c>
+      <c r="D1744" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1744" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1745" s="4" t="s">
+        <v>4002</v>
+      </c>
+      <c r="B1745" s="4" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C1745" s="4" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D1745" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1745" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1746" s="4" t="s">
+        <v>4003</v>
+      </c>
+      <c r="B1746" s="4" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C1746" s="4" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D1746" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1746" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1747" s="4" t="s">
+        <v>4004</v>
+      </c>
+      <c r="B1747" s="4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C1747" s="4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D1747" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1747" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1748" s="4" t="s">
+        <v>4005</v>
+      </c>
+      <c r="B1748" s="4" t="s">
+        <v>3740</v>
+      </c>
+      <c r="C1748" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D1748" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1748" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1749" s="4" t="s">
+        <v>4006</v>
+      </c>
+      <c r="B1749" s="4" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C1749" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="D1749" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1749" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1750" s="4" t="s">
+        <v>4007</v>
+      </c>
+      <c r="B1750" s="4" t="s">
+        <v>3741</v>
+      </c>
+      <c r="C1750" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="D1750" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1750" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1751" s="4" t="s">
+        <v>4008</v>
+      </c>
+      <c r="B1751" s="4" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C1751" s="4" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D1751" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1751" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1752" s="4" t="s">
+        <v>3890</v>
+      </c>
+      <c r="B1752" s="4" t="s">
+        <v>3742</v>
+      </c>
+      <c r="C1752" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D1752" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1752" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1753" s="4" t="s">
+        <v>3791</v>
+      </c>
+      <c r="B1753" s="4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C1753" s="4" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D1753" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1753" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1754" s="4" t="s">
+        <v>4009</v>
+      </c>
+      <c r="B1754" s="4" t="s">
+        <v>3743</v>
+      </c>
+      <c r="C1754" s="4" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D1754" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1754" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1755" s="4" t="s">
+        <v>4010</v>
+      </c>
+      <c r="B1755" s="4" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C1755" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="D1755" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1755" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1756" s="4" t="s">
+        <v>4011</v>
+      </c>
+      <c r="B1756" s="4" t="s">
+        <v>3744</v>
+      </c>
+      <c r="C1756" s="4" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D1756" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1756" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1757" s="4" t="s">
+        <v>4012</v>
+      </c>
+      <c r="B1757" s="4" t="s">
+        <v>3744</v>
+      </c>
+      <c r="C1757" s="4" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D1757" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1757" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1758" s="4" t="s">
+        <v>4013</v>
+      </c>
+      <c r="B1758" s="4" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C1758" s="4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D1758" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1758" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1759" s="4" t="s">
+        <v>4014</v>
+      </c>
+      <c r="B1759" s="4" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C1759" s="4" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D1759" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1759" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1760" s="4" t="s">
+        <v>4015</v>
+      </c>
+      <c r="B1760" s="4" t="s">
+        <v>3745</v>
+      </c>
+      <c r="C1760" s="4" t="s">
+        <v>2926</v>
+      </c>
+      <c r="D1760" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1760" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1761" s="4" t="s">
+        <v>4016</v>
+      </c>
+      <c r="B1761" s="4" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C1761" s="4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D1761" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1761" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1762" s="4" t="s">
+        <v>4017</v>
+      </c>
+      <c r="B1762" s="4" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C1762" s="4" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D1762" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1762" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1763" s="4" t="s">
+        <v>4018</v>
+      </c>
+      <c r="B1763" s="4" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C1763" s="4" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D1763" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1763" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1764" s="4" t="s">
+        <v>4019</v>
+      </c>
+      <c r="B1764" s="4" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C1764" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="D1764" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1764" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1765" s="4" t="s">
+        <v>4020</v>
+      </c>
+      <c r="B1765" s="4" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C1765" s="4" t="s">
+        <v>2866</v>
+      </c>
+      <c r="D1765" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1765" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1766" s="4" t="s">
+        <v>4021</v>
+      </c>
+      <c r="B1766" s="4" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C1766" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="D1766" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1766" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1767" s="4" t="s">
+        <v>4022</v>
+      </c>
+      <c r="B1767" s="4" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C1767" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="D1767" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1767" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1768" s="4" t="s">
+        <v>4023</v>
+      </c>
+      <c r="B1768" s="4" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C1768" s="4" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D1768" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1768" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1769" s="4" t="s">
+        <v>4024</v>
+      </c>
+      <c r="B1769" s="4" t="s">
+        <v>3746</v>
+      </c>
+      <c r="C1769" s="4" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D1769" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1769" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1770" s="4" t="s">
+        <v>4025</v>
+      </c>
+      <c r="B1770" s="4" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C1770" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="D1770" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1770" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1771" s="4" t="s">
+        <v>4026</v>
+      </c>
+      <c r="B1771" s="4" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C1771" s="4" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D1771" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1771" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1772" s="4" t="s">
+        <v>4023</v>
+      </c>
+      <c r="B1772" s="4" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C1772" s="4" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D1772" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1772" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1773" s="4" t="s">
+        <v>3862</v>
+      </c>
+      <c r="B1773" s="4" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C1773" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="D1773" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1773" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1774" s="4" t="s">
+        <v>4027</v>
+      </c>
+      <c r="B1774" s="4" t="s">
+        <v>3747</v>
+      </c>
+      <c r="C1774" s="4" t="s">
+        <v>3747</v>
+      </c>
+      <c r="D1774" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1774" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1775" s="4" t="s">
+        <v>4016</v>
+      </c>
+      <c r="B1775" s="4" t="s">
+        <v>3748</v>
+      </c>
+      <c r="C1775" s="4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D1775" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1775" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1776" s="4" t="s">
+        <v>4028</v>
+      </c>
+      <c r="B1776" s="4" t="s">
+        <v>3748</v>
+      </c>
+      <c r="C1776" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="D1776" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1776" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1777" s="4" t="s">
+        <v>4026</v>
+      </c>
+      <c r="B1777" s="4" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C1777" s="4" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D1777" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1777" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1778" s="4" t="s">
+        <v>4029</v>
+      </c>
+      <c r="B1778" s="4" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C1778" s="4" t="s">
+        <v>2990</v>
+      </c>
+      <c r="D1778" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1778" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1779" s="4" t="s">
+        <v>4013</v>
+      </c>
+      <c r="B1779" s="4" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C1779" s="4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D1779" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1779" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1780" s="4" t="s">
+        <v>3849</v>
+      </c>
+      <c r="B1780" s="4" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C1780" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D1780" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1780" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1781" s="4" t="s">
+        <v>4030</v>
+      </c>
+      <c r="B1781" s="4" t="s">
+        <v>3749</v>
+      </c>
+      <c r="C1781" s="4" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D1781" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1781" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1782" s="4" t="s">
+        <v>4025</v>
+      </c>
+      <c r="B1782" s="4" t="s">
+        <v>3749</v>
+      </c>
+      <c r="C1782" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="D1782" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1782" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1783" s="4" t="s">
+        <v>4019</v>
+      </c>
+      <c r="B1783" s="4" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C1783" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="D1783" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1783" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1784" s="4" t="s">
+        <v>4031</v>
+      </c>
+      <c r="B1784" s="4" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C1784" s="4" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D1784" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1784" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1785" s="4" t="s">
+        <v>4032</v>
+      </c>
+      <c r="B1785" s="4" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C1785" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="D1785" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1785" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1786" s="4" t="s">
+        <v>4033</v>
+      </c>
+      <c r="B1786" s="4" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C1786" s="4" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D1786" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1786" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1787" s="4" t="s">
+        <v>4021</v>
+      </c>
+      <c r="B1787" s="4" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C1787" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="D1787" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1787" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1788" s="4" t="s">
+        <v>4034</v>
+      </c>
+      <c r="B1788" s="4" t="s">
+        <v>3750</v>
+      </c>
+      <c r="C1788" s="4" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D1788" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1788" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1789" s="4" t="s">
+        <v>3920</v>
+      </c>
+      <c r="B1789" s="4" t="s">
+        <v>3751</v>
+      </c>
+      <c r="C1789" s="4" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D1789" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1789" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1790" s="4" t="s">
+        <v>3918</v>
+      </c>
+      <c r="B1790" s="4" t="s">
+        <v>3751</v>
+      </c>
+      <c r="C1790" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="D1790" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1790" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1791" s="4" t="s">
+        <v>3934</v>
+      </c>
+      <c r="B1791" s="4" t="s">
+        <v>3752</v>
+      </c>
+      <c r="C1791" s="4" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D1791" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1791" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1792" s="4" t="s">
+        <v>4035</v>
+      </c>
+      <c r="B1792" s="4" t="s">
+        <v>3752</v>
+      </c>
+      <c r="C1792" s="4" t="s">
+        <v>3179</v>
+      </c>
+      <c r="D1792" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1792" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1793" s="4" t="s">
+        <v>4036</v>
+      </c>
+      <c r="B1793" s="4" t="s">
+        <v>3753</v>
+      </c>
+      <c r="C1793" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="D1793" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1793" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1794" s="4" t="s">
+        <v>4037</v>
+      </c>
+      <c r="B1794" s="4" t="s">
+        <v>3753</v>
+      </c>
+      <c r="C1794" s="4" t="s">
+        <v>3754</v>
+      </c>
+      <c r="D1794" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1794" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1795" s="4" t="s">
+        <v>4038</v>
+      </c>
+      <c r="B1795" s="4" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C1795" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="D1795" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1795" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1796" s="4" t="s">
+        <v>4014</v>
+      </c>
+      <c r="B1796" s="4" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C1796" s="4" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D1796" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1796" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1797" s="4" t="s">
+        <v>4039</v>
+      </c>
+      <c r="B1797" s="4" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C1797" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="D1797" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1797" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1798" s="4" t="s">
+        <v>4028</v>
+      </c>
+      <c r="B1798" s="4" t="s">
+        <v>3755</v>
+      </c>
+      <c r="C1798" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="D1798" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1798" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1799" s="4" t="s">
+        <v>4040</v>
+      </c>
+      <c r="B1799" s="4" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C1799" s="4" t="s">
+        <v>2867</v>
+      </c>
+      <c r="D1799" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1799" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1800" s="4" t="s">
+        <v>4041</v>
+      </c>
+      <c r="B1800" s="4" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C1800" s="4" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D1800" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1800" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1801" s="4" t="s">
+        <v>4042</v>
+      </c>
+      <c r="B1801" s="4" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C1801" s="4" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D1801" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1801" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1802" s="4" t="s">
+        <v>4043</v>
+      </c>
+      <c r="B1802" s="4" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C1802" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="D1802" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1802" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1803" s="4" t="s">
+        <v>3834</v>
+      </c>
+      <c r="B1803" s="4" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C1803" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="D1803" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1803" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1804" s="4" t="s">
+        <v>4041</v>
+      </c>
+      <c r="B1804" s="4" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C1804" s="4" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D1804" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1804" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1805" s="4" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B1805" s="4" t="s">
+        <v>3756</v>
+      </c>
+      <c r="C1805" s="4" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D1805" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1805" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1806" s="4" t="s">
+        <v>4045</v>
+      </c>
+      <c r="B1806" s="4" t="s">
+        <v>3757</v>
+      </c>
+      <c r="C1806" s="4" t="s">
+        <v>3245</v>
+      </c>
+      <c r="D1806" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1806" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1807" s="4" t="s">
+        <v>4046</v>
+      </c>
+      <c r="B1807" s="4" t="s">
+        <v>3757</v>
+      </c>
+      <c r="C1807" s="4" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D1807" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1807" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1808" s="4" t="s">
+        <v>3810</v>
+      </c>
+      <c r="B1808" s="4" t="s">
+        <v>3758</v>
+      </c>
+      <c r="C1808" s="4" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D1808" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1808" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1809" s="4" t="s">
+        <v>3962</v>
+      </c>
+      <c r="B1809" s="4" t="s">
+        <v>3759</v>
+      </c>
+      <c r="C1809" s="4" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D1809" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1809" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1810" s="4" t="s">
+        <v>4047</v>
+      </c>
+      <c r="B1810" s="4" t="s">
+        <v>3760</v>
+      </c>
+      <c r="C1810" s="4" t="s">
+        <v>2885</v>
+      </c>
+      <c r="D1810" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1810" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1811" s="4" t="s">
+        <v>4048</v>
+      </c>
+      <c r="B1811" s="4" t="s">
+        <v>3760</v>
+      </c>
+      <c r="C1811" s="4" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D1811" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1811" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1812" s="4" t="s">
+        <v>4049</v>
+      </c>
+      <c r="B1812" s="4" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C1812" s="4" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D1812" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1812" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1813" s="4" t="s">
+        <v>4050</v>
+      </c>
+      <c r="B1813" s="4" t="s">
+        <v>3761</v>
+      </c>
+      <c r="C1813" s="4" t="s">
+        <v>868</v>
+      </c>
+      <c r="D1813" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1813" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1814" s="4" t="s">
+        <v>4051</v>
+      </c>
+      <c r="B1814" s="4" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C1814" s="4" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D1814" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1814" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1815" s="4" t="s">
+        <v>4052</v>
+      </c>
+      <c r="B1815" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C1815" s="4" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D1815" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1815" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1816" s="4" t="s">
+        <v>4053</v>
+      </c>
+      <c r="B1816" s="4" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C1816" s="4" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D1816" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1816" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1817" s="4" t="s">
+        <v>4054</v>
+      </c>
+      <c r="B1817" s="4" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C1817" s="4" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D1817" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1817" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1818" s="4" t="s">
+        <v>4055</v>
+      </c>
+      <c r="B1818" s="4" t="s">
+        <v>3762</v>
+      </c>
+      <c r="C1818" s="4" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D1818" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1818" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1819" s="4" t="s">
+        <v>4056</v>
+      </c>
+      <c r="B1819" s="4" t="s">
+        <v>3762</v>
+      </c>
+      <c r="C1819" s="4" t="s">
+        <v>866</v>
+      </c>
+      <c r="D1819" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1819" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1820" s="4" t="s">
+        <v>4057</v>
+      </c>
+      <c r="B1820" s="4" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C1820" s="4" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D1820" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1820" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1821" s="4" t="s">
+        <v>4055</v>
+      </c>
+      <c r="B1821" s="4" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C1821" s="4" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D1821" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1821" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1822" s="4" t="s">
+        <v>4058</v>
+      </c>
+      <c r="B1822" s="4" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C1822" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="D1822" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1822" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1823" s="4" t="s">
+        <v>4012</v>
+      </c>
+      <c r="B1823" s="4" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C1823" s="4" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D1823" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1823" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1824" s="4" t="s">
+        <v>4056</v>
+      </c>
+      <c r="B1824" s="4" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C1824" s="4" t="s">
+        <v>866</v>
+      </c>
+      <c r="D1824" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1824" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1825" s="4" t="s">
+        <v>4059</v>
+      </c>
+      <c r="B1825" s="4" t="s">
+        <v>3763</v>
+      </c>
+      <c r="C1825" s="4" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D1825" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1825" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1826" s="4" t="s">
+        <v>4060</v>
+      </c>
+      <c r="B1826" s="4" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C1826" s="4" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D1826" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1826" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1827" s="4" t="s">
+        <v>4061</v>
+      </c>
+      <c r="B1827" s="4" t="s">
+        <v>3764</v>
+      </c>
+      <c r="C1827" s="4" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D1827" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1827" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1828" s="4" t="s">
+        <v>3786</v>
+      </c>
+      <c r="B1828" s="4" t="s">
+        <v>3765</v>
+      </c>
+      <c r="C1828" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D1828" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1828" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1829" s="4" t="s">
+        <v>4062</v>
+      </c>
+      <c r="B1829" s="4" t="s">
+        <v>3765</v>
+      </c>
+      <c r="C1829" s="4" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D1829" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1829" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1830" s="4" t="s">
+        <v>4063</v>
+      </c>
+      <c r="B1830" s="4" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C1830" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="D1830" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1830" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1831" s="4" t="s">
+        <v>4062</v>
+      </c>
+      <c r="B1831" s="4" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C1831" s="4" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D1831" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1831" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1832" s="4" t="s">
+        <v>4064</v>
+      </c>
+      <c r="B1832" s="4" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C1832" s="4" t="s">
+        <v>3247</v>
+      </c>
+      <c r="D1832" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1832" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1833" s="4" t="s">
+        <v>4065</v>
+      </c>
+      <c r="B1833" s="4" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C1833" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="D1833" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1833" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1834" s="4" t="s">
+        <v>4066</v>
+      </c>
+      <c r="B1834" s="4" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C1834" s="4" t="s">
+        <v>3153</v>
+      </c>
+      <c r="D1834" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1834" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1835" s="4" t="s">
+        <v>4067</v>
+      </c>
+      <c r="B1835" s="4" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C1835" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="D1835" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1835" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1836" s="4" t="s">
+        <v>4068</v>
+      </c>
+      <c r="B1836" s="4" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C1836" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="D1836" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1836" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1837" s="4" t="s">
+        <v>4069</v>
+      </c>
+      <c r="B1837" s="4" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C1837" s="4" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D1837" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1837" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1838" s="4" t="s">
+        <v>4070</v>
+      </c>
+      <c r="B1838" s="4" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C1838" s="4" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D1838" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1838" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1839" s="4" t="s">
+        <v>4069</v>
+      </c>
+      <c r="B1839" s="4" t="s">
+        <v>3766</v>
+      </c>
+      <c r="C1839" s="4" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D1839" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1839" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1840" s="4" t="s">
+        <v>4036</v>
+      </c>
+      <c r="B1840" s="4" t="s">
+        <v>3766</v>
+      </c>
+      <c r="C1840" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="D1840" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1840" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1841" s="4" t="s">
+        <v>4071</v>
+      </c>
+      <c r="B1841" s="4" t="s">
+        <v>3767</v>
+      </c>
+      <c r="C1841" s="4" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D1841" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1841" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1842" s="4" t="s">
+        <v>4072</v>
+      </c>
+      <c r="B1842" s="4" t="s">
+        <v>3767</v>
+      </c>
+      <c r="C1842" s="4" t="s">
+        <v>3768</v>
+      </c>
+      <c r="D1842" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1842" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1843" s="4" t="s">
+        <v>4073</v>
+      </c>
+      <c r="B1843" s="4" t="s">
+        <v>3769</v>
+      </c>
+      <c r="C1843" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="D1843" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1843" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1844" s="4" t="s">
+        <v>3817</v>
+      </c>
+      <c r="B1844" s="4" t="s">
+        <v>3770</v>
+      </c>
+      <c r="C1844" s="4" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D1844" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1844" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1845" s="4" t="s">
+        <v>4074</v>
+      </c>
+      <c r="B1845" s="4" t="s">
+        <v>3770</v>
+      </c>
+      <c r="C1845" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D1845" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1845" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1846" s="4" t="s">
+        <v>4075</v>
+      </c>
+      <c r="B1846" s="4" t="s">
+        <v>3771</v>
+      </c>
+      <c r="C1846" s="4" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D1846" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1846" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1847" s="4" t="s">
+        <v>4076</v>
+      </c>
+      <c r="B1847" s="4" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C1847" s="4" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D1847" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1847" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1848" s="4" t="s">
+        <v>4077</v>
+      </c>
+      <c r="B1848" s="4" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C1848" s="4" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D1848" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1848" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1849" s="4" t="s">
+        <v>4078</v>
+      </c>
+      <c r="B1849" s="4" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C1849" s="4" t="s">
+        <v>3772</v>
+      </c>
+      <c r="D1849" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1849" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1850" s="4" t="s">
+        <v>4079</v>
+      </c>
+      <c r="B1850" s="4" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C1850" s="4" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D1850" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1850" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1851" s="4" t="s">
+        <v>4080</v>
+      </c>
+      <c r="B1851" s="4" t="s">
+        <v>3773</v>
+      </c>
+      <c r="C1851" s="4" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D1851" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E1851" s="4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -37962,4 +45659,80 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4081</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4082</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4083</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4084</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4085</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4086</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4087</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4088</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4089</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4090</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/resources/Repository Setup.xlsx
+++ b/resources/Repository Setup.xlsx
@@ -13378,8 +13378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1851"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1824" workbookViewId="0">
-      <selection activeCell="B1741" sqref="B1741"/>
+    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
+      <selection activeCell="A241" sqref="A241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/resources/Repository Setup.xlsx
+++ b/resources/Repository Setup.xlsx
@@ -269,7 +269,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7587" uniqueCount="4094">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7591" uniqueCount="4096">
   <si>
     <t>identifier</t>
   </si>
@@ -12551,6 +12551,12 @@
   </si>
   <si>
     <t>TRANSLATION_BLOOMBERG_TICKER_EXCH</t>
+  </si>
+  <si>
+    <t>Bloomberg</t>
+  </si>
+  <si>
+    <t>Bloomberg LP</t>
   </si>
 </sst>
 </file>
@@ -13387,7 +13393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1853"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1048" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A1089" workbookViewId="0">
       <selection activeCell="D1079" sqref="D1079"/>
     </sheetView>
   </sheetViews>
@@ -45248,10 +45254,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45332,6 +45338,23 @@
         <v>35796</v>
       </c>
       <c r="F3" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4095</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4094</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="3">
+        <v>29587</v>
+      </c>
+      <c r="F4" t="s">
         <v>2644</v>
       </c>
     </row>

--- a/resources/Repository Setup.xlsx
+++ b/resources/Repository Setup.xlsx
@@ -14710,8 +14710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1062" workbookViewId="0">
-      <selection activeCell="D1096" sqref="D1096:E1096"/>
+    <sheetView tabSelected="1" topLeftCell="A234" workbookViewId="0">
+      <selection activeCell="A254" sqref="A254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/resources/Repository Setup.xlsx
+++ b/resources/Repository Setup.xlsx
@@ -14710,8 +14710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A234" workbookViewId="0">
-      <selection activeCell="A254" sqref="A254"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/resources/Repository Setup.xlsx
+++ b/resources/Repository Setup.xlsx
@@ -16000,8 +16000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2677" workbookViewId="0">
-      <selection activeCell="C2710" sqref="C2710"/>
+    <sheetView tabSelected="1" topLeftCell="A1037" workbookViewId="0">
+      <selection activeCell="E1070" sqref="E1070:E1076"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34200,7 +34200,7 @@
         <v>2144</v>
       </c>
       <c r="E1070" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1071" spans="1:5" x14ac:dyDescent="0.25">
@@ -34216,8 +34216,8 @@
       <c r="D1071" t="s">
         <v>2144</v>
       </c>
-      <c r="E1071" t="b">
-        <v>1</v>
+      <c r="E1071" s="25" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="1072" spans="1:5" x14ac:dyDescent="0.25">
@@ -34233,8 +34233,8 @@
       <c r="D1072" t="s">
         <v>2144</v>
       </c>
-      <c r="E1072" t="b">
-        <v>1</v>
+      <c r="E1072" s="25" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="1073" spans="1:5" x14ac:dyDescent="0.25">
@@ -34250,8 +34250,8 @@
       <c r="D1073" t="s">
         <v>2144</v>
       </c>
-      <c r="E1073" t="b">
-        <v>1</v>
+      <c r="E1073" s="25" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="1074" spans="1:5" x14ac:dyDescent="0.25">
@@ -34267,8 +34267,8 @@
       <c r="D1074" t="s">
         <v>2144</v>
       </c>
-      <c r="E1074" t="b">
-        <v>1</v>
+      <c r="E1074" s="25" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="1075" spans="1:5" x14ac:dyDescent="0.25">
@@ -34284,8 +34284,8 @@
       <c r="D1075" t="s">
         <v>2144</v>
       </c>
-      <c r="E1075" t="b">
-        <v>1</v>
+      <c r="E1075" s="25" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="1076" spans="1:5" x14ac:dyDescent="0.25">
@@ -34301,8 +34301,8 @@
       <c r="D1076" t="s">
         <v>2144</v>
       </c>
-      <c r="E1076" t="b">
-        <v>1</v>
+      <c r="E1076" s="25" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="1077" spans="1:5" x14ac:dyDescent="0.25">

--- a/resources/Repository Setup.xlsx
+++ b/resources/Repository Setup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="240" windowWidth="27795" windowHeight="12465" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="480" yWindow="240" windowWidth="27795" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Attributes" sheetId="1" r:id="rId1"/>
@@ -15927,8 +15927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3088"/>
   <sheetViews>
-    <sheetView topLeftCell="A1044" workbookViewId="0">
-      <selection activeCell="C1080" sqref="C1080"/>
+    <sheetView tabSelected="1" topLeftCell="A629" workbookViewId="0">
+      <selection activeCell="A644" sqref="A644"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -69683,7 +69683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/resources/Repository Setup.xlsx
+++ b/resources/Repository Setup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="240" windowWidth="27795" windowHeight="12465"/>
+    <workbookView xWindow="480" yWindow="240" windowWidth="27795" windowHeight="12465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Attributes" sheetId="1" r:id="rId1"/>
@@ -271,7 +271,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12606" uniqueCount="4933">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12610" uniqueCount="4935">
   <si>
     <t>identifier</t>
   </si>
@@ -15070,6 +15070,12 @@
   </si>
   <si>
     <t>FUND_TOTAL_ASSETS</t>
+  </si>
+  <si>
+    <t>FinaLE</t>
+  </si>
+  <si>
+    <t>FinaLE Engine</t>
   </si>
 </sst>
 </file>
@@ -15927,8 +15933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3088"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A629" workbookViewId="0">
-      <selection activeCell="A644" sqref="A644"/>
+    <sheetView topLeftCell="A1044" workbookViewId="0">
+      <selection activeCell="A1079" sqref="A1079"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -68783,10 +68789,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -68836,35 +68842,35 @@
         <v>2651</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2655</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2656</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="2" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>4934</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>4933</v>
+      </c>
+      <c r="C2" s="25" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="3">
-        <v>33604</v>
-      </c>
-      <c r="F2" t="s">
+        <v>41640</v>
+      </c>
+      <c r="F2" s="25" t="s">
         <v>2592</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2735</v>
+        <v>2655</v>
       </c>
       <c r="B3" t="s">
-        <v>2736</v>
+        <v>2656</v>
       </c>
       <c r="C3" t="s">
         <v>46</v>
       </c>
       <c r="D3" s="3">
-        <v>35796</v>
+        <v>33604</v>
       </c>
       <c r="F3" t="s">
         <v>2592</v>
@@ -68872,18 +68878,35 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4041</v>
+        <v>2735</v>
       </c>
       <c r="B4" t="s">
-        <v>4040</v>
+        <v>2736</v>
       </c>
       <c r="C4" t="s">
         <v>46</v>
       </c>
       <c r="D4" s="3">
+        <v>35796</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4041</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4040</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="3">
         <v>29587</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F5" t="s">
         <v>2592</v>
       </c>
     </row>

--- a/resources/Repository Setup.xlsx
+++ b/resources/Repository Setup.xlsx
@@ -15108,9 +15108,6 @@
     <t>fees_scheme</t>
   </si>
   <si>
-    <t>FEES_SCHEME_NOME</t>
-  </si>
-  <si>
     <t>HISTORY_COMPLETION_NONE</t>
   </si>
   <si>
@@ -15121,6 +15118,9 @@
   </si>
   <si>
     <t>leverage</t>
+  </si>
+  <si>
+    <t>FEES_SCHEME_NONE</t>
   </si>
 </sst>
 </file>
@@ -15979,7 +15979,7 @@
   <dimension ref="A1:E3095"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16180,7 +16180,7 @@
     </row>
     <row r="12" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>4945</v>
+        <v>4949</v>
       </c>
       <c r="B12" s="25" t="s">
         <v>4935</v>
@@ -16197,7 +16197,7 @@
     </row>
     <row r="13" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>4946</v>
+        <v>4945</v>
       </c>
       <c r="B13" s="25" t="s">
         <v>4935</v>
@@ -16206,7 +16206,7 @@
         <v>4935</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>4947</v>
+        <v>4946</v>
       </c>
       <c r="E13" s="25" t="b">
         <v>1</v>
@@ -16214,7 +16214,7 @@
     </row>
     <row r="14" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>4948</v>
+        <v>4947</v>
       </c>
       <c r="B14" s="25" t="s">
         <v>4935</v>
@@ -16223,7 +16223,7 @@
         <v>4935</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>4949</v>
+        <v>4948</v>
       </c>
       <c r="E14" s="25" t="b">
         <v>1</v>

--- a/resources/Repository Setup.xlsx
+++ b/resources/Repository Setup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="300" windowWidth="27795" windowHeight="12405"/>
+    <workbookView xWindow="480" yWindow="300" windowWidth="27795" windowHeight="12405" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Attributes" sheetId="1" r:id="rId1"/>
@@ -271,7 +271,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10954" uniqueCount="4543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10969" uniqueCount="4553">
   <si>
     <t>identifier</t>
   </si>
@@ -13900,6 +13900,36 @@
   </si>
   <si>
     <t>CONT_CURRENCY</t>
+  </si>
+  <si>
+    <t>cusip</t>
+  </si>
+  <si>
+    <t>ID_CUSIP</t>
+  </si>
+  <si>
+    <t>CPN</t>
+  </si>
+  <si>
+    <t>maturity_date</t>
+  </si>
+  <si>
+    <t>coupon_rate</t>
+  </si>
+  <si>
+    <t>MATURITY</t>
+  </si>
+  <si>
+    <t>IS_DAY_PAYER</t>
+  </si>
+  <si>
+    <t>coupon_daily</t>
+  </si>
+  <si>
+    <t>coupon_frequency</t>
+  </si>
+  <si>
+    <t>CPN_FREQ</t>
   </si>
 </sst>
 </file>
@@ -14757,8 +14787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2674"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2222" workbookViewId="0">
-      <selection activeCell="C2219" sqref="C2219"/>
+    <sheetView topLeftCell="A2202" workbookViewId="0">
+      <selection activeCell="C2257" sqref="C2257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -61143,10 +61173,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -61185,8 +61215,8 @@
       <c r="B2" t="s">
         <v>2101</v>
       </c>
-      <c r="C2" t="s">
-        <v>4039</v>
+      <c r="C2" s="25" t="s">
+        <v>49</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>1</v>
@@ -61206,7 +61236,7 @@
         <v>4481</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>4039</v>
+        <v>49</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>2</v>
@@ -61226,7 +61256,7 @@
         <v>2103</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>4039</v>
+        <v>49</v>
       </c>
       <c r="D4" s="25" t="s">
         <v>670</v>
@@ -61246,7 +61276,7 @@
         <v>4035</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>4039</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
         <v>2566</v>
@@ -61266,7 +61296,7 @@
         <v>2102</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>4039</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
         <v>2566</v>
@@ -61278,17 +61308,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4497</v>
-      </c>
-      <c r="B7" t="s">
-        <v>667</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4039</v>
-      </c>
-      <c r="D7" t="s">
+    <row r="7" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>4543</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>4544</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="25" t="s">
         <v>2566</v>
       </c>
       <c r="E7" s="25" t="b">
@@ -61298,18 +61328,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
-        <v>4504</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>2108</v>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4497</v>
+      </c>
+      <c r="B8" t="s">
+        <v>667</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>4039</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>4504</v>
+        <v>49</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2566</v>
       </c>
       <c r="E8" s="25" t="b">
         <v>0</v>
@@ -61320,16 +61350,16 @@
     </row>
     <row r="9" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>2120</v>
+        <v>4504</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>2107</v>
+        <v>2108</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>4039</v>
+        <v>49</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>2120</v>
+        <v>4504</v>
       </c>
       <c r="E9" s="25" t="b">
         <v>0</v>
@@ -61340,16 +61370,16 @@
     </row>
     <row r="10" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>4039</v>
+        <v>49</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="E10" s="25" t="b">
         <v>0</v>
@@ -61360,16 +61390,16 @@
     </row>
     <row r="11" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>599</v>
+        <v>2121</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>2111</v>
+        <v>2109</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>4039</v>
+        <v>49</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>599</v>
+        <v>2121</v>
       </c>
       <c r="E11" s="25" t="b">
         <v>0</v>
@@ -61378,15 +61408,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>4500</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2104</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4040</v>
+    <row r="12" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>599</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>2111</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>599</v>
       </c>
       <c r="E12" s="25" t="b">
         <v>0</v>
@@ -61397,13 +61430,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>4501</v>
+        <v>4500</v>
       </c>
       <c r="B13" t="s">
-        <v>2105</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>4040</v>
+        <v>2104</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4062</v>
       </c>
       <c r="E13" s="25" t="b">
         <v>0</v>
@@ -61414,16 +61447,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>4502</v>
+        <v>4501</v>
       </c>
       <c r="B14" t="s">
-        <v>2106</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4040</v>
+        <v>2105</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>4062</v>
       </c>
       <c r="E14" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="25" t="b">
         <v>1</v>
@@ -61431,13 +61464,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>2539</v>
+        <v>4502</v>
       </c>
       <c r="B15" t="s">
-        <v>2536</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4040</v>
+        <v>2106</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>4062</v>
       </c>
       <c r="E15" s="25" t="b">
         <v>1</v>
@@ -61448,16 +61481,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>4503</v>
+        <v>2539</v>
       </c>
       <c r="B16" t="s">
-        <v>2538</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4040</v>
+        <v>2536</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>4062</v>
       </c>
       <c r="E16" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="25" t="b">
         <v>1</v>
@@ -61465,21 +61498,103 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>2540</v>
+        <v>4503</v>
       </c>
       <c r="B17" t="s">
-        <v>2537</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4041</v>
-      </c>
-      <c r="D17" t="s">
-        <v>2540</v>
+        <v>2538</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>4062</v>
       </c>
       <c r="E17" s="25" t="b">
         <v>0</v>
       </c>
       <c r="F17" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2540</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2537</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4063</v>
+      </c>
+      <c r="E18" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>4547</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4545</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>4063</v>
+      </c>
+      <c r="E19" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>4546</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4548</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>4063</v>
+      </c>
+      <c r="E20" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>4550</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4549</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>4063</v>
+      </c>
+      <c r="E21" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>4551</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4552</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>4063</v>
+      </c>
+      <c r="E22" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="25" t="b">
         <v>1</v>
       </c>
     </row>

--- a/resources/Repository Setup.xlsx
+++ b/resources/Repository Setup.xlsx
@@ -14878,7 +14878,7 @@
   <dimension ref="A1:E2283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26:E31"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/resources/Repository Setup.xlsx
+++ b/resources/Repository Setup.xlsx
@@ -15291,8 +15291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2340"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/resources/Repository Setup.xlsx
+++ b/resources/Repository Setup.xlsx
@@ -267,6 +267,7 @@
     <definedName name="ZW" localSheetId="0">Attributes!$C$733</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 

--- a/resources/Repository Setup.xlsx
+++ b/resources/Repository Setup.xlsx
@@ -15376,7 +15376,7 @@
   <dimension ref="A1:E2352"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/resources/Repository Setup.xlsx
+++ b/resources/Repository Setup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="420" windowWidth="27795" windowHeight="12285"/>
+    <workbookView xWindow="480" yWindow="420" windowWidth="27795" windowHeight="12285" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Attributes" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="BloombergLookUp" sheetId="9" r:id="rId6"/>
     <sheet name="BloombergDataContainerMapping" sheetId="10" r:id="rId7"/>
     <sheet name="BloombergTrackContainerMapping" sheetId="11" r:id="rId8"/>
+    <sheet name="FieldLabel" sheetId="12" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="AD" localSheetId="0">Attributes!$C$493</definedName>
@@ -271,7 +272,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9684" uniqueCount="4749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9702" uniqueCount="4760">
   <si>
     <t>identifier</t>
   </si>
@@ -14518,6 +14519,39 @@
   </si>
   <si>
     <t>Custom list</t>
+  </si>
+  <si>
+    <t>status.type</t>
+  </si>
+  <si>
+    <t>country.name</t>
+  </si>
+  <si>
+    <t>currency.name</t>
+  </si>
+  <si>
+    <t>frequency.name</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>Status type</t>
+  </si>
+  <si>
+    <t>Inception date</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>langage</t>
+  </si>
+  <si>
+    <t>field_label</t>
   </si>
 </sst>
 </file>
@@ -15375,7 +15409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2352"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+    <sheetView topLeftCell="A83" workbookViewId="0">
       <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
@@ -56795,4 +56829,89 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4758</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4759</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4749</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4753</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4754</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2529</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>4753</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4755</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4750</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>4753</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4756</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4751</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>4753</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4051</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4752</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>4753</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4757</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/resources/Repository Setup.xlsx
+++ b/resources/Repository Setup.xlsx
@@ -272,7 +272,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9702" uniqueCount="4760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9747" uniqueCount="4784">
   <si>
     <t>identifier</t>
   </si>
@@ -14521,6 +14521,9 @@
     <t>Custom list</t>
   </si>
   <si>
+    <t>Status</t>
+  </si>
+  <si>
     <t>status.type</t>
   </si>
   <si>
@@ -14552,6 +14555,75 @@
   </si>
   <si>
     <t>field_label</t>
+  </si>
+  <si>
+    <t>attached_account.aliases</t>
+  </si>
+  <si>
+    <t>frequency_reference.name</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>owner.name</t>
+  </si>
+  <si>
+    <t>owner_role.name</t>
+  </si>
+  <si>
+    <t>parent_security</t>
+  </si>
+  <si>
+    <t>security_type.name</t>
+  </si>
+  <si>
+    <t>short_description</t>
+  </si>
+  <si>
+    <t>status.name</t>
+  </si>
+  <si>
+    <t>type.name</t>
+  </si>
+  <si>
+    <t>Alias</t>
+  </si>
+  <si>
+    <t>Closing date</t>
+  </si>
+  <si>
+    <t>Account aliases</t>
+  </si>
+  <si>
+    <t>Frequency reference</t>
+  </si>
+  <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>Market sector</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Owner role</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Security type</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
 </sst>
 </file>
@@ -56833,16 +56905,16 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -56850,21 +56922,21 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4758</v>
+        <v>4759</v>
       </c>
       <c r="C1" t="s">
-        <v>4759</v>
+        <v>4760</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4749</v>
+        <v>4750</v>
       </c>
       <c r="B2" t="s">
-        <v>4753</v>
+        <v>4754</v>
       </c>
       <c r="C2" t="s">
-        <v>4754</v>
+        <v>4755</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -56872,29 +56944,29 @@
         <v>2529</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>4753</v>
+        <v>4754</v>
       </c>
       <c r="C3" t="s">
-        <v>4755</v>
+        <v>4756</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4750</v>
+        <v>4751</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>4753</v>
+        <v>4754</v>
       </c>
       <c r="C4" t="s">
-        <v>4756</v>
+        <v>4757</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4751</v>
+        <v>4752</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>4753</v>
+        <v>4754</v>
       </c>
       <c r="C5" t="s">
         <v>4051</v>
@@ -56902,16 +56974,182 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4752</v>
+        <v>4753</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>4753</v>
+        <v>4754</v>
       </c>
       <c r="C6" t="s">
-        <v>4757</v>
+        <v>4758</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>4754</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4018</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>4754</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4771</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>2636</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>4754</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4772</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>4761</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>4754</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4773</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>4762</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>4754</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4774</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>4763</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>4754</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4775</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>2112</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>4754</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4776</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>4764</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>4754</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4777</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>4765</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>4754</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4778</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>4766</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>4754</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4779</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>2111</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>4754</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4780</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>4767</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>4754</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4781</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>4768</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>4754</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4782</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>4769</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>4754</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4749</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>4770</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>4754</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4783</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/resources/Repository Setup.xlsx
+++ b/resources/Repository Setup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="420" windowWidth="27795" windowHeight="12285" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="480" yWindow="420" windowWidth="27795" windowHeight="12285" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Attributes" sheetId="1" r:id="rId1"/>
@@ -272,7 +272,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9747" uniqueCount="4784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9756" uniqueCount="4789">
   <si>
     <t>identifier</t>
   </si>
@@ -14624,6 +14624,21 @@
   </si>
   <si>
     <t>Type</t>
+  </si>
+  <si>
+    <t>alias_type.name</t>
+  </si>
+  <si>
+    <t>Alias type</t>
+  </si>
+  <si>
+    <t>alias_value</t>
+  </si>
+  <si>
+    <t>alias_additional</t>
+  </si>
+  <si>
+    <t>Additional information</t>
   </si>
 </sst>
 </file>
@@ -15481,8 +15496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2352"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView topLeftCell="A344" workbookViewId="0">
+      <selection activeCell="B365" sqref="B365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56905,10 +56920,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57148,6 +57163,39 @@
         <v>4783</v>
       </c>
     </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>4784</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4754</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4785</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>4786</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4754</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4771</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>4787</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4754</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4788</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/resources/Repository Setup.xlsx
+++ b/resources/Repository Setup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="420" windowWidth="27795" windowHeight="12285"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="27795" windowHeight="12225" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Attributes" sheetId="1" r:id="rId1"/>
@@ -272,7 +272,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9776" uniqueCount="4800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9785" uniqueCount="4803">
   <si>
     <t>identifier</t>
   </si>
@@ -14672,6 +14672,15 @@
   </si>
   <si>
     <t>Default</t>
+  </si>
+  <si>
+    <t>currency.short_name</t>
+  </si>
+  <si>
+    <t>frequency.short_name</t>
+  </si>
+  <si>
+    <t>type.short_name</t>
   </si>
 </sst>
 </file>
@@ -15529,7 +15538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2357"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
@@ -57038,10 +57047,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57314,6 +57323,39 @@
         <v>4788</v>
       </c>
     </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>4800</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4754</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4051</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>4801</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4754</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4758</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>4802</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4754</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4783</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/resources/Repository Setup.xlsx
+++ b/resources/Repository Setup.xlsx
@@ -15646,8 +15646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A757" workbookViewId="0">
-      <selection activeCell="D784" sqref="D784:E784"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="A157" sqref="A157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/resources/Repository Setup.xlsx
+++ b/resources/Repository Setup.xlsx
@@ -15236,12 +15236,6 @@
     <t>FINALE</t>
   </si>
   <si>
-    <t>create_operation</t>
-  </si>
-  <si>
-    <t>Create operation</t>
-  </si>
-  <si>
     <t>buy</t>
   </si>
   <si>
@@ -15282,6 +15276,12 @@
   </si>
   <si>
     <t>Sell call</t>
+  </si>
+  <si>
+    <t>security_operation</t>
+  </si>
+  <si>
+    <t>Buy or sell securities</t>
   </si>
 </sst>
 </file>
@@ -16139,8 +16139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2402"/>
   <sheetViews>
-    <sheetView topLeftCell="A382" workbookViewId="0">
-      <selection activeCell="C397" sqref="C397"/>
+    <sheetView topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="D116" sqref="D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57490,7 +57490,7 @@
   <dimension ref="A1:P72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="G22" sqref="G22:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58075,16 +58075,16 @@
         <v>4752</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>4987</v>
+        <v>5001</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>4988</v>
+        <v>5002</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>4988</v>
+        <v>5002</v>
       </c>
       <c r="I22" s="25" t="s">
-        <v>4988</v>
+        <v>5002</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
@@ -59045,16 +59045,16 @@
         <v>4752</v>
       </c>
       <c r="E59" s="25" t="s">
-        <v>4989</v>
+        <v>4987</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>4990</v>
+        <v>4988</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>4990</v>
+        <v>4988</v>
       </c>
       <c r="I59" s="25" t="s">
-        <v>4990</v>
+        <v>4988</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -59071,16 +59071,16 @@
         <v>4752</v>
       </c>
       <c r="E60" s="25" t="s">
+        <v>4987</v>
+      </c>
+      <c r="G60" s="25" t="s">
         <v>4989</v>
       </c>
-      <c r="G60" s="25" t="s">
-        <v>4991</v>
-      </c>
       <c r="H60" s="25" t="s">
-        <v>4991</v>
+        <v>4989</v>
       </c>
       <c r="I60" s="25" t="s">
-        <v>4991</v>
+        <v>4989</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -59097,16 +59097,16 @@
         <v>4752</v>
       </c>
       <c r="E61" s="25" t="s">
-        <v>4989</v>
+        <v>4987</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>4992</v>
+        <v>4990</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>4992</v>
+        <v>4990</v>
       </c>
       <c r="I61" s="25" t="s">
-        <v>4992</v>
+        <v>4990</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -59123,7 +59123,7 @@
         <v>4752</v>
       </c>
       <c r="E62" s="25" t="s">
-        <v>4989</v>
+        <v>4987</v>
       </c>
       <c r="G62" s="25" t="s">
         <v>4816</v>
@@ -59149,16 +59149,16 @@
         <v>4752</v>
       </c>
       <c r="E63" s="25" t="s">
-        <v>4989</v>
+        <v>4987</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>4993</v>
+        <v>4991</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>4993</v>
+        <v>4991</v>
       </c>
       <c r="I63" s="25" t="s">
-        <v>4993</v>
+        <v>4991</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -59175,16 +59175,16 @@
         <v>4752</v>
       </c>
       <c r="E64" s="25" t="s">
-        <v>4989</v>
+        <v>4987</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>4994</v>
+        <v>4992</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>4994</v>
+        <v>4992</v>
       </c>
       <c r="I64" s="25" t="s">
-        <v>4994</v>
+        <v>4992</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -59201,16 +59201,16 @@
         <v>4752</v>
       </c>
       <c r="E65" s="25" t="s">
-        <v>4989</v>
+        <v>4987</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>4995</v>
+        <v>4993</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>4995</v>
+        <v>4993</v>
       </c>
       <c r="I65" s="25" t="s">
-        <v>4995</v>
+        <v>4993</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -59227,16 +59227,16 @@
         <v>4752</v>
       </c>
       <c r="E66" s="25" t="s">
-        <v>4996</v>
+        <v>4994</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>4997</v>
+        <v>4995</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>4997</v>
+        <v>4995</v>
       </c>
       <c r="I66" s="25" t="s">
-        <v>4997</v>
+        <v>4995</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -59253,16 +59253,16 @@
         <v>4752</v>
       </c>
       <c r="E67" s="25" t="s">
+        <v>4994</v>
+      </c>
+      <c r="G67" s="25" t="s">
         <v>4996</v>
       </c>
-      <c r="G67" s="25" t="s">
-        <v>4998</v>
-      </c>
       <c r="H67" s="25" t="s">
-        <v>4998</v>
+        <v>4996</v>
       </c>
       <c r="I67" s="25" t="s">
-        <v>4998</v>
+        <v>4996</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -59279,16 +59279,16 @@
         <v>4752</v>
       </c>
       <c r="E68" s="25" t="s">
-        <v>4996</v>
+        <v>4994</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>4999</v>
+        <v>4997</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>4999</v>
+        <v>4997</v>
       </c>
       <c r="I68" s="25" t="s">
-        <v>4999</v>
+        <v>4997</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -59305,7 +59305,7 @@
         <v>4752</v>
       </c>
       <c r="E69" s="25" t="s">
-        <v>4996</v>
+        <v>4994</v>
       </c>
       <c r="G69" s="25" t="s">
         <v>4817</v>
@@ -59331,16 +59331,16 @@
         <v>4752</v>
       </c>
       <c r="E70" s="25" t="s">
-        <v>4996</v>
+        <v>4994</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>5000</v>
+        <v>4998</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>5000</v>
+        <v>4998</v>
       </c>
       <c r="I70" s="25" t="s">
-        <v>5000</v>
+        <v>4998</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -59357,16 +59357,16 @@
         <v>4752</v>
       </c>
       <c r="E71" s="25" t="s">
-        <v>4996</v>
+        <v>4994</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>5001</v>
+        <v>4999</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>5001</v>
+        <v>4999</v>
       </c>
       <c r="I71" s="25" t="s">
-        <v>5001</v>
+        <v>4999</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -59383,16 +59383,16 @@
         <v>4752</v>
       </c>
       <c r="E72" s="25" t="s">
-        <v>4996</v>
+        <v>4994</v>
       </c>
       <c r="G72" s="25" t="s">
-        <v>5002</v>
+        <v>5000</v>
       </c>
       <c r="H72" s="25" t="s">
-        <v>5002</v>
+        <v>5000</v>
       </c>
       <c r="I72" s="25" t="s">
-        <v>5002</v>
+        <v>5000</v>
       </c>
     </row>
   </sheetData>

--- a/resources/Repository Setup.xlsx
+++ b/resources/Repository Setup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="540" windowWidth="27795" windowHeight="12165"/>
+    <workbookView xWindow="480" yWindow="540" windowWidth="27795" windowHeight="12165" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Attributes" sheetId="1" r:id="rId1"/>
@@ -273,7 +273,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10804" uniqueCount="5064">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10813" uniqueCount="5070">
   <si>
     <t>identifier</t>
   </si>
@@ -15465,6 +15465,24 @@
   </si>
   <si>
     <t>STRICT_BOOLEAN_FALSE</t>
+  </si>
+  <si>
+    <t>SEQUOIA-Flags.SEQUOIA-Product</t>
+  </si>
+  <si>
+    <t>SEQUOIA-Flags.WEALTHINGS-Export</t>
+  </si>
+  <si>
+    <t>SEQUOIA-Flags.SEQUOIA-Inception-date</t>
+  </si>
+  <si>
+    <t>SEQUOIA Onboarding date</t>
+  </si>
+  <si>
+    <t>Is SEQUOIA Product ?</t>
+  </si>
+  <si>
+    <t>Export to Wealthings ?</t>
   </si>
 </sst>
 </file>
@@ -16320,8 +16338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2451"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100:A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58011,16 +58029,16 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -58494,6 +58512,39 @@
       </c>
       <c r="C43" t="s">
         <v>4970</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>5064</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4752</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5068</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>5065</v>
+      </c>
+      <c r="B45" t="s">
+        <v>4752</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5069</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>5066</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4752</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5067</v>
       </c>
     </row>
   </sheetData>

--- a/resources/Repository Setup.xlsx
+++ b/resources/Repository Setup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="540" windowWidth="27795" windowHeight="12165" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="480" yWindow="540" windowWidth="27795" windowHeight="12165"/>
   </bookViews>
   <sheets>
     <sheet name="Attributes" sheetId="1" r:id="rId1"/>
@@ -16422,8 +16422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2452"/>
   <sheetViews>
-    <sheetView topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="A141" sqref="A141"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="B150" sqref="B150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58132,8 +58132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/resources/Repository Setup.xlsx
+++ b/resources/Repository Setup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="540" windowWidth="27795" windowHeight="12165"/>
+    <workbookView xWindow="480" yWindow="540" windowWidth="27795" windowHeight="12165" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Attributes" sheetId="1" r:id="rId1"/>
@@ -273,7 +273,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10856" uniqueCount="5098">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10864" uniqueCount="5101">
   <si>
     <t>identifier</t>
   </si>
@@ -15567,6 +15567,15 @@
   </si>
   <si>
     <t>Role</t>
+  </si>
+  <si>
+    <t>accounts_compute</t>
+  </si>
+  <si>
+    <t>Compute accounts statuses</t>
+  </si>
+  <si>
+    <t>Compute accounts</t>
   </si>
 </sst>
 </file>
@@ -16422,8 +16431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2452"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="B150" sqref="B150"/>
+    <sheetView topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="B149" sqref="B149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58799,10 +58808,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P74"/>
+  <dimension ref="A1:P75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59347,12 +59356,12 @@
         <v>4883</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
         <v>4898</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>4878</v>
+        <v>4907</v>
       </c>
       <c r="C21" s="23" t="s">
         <v>43</v>
@@ -59361,19 +59370,19 @@
         <v>4752</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>4882</v>
-      </c>
-      <c r="G21" t="s">
-        <v>4884</v>
+        <v>5098</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>5099</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>4884</v>
+        <v>5099</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>4884</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.25">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>4898</v>
       </c>
@@ -59387,16 +59396,16 @@
         <v>4752</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>5001</v>
-      </c>
-      <c r="G22" s="23" t="s">
-        <v>5002</v>
+        <v>4882</v>
+      </c>
+      <c r="G22" t="s">
+        <v>4884</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>5002</v>
+        <v>4884</v>
       </c>
       <c r="I22" s="23" t="s">
-        <v>5002</v>
+        <v>4884</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -59413,16 +59422,16 @@
         <v>4752</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>5003</v>
+        <v>5001</v>
       </c>
       <c r="G23" s="23" t="s">
-        <v>5004</v>
+        <v>5002</v>
       </c>
       <c r="H23" s="23" t="s">
-        <v>5004</v>
+        <v>5002</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>5004</v>
+        <v>5002</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -59439,19 +59448,19 @@
         <v>4752</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>5005</v>
+        <v>5003</v>
       </c>
       <c r="G24" s="23" t="s">
-        <v>5006</v>
+        <v>5004</v>
       </c>
       <c r="H24" s="23" t="s">
-        <v>5006</v>
+        <v>5004</v>
       </c>
       <c r="I24" s="23" t="s">
-        <v>5006</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+        <v>5004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
         <v>4898</v>
       </c>
@@ -59459,22 +59468,22 @@
         <v>4878</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D25" s="23" t="s">
         <v>4752</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>4879</v>
+        <v>5005</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>4880</v>
+        <v>5006</v>
       </c>
       <c r="H25" s="23" t="s">
-        <v>4880</v>
+        <v>5006</v>
       </c>
       <c r="I25" s="23" t="s">
-        <v>4880</v>
+        <v>5006</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -59485,7 +59494,7 @@
         <v>4878</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>676</v>
+        <v>44</v>
       </c>
       <c r="D26" s="23" t="s">
         <v>4752</v>
@@ -59511,7 +59520,7 @@
         <v>4878</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>1937</v>
+        <v>676</v>
       </c>
       <c r="D27" s="23" t="s">
         <v>4752</v>
@@ -59537,7 +59546,7 @@
         <v>4878</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>677</v>
+        <v>1937</v>
       </c>
       <c r="D28" s="23" t="s">
         <v>4752</v>
@@ -59563,7 +59572,7 @@
         <v>4878</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>4500</v>
+        <v>677</v>
       </c>
       <c r="D29" s="23" t="s">
         <v>4752</v>
@@ -59580,7 +59589,6 @@
       <c r="I29" s="23" t="s">
         <v>4880</v>
       </c>
-      <c r="P29" s="23"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
@@ -59590,7 +59598,7 @@
         <v>4878</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>45</v>
+        <v>4500</v>
       </c>
       <c r="D30" s="23" t="s">
         <v>4752</v>
@@ -59617,7 +59625,7 @@
         <v>4878</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D31" s="23" t="s">
         <v>4752</v>
@@ -59644,7 +59652,7 @@
         <v>4878</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>2662</v>
+        <v>46</v>
       </c>
       <c r="D32" s="23" t="s">
         <v>4752</v>
@@ -59671,7 +59679,7 @@
         <v>4878</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>47</v>
+        <v>2662</v>
       </c>
       <c r="D33" s="23" t="s">
         <v>4752</v>
@@ -59698,7 +59706,7 @@
         <v>4878</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>2685</v>
+        <v>47</v>
       </c>
       <c r="D34" s="23" t="s">
         <v>4752</v>
@@ -59725,7 +59733,7 @@
         <v>4878</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="D35" s="23" t="s">
         <v>4752</v>
@@ -59752,7 +59760,7 @@
         <v>4878</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>2702</v>
+        <v>2686</v>
       </c>
       <c r="D36" s="23" t="s">
         <v>4752</v>
@@ -59779,7 +59787,7 @@
         <v>4878</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>2705</v>
+        <v>2702</v>
       </c>
       <c r="D37" s="23" t="s">
         <v>4752</v>
@@ -59796,6 +59804,7 @@
       <c r="I37" s="23" t="s">
         <v>4880</v>
       </c>
+      <c r="P37" s="23"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
@@ -59805,7 +59814,7 @@
         <v>4878</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>2723</v>
+        <v>2705</v>
       </c>
       <c r="D38" s="23" t="s">
         <v>4752</v>
@@ -59831,22 +59840,22 @@
         <v>4878</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>44</v>
+        <v>2723</v>
       </c>
       <c r="D39" s="23" t="s">
         <v>4752</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>4905</v>
+        <v>4879</v>
       </c>
       <c r="G39" s="23" t="s">
-        <v>4906</v>
+        <v>4880</v>
       </c>
       <c r="H39" s="23" t="s">
-        <v>4906</v>
+        <v>4880</v>
       </c>
       <c r="I39" s="23" t="s">
-        <v>4906</v>
+        <v>4880</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
@@ -59857,7 +59866,7 @@
         <v>4878</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>676</v>
+        <v>44</v>
       </c>
       <c r="D40" s="23" t="s">
         <v>4752</v>
@@ -59883,7 +59892,7 @@
         <v>4878</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>1937</v>
+        <v>676</v>
       </c>
       <c r="D41" s="23" t="s">
         <v>4752</v>
@@ -59909,7 +59918,7 @@
         <v>4878</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>677</v>
+        <v>1937</v>
       </c>
       <c r="D42" s="23" t="s">
         <v>4752</v>
@@ -59935,7 +59944,7 @@
         <v>4878</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>4500</v>
+        <v>677</v>
       </c>
       <c r="D43" s="23" t="s">
         <v>4752</v>
@@ -59961,7 +59970,7 @@
         <v>4878</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>45</v>
+        <v>4500</v>
       </c>
       <c r="D44" s="23" t="s">
         <v>4752</v>
@@ -59987,7 +59996,7 @@
         <v>4878</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D45" s="23" t="s">
         <v>4752</v>
@@ -60013,7 +60022,7 @@
         <v>4878</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>2662</v>
+        <v>46</v>
       </c>
       <c r="D46" s="23" t="s">
         <v>4752</v>
@@ -60039,7 +60048,7 @@
         <v>4878</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>47</v>
+        <v>2662</v>
       </c>
       <c r="D47" s="23" t="s">
         <v>4752</v>
@@ -60065,7 +60074,7 @@
         <v>4878</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>2685</v>
+        <v>47</v>
       </c>
       <c r="D48" s="23" t="s">
         <v>4752</v>
@@ -60091,7 +60100,7 @@
         <v>4878</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="D49" s="23" t="s">
         <v>4752</v>
@@ -60117,7 +60126,7 @@
         <v>4878</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>2702</v>
+        <v>2686</v>
       </c>
       <c r="D50" s="23" t="s">
         <v>4752</v>
@@ -60143,7 +60152,7 @@
         <v>4878</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>2705</v>
+        <v>2702</v>
       </c>
       <c r="D51" s="23" t="s">
         <v>4752</v>
@@ -60169,7 +60178,7 @@
         <v>4878</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>2723</v>
+        <v>2705</v>
       </c>
       <c r="D52" s="23" t="s">
         <v>4752</v>
@@ -60192,25 +60201,25 @@
         <v>4898</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>4911</v>
+        <v>4878</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>44</v>
+        <v>2723</v>
       </c>
       <c r="D53" s="23" t="s">
         <v>4752</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>4910</v>
+        <v>4905</v>
       </c>
       <c r="G53" s="23" t="s">
-        <v>4912</v>
+        <v>4906</v>
       </c>
       <c r="H53" s="23" t="s">
-        <v>4912</v>
+        <v>4906</v>
       </c>
       <c r="I53" s="23" t="s">
-        <v>4913</v>
+        <v>4906</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -60221,7 +60230,7 @@
         <v>4911</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>676</v>
+        <v>44</v>
       </c>
       <c r="D54" s="23" t="s">
         <v>4752</v>
@@ -60247,7 +60256,7 @@
         <v>4911</v>
       </c>
       <c r="C55" s="23" t="s">
-        <v>1937</v>
+        <v>676</v>
       </c>
       <c r="D55" s="23" t="s">
         <v>4752</v>
@@ -60273,7 +60282,7 @@
         <v>4911</v>
       </c>
       <c r="C56" s="23" t="s">
-        <v>677</v>
+        <v>1937</v>
       </c>
       <c r="D56" s="23" t="s">
         <v>4752</v>
@@ -60299,7 +60308,7 @@
         <v>4911</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>2685</v>
+        <v>677</v>
       </c>
       <c r="D57" s="23" t="s">
         <v>4752</v>
@@ -60325,7 +60334,7 @@
         <v>4911</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="D58" s="23" t="s">
         <v>4752</v>
@@ -60351,7 +60360,7 @@
         <v>4911</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>2702</v>
+        <v>2686</v>
       </c>
       <c r="D59" s="23" t="s">
         <v>4752</v>
@@ -60377,7 +60386,7 @@
         <v>4911</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>2705</v>
+        <v>2702</v>
       </c>
       <c r="D60" s="23" t="s">
         <v>4752</v>
@@ -60403,22 +60412,22 @@
         <v>4911</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>44</v>
+        <v>2705</v>
       </c>
       <c r="D61" s="23" t="s">
         <v>4752</v>
       </c>
       <c r="E61" s="23" t="s">
-        <v>4987</v>
+        <v>4910</v>
       </c>
       <c r="G61" s="23" t="s">
-        <v>4988</v>
+        <v>4912</v>
       </c>
       <c r="H61" s="23" t="s">
-        <v>4988</v>
+        <v>4912</v>
       </c>
       <c r="I61" s="23" t="s">
-        <v>4988</v>
+        <v>4913</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -60429,7 +60438,7 @@
         <v>4911</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>676</v>
+        <v>44</v>
       </c>
       <c r="D62" s="23" t="s">
         <v>4752</v>
@@ -60438,13 +60447,13 @@
         <v>4987</v>
       </c>
       <c r="G62" s="23" t="s">
-        <v>4989</v>
+        <v>4988</v>
       </c>
       <c r="H62" s="23" t="s">
-        <v>4989</v>
+        <v>4988</v>
       </c>
       <c r="I62" s="23" t="s">
-        <v>4989</v>
+        <v>4988</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -60455,7 +60464,7 @@
         <v>4911</v>
       </c>
       <c r="C63" s="23" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D63" s="23" t="s">
         <v>4752</v>
@@ -60464,13 +60473,13 @@
         <v>4987</v>
       </c>
       <c r="G63" s="23" t="s">
-        <v>4990</v>
+        <v>4989</v>
       </c>
       <c r="H63" s="23" t="s">
-        <v>4990</v>
+        <v>4989</v>
       </c>
       <c r="I63" s="23" t="s">
-        <v>4990</v>
+        <v>4989</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -60481,7 +60490,7 @@
         <v>4911</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>2685</v>
+        <v>677</v>
       </c>
       <c r="D64" s="23" t="s">
         <v>4752</v>
@@ -60490,13 +60499,13 @@
         <v>4987</v>
       </c>
       <c r="G64" s="23" t="s">
-        <v>4816</v>
+        <v>4990</v>
       </c>
       <c r="H64" s="23" t="s">
-        <v>4816</v>
+        <v>4990</v>
       </c>
       <c r="I64" s="23" t="s">
-        <v>4816</v>
+        <v>4990</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -60507,7 +60516,7 @@
         <v>4911</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="D65" s="23" t="s">
         <v>4752</v>
@@ -60516,13 +60525,13 @@
         <v>4987</v>
       </c>
       <c r="G65" s="23" t="s">
-        <v>4991</v>
+        <v>4816</v>
       </c>
       <c r="H65" s="23" t="s">
-        <v>4991</v>
+        <v>4816</v>
       </c>
       <c r="I65" s="23" t="s">
-        <v>4991</v>
+        <v>4816</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -60533,7 +60542,7 @@
         <v>4911</v>
       </c>
       <c r="C66" s="23" t="s">
-        <v>2702</v>
+        <v>2686</v>
       </c>
       <c r="D66" s="23" t="s">
         <v>4752</v>
@@ -60542,13 +60551,13 @@
         <v>4987</v>
       </c>
       <c r="G66" s="23" t="s">
-        <v>4992</v>
+        <v>4991</v>
       </c>
       <c r="H66" s="23" t="s">
-        <v>4992</v>
+        <v>4991</v>
       </c>
       <c r="I66" s="23" t="s">
-        <v>4992</v>
+        <v>4991</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -60559,7 +60568,7 @@
         <v>4911</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>2705</v>
+        <v>2702</v>
       </c>
       <c r="D67" s="23" t="s">
         <v>4752</v>
@@ -60568,13 +60577,13 @@
         <v>4987</v>
       </c>
       <c r="G67" s="23" t="s">
-        <v>4993</v>
+        <v>4992</v>
       </c>
       <c r="H67" s="23" t="s">
-        <v>4993</v>
+        <v>4992</v>
       </c>
       <c r="I67" s="23" t="s">
-        <v>4993</v>
+        <v>4992</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -60585,22 +60594,22 @@
         <v>4911</v>
       </c>
       <c r="C68" s="23" t="s">
-        <v>44</v>
+        <v>2705</v>
       </c>
       <c r="D68" s="23" t="s">
         <v>4752</v>
       </c>
       <c r="E68" s="23" t="s">
-        <v>4994</v>
+        <v>4987</v>
       </c>
       <c r="G68" s="23" t="s">
-        <v>4995</v>
+        <v>4993</v>
       </c>
       <c r="H68" s="23" t="s">
-        <v>4995</v>
+        <v>4993</v>
       </c>
       <c r="I68" s="23" t="s">
-        <v>4995</v>
+        <v>4993</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -60611,7 +60620,7 @@
         <v>4911</v>
       </c>
       <c r="C69" s="23" t="s">
-        <v>676</v>
+        <v>44</v>
       </c>
       <c r="D69" s="23" t="s">
         <v>4752</v>
@@ -60620,13 +60629,13 @@
         <v>4994</v>
       </c>
       <c r="G69" s="23" t="s">
-        <v>4996</v>
+        <v>4995</v>
       </c>
       <c r="H69" s="23" t="s">
-        <v>4996</v>
+        <v>4995</v>
       </c>
       <c r="I69" s="23" t="s">
-        <v>4996</v>
+        <v>4995</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -60637,7 +60646,7 @@
         <v>4911</v>
       </c>
       <c r="C70" s="23" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D70" s="23" t="s">
         <v>4752</v>
@@ -60646,13 +60655,13 @@
         <v>4994</v>
       </c>
       <c r="G70" s="23" t="s">
-        <v>4997</v>
+        <v>4996</v>
       </c>
       <c r="H70" s="23" t="s">
-        <v>4997</v>
+        <v>4996</v>
       </c>
       <c r="I70" s="23" t="s">
-        <v>4997</v>
+        <v>4996</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -60663,7 +60672,7 @@
         <v>4911</v>
       </c>
       <c r="C71" s="23" t="s">
-        <v>2685</v>
+        <v>677</v>
       </c>
       <c r="D71" s="23" t="s">
         <v>4752</v>
@@ -60672,13 +60681,13 @@
         <v>4994</v>
       </c>
       <c r="G71" s="23" t="s">
-        <v>4817</v>
+        <v>4997</v>
       </c>
       <c r="H71" s="23" t="s">
-        <v>4817</v>
+        <v>4997</v>
       </c>
       <c r="I71" s="23" t="s">
-        <v>4817</v>
+        <v>4997</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -60689,7 +60698,7 @@
         <v>4911</v>
       </c>
       <c r="C72" s="23" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="D72" s="23" t="s">
         <v>4752</v>
@@ -60698,13 +60707,13 @@
         <v>4994</v>
       </c>
       <c r="G72" s="23" t="s">
-        <v>4998</v>
+        <v>4817</v>
       </c>
       <c r="H72" s="23" t="s">
-        <v>4998</v>
+        <v>4817</v>
       </c>
       <c r="I72" s="23" t="s">
-        <v>4998</v>
+        <v>4817</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -60715,7 +60724,7 @@
         <v>4911</v>
       </c>
       <c r="C73" s="23" t="s">
-        <v>2702</v>
+        <v>2686</v>
       </c>
       <c r="D73" s="23" t="s">
         <v>4752</v>
@@ -60724,13 +60733,13 @@
         <v>4994</v>
       </c>
       <c r="G73" s="23" t="s">
-        <v>4999</v>
+        <v>4998</v>
       </c>
       <c r="H73" s="23" t="s">
-        <v>4999</v>
+        <v>4998</v>
       </c>
       <c r="I73" s="23" t="s">
-        <v>4999</v>
+        <v>4998</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -60741,7 +60750,7 @@
         <v>4911</v>
       </c>
       <c r="C74" s="23" t="s">
-        <v>2705</v>
+        <v>2702</v>
       </c>
       <c r="D74" s="23" t="s">
         <v>4752</v>
@@ -60750,12 +60759,38 @@
         <v>4994</v>
       </c>
       <c r="G74" s="23" t="s">
+        <v>4999</v>
+      </c>
+      <c r="H74" s="23" t="s">
+        <v>4999</v>
+      </c>
+      <c r="I74" s="23" t="s">
+        <v>4999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="23" t="s">
+        <v>4898</v>
+      </c>
+      <c r="B75" s="23" t="s">
+        <v>4911</v>
+      </c>
+      <c r="C75" s="23" t="s">
+        <v>2705</v>
+      </c>
+      <c r="D75" s="23" t="s">
+        <v>4752</v>
+      </c>
+      <c r="E75" s="23" t="s">
+        <v>4994</v>
+      </c>
+      <c r="G75" s="23" t="s">
         <v>5000</v>
       </c>
-      <c r="H74" s="23" t="s">
+      <c r="H75" s="23" t="s">
         <v>5000</v>
       </c>
-      <c r="I74" s="23" t="s">
+      <c r="I75" s="23" t="s">
         <v>5000</v>
       </c>
     </row>
